--- a/skills/Digital Skills.xlsx
+++ b/skills/Digital Skills.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/binxuan/Desktop/Projects/Skills Ontology/skills/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D92308C2-933D-804F-A419-7BCF49D82BB3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C47D25A-A8A5-2345-BFC0-0A9B593E46F5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10800" yWindow="460" windowWidth="18000" windowHeight="16140" activeTab="2" xr2:uid="{273D56F0-60F4-7D4D-B74A-F5CA8C152A80}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1181" uniqueCount="535">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1315" uniqueCount="600">
   <si>
     <t>Skill</t>
   </si>
@@ -817,9 +817,6 @@
     <t>Social Network</t>
   </si>
   <si>
-    <t>Socialogy</t>
-  </si>
-  <si>
     <t>Social Networking Tool</t>
   </si>
   <si>
@@ -1099,9 +1096,6 @@
     <t>Web Application Framework</t>
   </si>
   <si>
-    <t xml:space="preserve">Web Application </t>
-  </si>
-  <si>
     <t>Web Application Development</t>
   </si>
   <si>
@@ -1303,9 +1297,6 @@
     <t>MATLAB</t>
   </si>
   <si>
-    <t>Artifical Intelligence</t>
-  </si>
-  <si>
     <t>Reinforcement Learning</t>
   </si>
   <si>
@@ -1643,13 +1634,217 @@
   </si>
   <si>
     <t>Hash Table</t>
+  </si>
+  <si>
+    <t>Sociology</t>
+  </si>
+  <si>
+    <t>Networking</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Email Marketing</t>
+  </si>
+  <si>
+    <t>Email Management</t>
+  </si>
+  <si>
+    <t>Email Filtering</t>
+  </si>
+  <si>
+    <t>Mass Email</t>
+  </si>
+  <si>
+    <t>Email Production</t>
+  </si>
+  <si>
+    <t>Email Migration</t>
+  </si>
+  <si>
+    <t>Email Client</t>
+  </si>
+  <si>
+    <t>Outlook</t>
+  </si>
+  <si>
+    <t>Email Archiving</t>
+  </si>
+  <si>
+    <t>Email Processing</t>
+  </si>
+  <si>
+    <t>Marketing</t>
+  </si>
+  <si>
+    <t>Data Structured Language</t>
+  </si>
+  <si>
+    <t>List</t>
+  </si>
+  <si>
+    <t>Distributed Computing</t>
+  </si>
+  <si>
+    <t>Sed</t>
+  </si>
+  <si>
+    <t>Dictionary</t>
+  </si>
+  <si>
+    <t>Tree</t>
+  </si>
+  <si>
+    <t>OneFS Distributed File System</t>
+  </si>
+  <si>
+    <t>Kosmos Distributed File System (KFS)</t>
+  </si>
+  <si>
+    <t>Visual C++</t>
+  </si>
+  <si>
+    <t>Embedded C++</t>
+  </si>
+  <si>
+    <t>Microsoft Foundation Class Library</t>
+  </si>
+  <si>
+    <t>Binary Tree</t>
+  </si>
+  <si>
+    <t>Binary Search Tree</t>
+  </si>
+  <si>
+    <t>Binary Search Algorithm</t>
+  </si>
+  <si>
+    <t>Priority Queue</t>
+  </si>
+  <si>
+    <t>Linked List</t>
+  </si>
+  <si>
+    <t>Disk Array</t>
+  </si>
+  <si>
+    <t>Gate Array</t>
+  </si>
+  <si>
+    <t>Objective-C</t>
+  </si>
+  <si>
+    <t>ECMAScript</t>
+  </si>
+  <si>
+    <t>MISRA C</t>
+  </si>
+  <si>
+    <t>GNU Cflow</t>
+  </si>
+  <si>
+    <t>Polynomial Regression</t>
+  </si>
+  <si>
+    <t>Geometry</t>
+  </si>
+  <si>
+    <t>Computational Geometry</t>
+  </si>
+  <si>
+    <t>Coordinate Geometry</t>
+  </si>
+  <si>
+    <t>Euclidean Geometry</t>
+  </si>
+  <si>
+    <t>Analytic Geometry</t>
+  </si>
+  <si>
+    <t>Descriptive Geometry</t>
+  </si>
+  <si>
+    <t>Differential Geometry</t>
+  </si>
+  <si>
+    <t>Track Geometry</t>
+  </si>
+  <si>
+    <t>Fractal Geometry</t>
+  </si>
+  <si>
+    <t>Conic Sections</t>
+  </si>
+  <si>
+    <t>Debugging</t>
+  </si>
+  <si>
+    <t>GNU Debugger</t>
+  </si>
+  <si>
+    <t>Android Debug Bridge</t>
+  </si>
+  <si>
+    <t>Data Display Debugger</t>
+  </si>
+  <si>
+    <t>Kernel Debugger</t>
+  </si>
+  <si>
+    <t>Background Debug Mode</t>
+  </si>
+  <si>
+    <t>Remote Debugging</t>
+  </si>
+  <si>
+    <t>Script Debugger</t>
+  </si>
+  <si>
+    <t>Microsoft Visual Studio Debugger</t>
+  </si>
+  <si>
+    <t>IIS Debugging</t>
+  </si>
+  <si>
+    <t>Full Stack Software Engineering</t>
+  </si>
+  <si>
+    <t>Computer-Aided Software Engineering</t>
+  </si>
+  <si>
+    <t>Model-Driven Software Engineering</t>
+  </si>
+  <si>
+    <t>Experimental Software Engineering</t>
+  </si>
+  <si>
+    <t>Component-Based Software Engineering</t>
+  </si>
+  <si>
+    <t>FourGen Computer-Aided Software Engineering (CASE) Tools</t>
+  </si>
+  <si>
+    <t>Long Short-Term Memory (LSTM)</t>
+  </si>
+  <si>
+    <t>PyCharm</t>
+  </si>
+  <si>
+    <t>Perl</t>
+  </si>
+  <si>
+    <t>Ajax</t>
+  </si>
+  <si>
+    <t>OpenCV</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1663,12 +1858,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Helvetica Neue"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1730,16 +1919,55 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="8">
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -1818,8 +2046,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FCFD10E1-5310-7346-AC41-980E95A43B73}" name="Table1" displayName="Table1" ref="A1:B59" totalsRowShown="0">
-  <autoFilter ref="A1:B59" xr:uid="{70E2AE85-8354-604E-A8F5-BA1E0909D1D5}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FCFD10E1-5310-7346-AC41-980E95A43B73}" name="Table1" displayName="Table1" ref="A1:B61" totalsRowShown="0">
+  <autoFilter ref="A1:B61" xr:uid="{70E2AE85-8354-604E-A8F5-BA1E0909D1D5}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B58">
     <sortCondition ref="B1:B58"/>
   </sortState>
@@ -1832,13 +2060,13 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{BBCDDEFA-488A-9E41-811A-FE23F1F905D0}" name="Table13" displayName="Table13" ref="A1:B158" totalsRowShown="0">
-  <autoFilter ref="A1:B158" xr:uid="{70E2AE85-8354-604E-A8F5-BA1E0909D1D5}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{BBCDDEFA-488A-9E41-811A-FE23F1F905D0}" name="Table13" displayName="Table13" ref="A1:B161" totalsRowShown="0">
+  <autoFilter ref="A1:B161" xr:uid="{70E2AE85-8354-604E-A8F5-BA1E0909D1D5}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B158">
     <sortCondition ref="B1:B158"/>
   </sortState>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{E07A16DC-F5BD-C84B-B485-0EF4E3A3F01E}" name="Skill" dataDxfId="4"/>
+    <tableColumn id="1" xr3:uid="{E07A16DC-F5BD-C84B-B485-0EF4E3A3F01E}" name="Skill" dataDxfId="7"/>
     <tableColumn id="2" xr3:uid="{717F6D6E-2791-434E-BF35-58EC078E2BAB}" name="Parent"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1846,28 +2074,28 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{6955DF53-08E7-354C-879B-4C93548A2DFB}" name="Table134" displayName="Table134" ref="A1:B222" totalsRowShown="0" headerRowDxfId="3" dataDxfId="2">
-  <autoFilter ref="A1:B222" xr:uid="{70E2AE85-8354-604E-A8F5-BA1E0909D1D5}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B182">
-    <sortCondition ref="B1:B182"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{6955DF53-08E7-354C-879B-4C93548A2DFB}" name="Table134" displayName="Table134" ref="A1:B273" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
+  <autoFilter ref="A1:B273" xr:uid="{70E2AE85-8354-604E-A8F5-BA1E0909D1D5}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B273">
+    <sortCondition ref="A1:A273"/>
   </sortState>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{35F37C34-962A-B542-ADB6-57B519C2B0E6}" name="Skill" dataDxfId="1"/>
-    <tableColumn id="2" xr3:uid="{93479EA6-FE92-6B49-A82A-16500F320FE5}" name="Parent" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{35F37C34-962A-B542-ADB6-57B519C2B0E6}" name="Skill" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{93479EA6-FE92-6B49-A82A-16500F320FE5}" name="Parent" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{78C3955E-191C-6B46-A4F8-304DB8D99527}" name="Table1345" displayName="Table1345" ref="A1:B136" totalsRowShown="0">
-  <autoFilter ref="A1:B136" xr:uid="{70E2AE85-8354-604E-A8F5-BA1E0909D1D5}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{78C3955E-191C-6B46-A4F8-304DB8D99527}" name="Table1345" displayName="Table1345" ref="A1:B148" totalsRowShown="0" dataDxfId="0">
+  <autoFilter ref="A1:B148" xr:uid="{70E2AE85-8354-604E-A8F5-BA1E0909D1D5}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B118">
     <sortCondition ref="B1:B118"/>
   </sortState>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{00E09998-D601-914C-AAF8-829F2822E229}" name="Skill"/>
-    <tableColumn id="2" xr3:uid="{7FB7FD24-5D8D-9448-8BAC-4C21D355BFC2}" name="Parent"/>
+    <tableColumn id="1" xr3:uid="{00E09998-D601-914C-AAF8-829F2822E229}" name="Skill" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{7FB7FD24-5D8D-9448-8BAC-4C21D355BFC2}" name="Parent" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2184,10 +2412,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25E914D5-27CD-7E41-A3B3-3B307D4A30A6}">
-  <dimension ref="A1:B59"/>
+  <dimension ref="A1:B61"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="A59" sqref="A59"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2216,7 +2444,7 @@
         <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>421</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -2277,7 +2505,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B11" t="s">
         <v>2</v>
@@ -2301,7 +2529,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="B14" t="s">
         <v>2</v>
@@ -2333,7 +2561,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B18" t="s">
         <v>2</v>
@@ -2357,7 +2585,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="B21" t="s">
         <v>2</v>
@@ -2405,7 +2633,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B27" t="s">
         <v>2</v>
@@ -2413,7 +2641,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B28" t="s">
         <v>2</v>
@@ -2429,7 +2657,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="B30" t="s">
         <v>2</v>
@@ -2445,7 +2673,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="B32" t="s">
         <v>2</v>
@@ -2453,7 +2681,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="B33" t="s">
         <v>2</v>
@@ -2517,7 +2745,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="B41" t="s">
         <v>3</v>
@@ -2652,10 +2880,26 @@
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="B59" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>548</v>
+      </c>
+      <c r="B60" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>569</v>
+      </c>
+      <c r="B61" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -2668,10 +2912,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC568B44-548B-D74F-B49B-DF829991C980}">
-  <dimension ref="A1:B158"/>
+  <dimension ref="A1:B161"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B149" sqref="B149"/>
+    <sheetView topLeftCell="A109" workbookViewId="0">
+      <selection activeCell="A162" sqref="A162"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2769,7 +3013,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B12" t="s">
         <v>154</v>
@@ -2785,7 +3029,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="B14" t="s">
         <v>70</v>
@@ -2793,7 +3037,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B15" t="s">
         <v>70</v>
@@ -2801,7 +3045,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="B16" t="s">
         <v>70</v>
@@ -2809,7 +3053,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B17" t="s">
         <v>70</v>
@@ -2817,7 +3061,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B18" t="s">
         <v>70</v>
@@ -2825,7 +3069,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B19" t="s">
         <v>70</v>
@@ -2833,7 +3077,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B20" t="s">
         <v>70</v>
@@ -2841,10 +3085,10 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
@@ -2913,7 +3157,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B30" t="s">
         <v>213</v>
@@ -2921,7 +3165,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B31" t="s">
         <v>213</v>
@@ -2947,7 +3191,7 @@
       <c r="A34" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B34" s="5" t="s">
+      <c r="B34" s="4" t="s">
         <v>8</v>
       </c>
     </row>
@@ -3081,7 +3325,7 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B51" t="s">
         <v>8</v>
@@ -3089,7 +3333,7 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B52" t="s">
         <v>13</v>
@@ -3105,7 +3349,7 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B54" t="s">
         <v>242</v>
@@ -3113,7 +3357,7 @@
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B55" t="s">
         <v>242</v>
@@ -3121,7 +3365,7 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="B56" t="s">
         <v>242</v>
@@ -3137,7 +3381,7 @@
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B58" t="s">
         <v>29</v>
@@ -3145,7 +3389,7 @@
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B59" t="s">
         <v>29</v>
@@ -3153,7 +3397,7 @@
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B60" t="s">
         <v>29</v>
@@ -3161,7 +3405,7 @@
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B61" t="s">
         <v>29</v>
@@ -3169,7 +3413,7 @@
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B62" t="s">
         <v>29</v>
@@ -3177,7 +3421,7 @@
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B63" t="s">
         <v>29</v>
@@ -3257,42 +3501,42 @@
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B73" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B74" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B75" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B76" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B77" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
@@ -3329,7 +3573,7 @@
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B82" t="s">
         <v>72</v>
@@ -3337,7 +3581,7 @@
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B83" t="s">
         <v>72</v>
@@ -3345,7 +3589,7 @@
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="B84" t="s">
         <v>72</v>
@@ -3465,7 +3709,7 @@
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B99" t="s">
         <v>30</v>
@@ -3489,98 +3733,98 @@
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="B102" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="B103" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="B104" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="B105" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="B106" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="B107" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A108" s="2" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="B108" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A109" s="2" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B109" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A110" s="2" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="B110" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A111" s="2" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="B111" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A112" s="2" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="B112" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A113" s="2" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B113" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.2">
@@ -3593,7 +3837,7 @@
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="B115" s="1" t="s">
         <v>254</v>
@@ -3617,7 +3861,7 @@
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B118" t="s">
         <v>73</v>
@@ -3625,34 +3869,34 @@
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="B119" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="B120" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="B121" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.2">
@@ -3697,7 +3941,7 @@
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="B128" t="s">
         <v>44</v>
@@ -3721,66 +3965,66 @@
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A131" s="2" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="B131" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A132" s="2" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="B132" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A133" s="2" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="B133" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A134" s="2" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="B134" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A135" s="2" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="B135" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A136" s="2" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="B136" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A137" s="2" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="B137" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A138" s="2" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="B138" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.2">
@@ -3788,12 +4032,12 @@
         <v>42</v>
       </c>
       <c r="B139" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B140" t="s">
         <v>28</v>
@@ -3803,21 +4047,21 @@
       <c r="A141" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B141" s="4" t="s">
-        <v>416</v>
+      <c r="B141" s="3" t="s">
+        <v>414</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="B142" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A143" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B143" t="s">
         <v>258</v>
@@ -3825,7 +4069,7 @@
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B144" t="s">
         <v>258</v>
@@ -3833,7 +4077,7 @@
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A145" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B145" t="s">
         <v>258</v>
@@ -3841,10 +4085,10 @@
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A146" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B146" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.2">
@@ -3852,7 +4096,7 @@
         <v>258</v>
       </c>
       <c r="B147" t="s">
-        <v>259</v>
+        <v>532</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.2">
@@ -3921,7 +4165,7 @@
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B156" t="s">
         <v>42</v>
@@ -3929,7 +4173,7 @@
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A157" s="1" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="B157" t="s">
         <v>42</v>
@@ -3941,6 +4185,30 @@
       </c>
       <c r="B158" t="s">
         <v>247</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A159" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="B159" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A160" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="B160" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A161" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="B161" t="s">
+        <v>374</v>
       </c>
     </row>
   </sheetData>
@@ -3953,10 +4221,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC367FE4-F21A-4B4E-A4D6-C29EEEBA6A4D}">
-  <dimension ref="A1:B222"/>
+  <dimension ref="A1:B273"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A194" workbookViewId="0">
-      <selection activeCell="B201" sqref="B201"/>
+    <sheetView tabSelected="1" topLeftCell="A242" workbookViewId="0">
+      <selection activeCell="A260" sqref="A260"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3974,71 +4242,71 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>465</v>
+        <v>245</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>464</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>466</v>
+        <v>246</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>464</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>464</v>
+        <v>429</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>468</v>
+        <v>115</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>464</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>469</v>
+        <v>198</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>464</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>31</v>
+        <v>195</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>56</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>222</v>
+        <v>502</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>56</v>
+        <v>500</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>224</v>
+        <v>598</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>56</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>225</v>
+        <v>31</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>56</v>
@@ -4046,7 +4314,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>56</v>
@@ -4054,7 +4322,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>56</v>
@@ -4062,31 +4330,31 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>310</v>
+        <v>581</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>56</v>
+        <v>579</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>153</v>
+        <v>237</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>152</v>
+        <v>231</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>152</v>
+        <v>429</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>152</v>
@@ -4094,7 +4362,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>152</v>
@@ -4102,7 +4370,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>152</v>
@@ -4110,15 +4378,15 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>152</v>
+        <v>207</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>152</v>
@@ -4126,7 +4394,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>152</v>
@@ -4134,7 +4402,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>152</v>
@@ -4142,7 +4410,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>152</v>
@@ -4150,735 +4418,735 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25" s="2" t="s">
-        <v>294</v>
+      <c r="A25" s="1" t="s">
+        <v>154</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>291</v>
+        <v>152</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26" s="2" t="s">
-        <v>295</v>
+      <c r="A26" s="1" t="s">
+        <v>160</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>291</v>
+        <v>152</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A27" s="2" t="s">
-        <v>296</v>
+      <c r="A27" s="1" t="s">
+        <v>158</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>291</v>
+        <v>152</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A28" s="2" t="s">
-        <v>297</v>
+      <c r="A28" s="1" t="s">
+        <v>290</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A29" s="2" t="s">
-        <v>298</v>
+      <c r="A29" s="1" t="s">
+        <v>103</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>291</v>
+        <v>57</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A30" s="2" t="s">
-        <v>299</v>
+      <c r="A30" s="1" t="s">
+        <v>264</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>291</v>
+        <v>207</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A31" s="2" t="s">
-        <v>300</v>
+      <c r="A31" s="1" t="s">
+        <v>584</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>291</v>
+        <v>579</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A32" s="2" t="s">
-        <v>301</v>
+      <c r="A32" s="1" t="s">
+        <v>559</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>291</v>
+        <v>557</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>207</v>
+        <v>558</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>206</v>
+        <v>557</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>266</v>
+        <v>557</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>206</v>
+        <v>551</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>116</v>
+        <v>503</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>36</v>
+        <v>500</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>38</v>
+        <v>499</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>501</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>434</v>
+        <v>36</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>386</v>
+        <v>7</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>435</v>
+        <v>36</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>386</v>
+        <v>7</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>436</v>
+        <v>116</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>386</v>
+        <v>36</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>437</v>
+        <v>38</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>386</v>
+        <v>7</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>104</v>
+        <v>197</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>147</v>
+        <v>197</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>148</v>
+        <v>37</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>14</v>
+        <v>384</v>
+      </c>
+      <c r="B45" t="s">
+        <v>376</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A46" s="1" t="s">
-        <v>245</v>
+      <c r="A46" s="2" t="s">
+        <v>298</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>14</v>
+        <v>290</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>117</v>
+        <v>593</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>293</v>
+        <v>590</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>292</v>
+        <v>22</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>57</v>
+        <v>501</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>498</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A50" s="1" t="s">
-        <v>101</v>
+      <c r="A50" s="2" t="s">
+        <v>519</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>57</v>
+        <v>498</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>102</v>
+        <v>433</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>57</v>
+        <v>384</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
-        <v>103</v>
+        <v>432</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>57</v>
+        <v>384</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>104</v>
+        <v>431</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>57</v>
+        <v>384</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
-        <v>115</v>
+        <v>582</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>57</v>
+        <v>579</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A55" s="1" t="s">
-        <v>105</v>
+      <c r="A55" s="2" t="s">
+        <v>508</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>57</v>
+        <v>500</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
-        <v>193</v>
+        <v>210</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>57</v>
+        <v>209</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
-        <v>438</v>
+        <v>101</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>439</v>
+        <v>57</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
-        <v>409</v>
+        <v>546</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>377</v>
+        <v>57</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
-        <v>439</v>
+        <v>102</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>377</v>
+        <v>57</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A60" s="1" t="s">
-        <v>209</v>
+      <c r="A60" s="2" t="s">
+        <v>505</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>208</v>
+        <v>500</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
-        <v>334</v>
+        <v>579</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>50</v>
+        <v>22</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
-        <v>335</v>
+        <v>550</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>149</v>
+        <v>562</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>147</v>
+        <v>103</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
-        <v>417</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>419</v>
+        <v>496</v>
+      </c>
+      <c r="B64" s="7" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
-        <v>399</v>
+        <v>565</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A66" s="1" t="s">
-        <v>419</v>
+      <c r="A66" s="2" t="s">
+        <v>517</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>33</v>
+        <v>498</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A67" s="2" t="s">
-        <v>346</v>
+      <c r="A67" s="1" t="s">
+        <v>534</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>254</v>
+        <v>533</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A68" s="2" t="s">
-        <v>349</v>
+      <c r="A68" s="1" t="s">
+        <v>543</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>254</v>
+        <v>534</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
-        <v>196</v>
+        <v>541</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>40</v>
+        <v>534</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A70" s="2" t="s">
-        <v>442</v>
+      <c r="A70" s="1" t="s">
+        <v>537</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>40</v>
+        <v>534</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
-        <v>460</v>
+        <v>536</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>40</v>
+        <v>534</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
-        <v>470</v>
+        <v>535</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>40</v>
+        <v>534</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
-        <v>209</v>
+        <v>535</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>5</v>
+        <v>545</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
-        <v>210</v>
+        <v>540</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>209</v>
+        <v>534</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
-        <v>211</v>
+        <v>544</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>209</v>
+        <v>534</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
-        <v>212</v>
+        <v>539</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>209</v>
+        <v>534</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
-        <v>153</v>
+        <v>555</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>207</v>
+        <v>37</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A78" s="1" t="s">
-        <v>265</v>
+      <c r="A78" s="2" t="s">
+        <v>300</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>207</v>
+        <v>290</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A79" s="1" t="s">
-        <v>254</v>
+      <c r="A79" s="2" t="s">
+        <v>509</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>343</v>
+        <v>500</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A80" s="1" t="s">
-        <v>344</v>
+      <c r="A80" s="2" t="s">
+        <v>509</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>343</v>
+        <v>375</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A81" s="2" t="s">
-        <v>345</v>
-      </c>
-      <c r="B81" s="1" t="s">
-        <v>343</v>
+      <c r="A81" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>498</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A82" s="2" t="s">
-        <v>347</v>
+      <c r="A82" s="1" t="s">
+        <v>504</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>343</v>
+        <v>500</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A83" s="2" t="s">
-        <v>348</v>
+      <c r="A83" s="1" t="s">
+        <v>457</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>343</v>
+        <v>40</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A84" s="2" t="s">
-        <v>351</v>
+      <c r="A84" s="1" t="s">
+        <v>592</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>343</v>
+        <v>22</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" s="2" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A86" s="1" t="s">
-        <v>165</v>
+      <c r="A86" s="2" t="s">
+        <v>345</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>15</v>
+        <v>254</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
-        <v>204</v>
+        <v>343</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>202</v>
+        <v>342</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
-        <v>54</v>
+        <v>436</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>400</v>
+        <v>375</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A89" s="1" t="s">
-        <v>53</v>
+      <c r="A89" s="2" t="s">
+        <v>510</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>400</v>
+        <v>500</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>400</v>
+        <v>7</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
-        <v>401</v>
+        <v>594</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>400</v>
+        <v>22</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
-        <v>199</v>
+        <v>68</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
-        <v>453</v>
+        <v>68</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
-        <v>454</v>
+        <v>589</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
-        <v>456</v>
+        <v>563</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>41</v>
+        <v>103</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
-        <v>455</v>
+        <v>356</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>454</v>
+        <v>236</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
-        <v>457</v>
+        <v>50</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>454</v>
+        <v>332</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
-        <v>42</v>
+        <v>333</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>7</v>
+        <v>50</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
-        <v>36</v>
+        <v>334</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>7</v>
+        <v>50</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
-        <v>21</v>
+        <v>567</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
-        <v>40</v>
+        <v>580</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>7</v>
+        <v>579</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
-        <v>38</v>
+        <v>147</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
-        <v>40</v>
+        <v>148</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A104" s="1" t="s">
-        <v>43</v>
+      <c r="A104" s="2" t="s">
+        <v>531</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>7</v>
+        <v>498</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A105" s="1" t="s">
-        <v>36</v>
+      <c r="A105" s="2" t="s">
+        <v>506</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>7</v>
+        <v>500</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A106" s="1" t="s">
-        <v>37</v>
+      <c r="A106" s="2" t="s">
+        <v>348</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>7</v>
+        <v>254</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
-        <v>336</v>
+        <v>417</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
-        <v>45</v>
+        <v>254</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>7</v>
+        <v>342</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
-        <v>420</v>
+        <v>254</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>7</v>
+        <v>232</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A110" s="1" t="s">
-        <v>46</v>
+      <c r="A110" s="2" t="s">
+        <v>339</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>7</v>
+        <v>332</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
-        <v>462</v>
+        <v>588</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>7</v>
+        <v>579</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
-        <v>39</v>
+        <v>464</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>7</v>
+        <v>461</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A113" s="1" t="s">
-        <v>207</v>
+      <c r="A113" s="2" t="s">
+        <v>299</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>205</v>
+        <v>290</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A114" s="1" t="s">
-        <v>272</v>
+      <c r="A114" s="2" t="s">
+        <v>293</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>44</v>
+        <v>290</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
-        <v>429</v>
+        <v>271</v>
       </c>
       <c r="B115" s="1" t="s">
         <v>44</v>
@@ -4886,859 +5154,1263 @@
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
-        <v>337</v>
+        <v>40</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>336</v>
+        <v>7</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>47</v>
+        <v>7</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A118" s="1" t="s">
-        <v>51</v>
+      <c r="A118" s="2" t="s">
+        <v>516</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>6</v>
+        <v>498</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A119" s="1" t="s">
-        <v>178</v>
+      <c r="A119" s="2" t="s">
+        <v>516</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A120" s="1" t="s">
-        <v>67</v>
+      <c r="A120" s="2" t="s">
+        <v>515</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>6</v>
+        <v>498</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A121" s="1" t="s">
-        <v>432</v>
+      <c r="A121" s="2" t="s">
+        <v>515</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
-        <v>69</v>
+        <v>467</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
-        <v>353</v>
+        <v>456</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>6</v>
+        <v>42</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
-        <v>68</v>
+        <v>196</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
-        <v>291</v>
+        <v>196</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>293</v>
+        <v>21</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A126" s="1" t="s">
-        <v>152</v>
+      <c r="A126" s="2" t="s">
+        <v>439</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>432</v>
+        <v>40</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A127" s="1" t="s">
-        <v>431</v>
+      <c r="A127" s="2" t="s">
+        <v>439</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>432</v>
+        <v>437</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
-        <v>464</v>
+        <v>43</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>432</v>
+        <v>7</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
-        <v>311</v>
+        <v>435</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>310</v>
+        <v>436</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="B130" s="1" t="s">
-        <v>310</v>
+        <v>385</v>
+      </c>
+      <c r="B130" t="s">
+        <v>376</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
-        <v>313</v>
+        <v>583</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>310</v>
+        <v>579</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A132" s="1" t="s">
-        <v>314</v>
+      <c r="A132" s="2" t="s">
+        <v>438</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>310</v>
+        <v>437</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A133" s="1" t="s">
-        <v>458</v>
+      <c r="A133" s="2" t="s">
+        <v>350</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>42</v>
+        <v>342</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
-        <v>459</v>
+        <v>165</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
-        <v>386</v>
-      </c>
-      <c r="B135" t="s">
-        <v>378</v>
+        <v>428</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>429</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
-        <v>387</v>
-      </c>
-      <c r="B136" t="s">
-        <v>378</v>
+        <v>204</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
-        <v>195</v>
+        <v>561</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>21</v>
+        <v>547</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
-        <v>196</v>
+        <v>52</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>21</v>
+        <v>398</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
-        <v>197</v>
+        <v>547</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>21</v>
+        <v>57</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
-        <v>198</v>
+        <v>53</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>21</v>
+        <v>398</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A141" s="1" t="s">
-        <v>199</v>
+        <v>311</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>21</v>
+        <v>309</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
-        <v>402</v>
+        <v>209</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>401</v>
+        <v>208</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A143" s="1" t="s">
-        <v>403</v>
+        <v>209</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>401</v>
+        <v>5</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="s">
-        <v>404</v>
+        <v>265</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>401</v>
+        <v>206</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A145" s="1" t="s">
-        <v>405</v>
+        <v>207</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>401</v>
+        <v>206</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A146" s="1" t="s">
-        <v>406</v>
+        <v>207</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>401</v>
+        <v>205</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A147" s="1" t="s">
-        <v>407</v>
+        <v>538</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>401</v>
+        <v>534</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A148" s="1" t="s">
-        <v>409</v>
+        <v>418</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>401</v>
+        <v>7</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A149" s="1" t="s">
-        <v>408</v>
+      <c r="A149" s="2" t="s">
+        <v>296</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>404</v>
+        <v>290</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A150" s="1" t="s">
-        <v>413</v>
+        <v>455</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>399</v>
+        <v>42</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A151" s="1" t="s">
-        <v>418</v>
+        <v>556</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>417</v>
+        <v>37</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A152" s="1" t="s">
-        <v>50</v>
+      <c r="A152" s="2" t="s">
+        <v>443</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>333</v>
+        <v>437</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A153" s="1" t="s">
-        <v>49</v>
+        <v>587</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>333</v>
+        <v>579</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A154" s="1" t="s">
-        <v>338</v>
+        <v>566</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>333</v>
+        <v>36</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A155" s="2" t="s">
-        <v>342</v>
+      <c r="A155" s="1" t="s">
+        <v>591</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>333</v>
+        <v>22</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A156" s="2" t="s">
-        <v>339</v>
+      <c r="A156" s="1" t="s">
+        <v>465</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>333</v>
+        <v>461</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A157" s="2" t="s">
-        <v>340</v>
+      <c r="A157" s="1" t="s">
+        <v>149</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>333</v>
+        <v>147</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A158" s="2" t="s">
-        <v>341</v>
+        <v>297</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>333</v>
+        <v>290</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A159" s="2" t="s">
-        <v>441</v>
+      <c r="A159" s="1" t="s">
+        <v>406</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>440</v>
+        <v>402</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A160" s="2" t="s">
-        <v>442</v>
+      <c r="A160" s="1" t="s">
+        <v>105</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>440</v>
+        <v>57</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A161" s="2" t="s">
-        <v>443</v>
+      <c r="A161" s="1" t="s">
+        <v>430</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>440</v>
+        <v>384</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A162" s="2" t="s">
-        <v>444</v>
+      <c r="A162" s="1" t="s">
+        <v>211</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>440</v>
+        <v>209</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A163" s="2" t="s">
-        <v>445</v>
+      <c r="A163" s="1" t="s">
+        <v>564</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>440</v>
+        <v>7</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A164" s="2" t="s">
-        <v>446</v>
+      <c r="A164" s="1" t="s">
+        <v>466</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>440</v>
+        <v>461</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A165" s="2" t="s">
-        <v>447</v>
+      <c r="A165" s="1" t="s">
+        <v>310</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>440</v>
+        <v>309</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A166" s="2" t="s">
-        <v>448</v>
+        <v>440</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A167" s="1" t="s">
-        <v>461</v>
+        <v>542</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>46</v>
+        <v>541</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A168" s="1" t="s">
-        <v>463</v>
+        <v>193</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A169" s="1" t="s">
-        <v>231</v>
+      <c r="A169" s="2" t="s">
+        <v>445</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>236</v>
+        <v>437</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A170" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="B170" s="1" t="s">
-        <v>236</v>
+      <c r="A170" s="2" t="s">
+        <v>528</v>
+      </c>
+      <c r="B170" s="2" t="s">
+        <v>520</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A171" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="B171" s="1" t="s">
-        <v>236</v>
+      <c r="A171" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="B171" s="2" t="s">
+        <v>520</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A172" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="B172" s="1" t="s">
-        <v>236</v>
+      <c r="A172" s="2" t="s">
+        <v>527</v>
+      </c>
+      <c r="B172" s="2" t="s">
+        <v>520</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A173" s="1" t="s">
-        <v>354</v>
+      <c r="A173" s="2" t="s">
+        <v>520</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>236</v>
+        <v>498</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A174" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="B174" s="1" t="s">
-        <v>236</v>
+      <c r="A174" s="2" t="s">
+        <v>524</v>
+      </c>
+      <c r="B174" s="2" t="s">
+        <v>520</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A175" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="B175" s="1" t="s">
-        <v>236</v>
+      <c r="A175" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="B175" s="2" t="s">
+        <v>520</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A176" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="B176" s="1" t="s">
-        <v>236</v>
+      <c r="A176" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="B176" s="2" t="s">
+        <v>520</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A177" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="B177" s="1" t="s">
-        <v>236</v>
+      <c r="A177" s="2" t="s">
+        <v>529</v>
+      </c>
+      <c r="B177" s="2" t="s">
+        <v>520</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A178" s="1" t="s">
-        <v>358</v>
+      <c r="A178" s="2" t="s">
+        <v>294</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>236</v>
+        <v>290</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A179" s="1" t="s">
-        <v>235</v>
+        <v>597</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>232</v>
+        <v>7</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A180" s="1" t="s">
-        <v>254</v>
+        <v>100</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>232</v>
+        <v>57</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A181" s="1" t="s">
-        <v>237</v>
+        <v>454</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>231</v>
+        <v>451</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A182" t="s">
-        <v>51</v>
+      <c r="A182" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>6</v>
+        <v>47</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A183" s="1" t="s">
-        <v>68</v>
+        <v>450</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A184" s="1" t="s">
-        <v>499</v>
+        <v>451</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A185" s="1" t="s">
-        <v>500</v>
+        <v>199</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A186" s="1" t="s">
-        <v>502</v>
-      </c>
-      <c r="B186" s="7" t="s">
-        <v>504</v>
+        <v>199</v>
+      </c>
+      <c r="B186" s="5" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A187" s="1" t="s">
-        <v>503</v>
-      </c>
-      <c r="B187" s="7" t="s">
-        <v>501</v>
+        <v>453</v>
+      </c>
+      <c r="B187" s="5" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A188" s="1" t="s">
-        <v>504</v>
-      </c>
-      <c r="B188" s="7" t="s">
-        <v>501</v>
+      <c r="A188" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="B188" s="5" t="s">
+        <v>332</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A189" s="1" t="s">
-        <v>505</v>
+        <v>560</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>503</v>
+        <v>557</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A190" s="1" t="s">
-        <v>506</v>
+        <v>117</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>503</v>
+        <v>32</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A191" s="1" t="s">
-        <v>507</v>
+      <c r="A191" s="2" t="s">
+        <v>512</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A192" s="2" t="s">
-        <v>508</v>
-      </c>
-      <c r="B192" s="1" t="s">
-        <v>503</v>
+        <v>513</v>
+      </c>
+      <c r="B192" s="2" t="s">
+        <v>512</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A193" s="2" t="s">
-        <v>509</v>
+      <c r="A193" s="1" t="s">
+        <v>596</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>503</v>
+        <v>44</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A194" s="2" t="s">
-        <v>510</v>
+        <v>514</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>344</v>
+        <v>498</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A195" s="2" t="s">
-        <v>510</v>
+        <v>340</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>503</v>
+        <v>332</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A196" s="2" t="s">
-        <v>511</v>
+      <c r="A196" s="1" t="s">
+        <v>335</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>503</v>
+        <v>7</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A197" s="2" t="s">
-        <v>512</v>
+      <c r="A197" s="1" t="s">
+        <v>222</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>377</v>
+        <v>56</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A198" s="2" t="s">
-        <v>512</v>
+      <c r="A198" s="1" t="s">
+        <v>585</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>503</v>
+        <v>579</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A199" s="2" t="s">
-        <v>513</v>
+      <c r="A199" s="1" t="s">
+        <v>235</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>503</v>
+        <v>232</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A200" s="2" t="s">
-        <v>514</v>
+      <c r="A200" s="1" t="s">
+        <v>463</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>503</v>
+        <v>461</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A201" s="2" t="s">
-        <v>515</v>
+      <c r="A201" s="1" t="s">
+        <v>336</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>501</v>
+        <v>335</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A202" s="2" t="s">
-        <v>516</v>
-      </c>
-      <c r="B202" s="2" t="s">
-        <v>515</v>
+      <c r="A202" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B202" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A203" s="2" t="s">
-        <v>517</v>
+      <c r="A203" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>501</v>
+        <v>7</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A204" s="2" t="s">
-        <v>518</v>
+      <c r="A204" s="1" t="s">
+        <v>426</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A205" s="2" t="s">
-        <v>518</v>
+      <c r="A205" s="1" t="s">
+        <v>586</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>501</v>
+        <v>579</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A206" s="2" t="s">
-        <v>519</v>
+      <c r="A206" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>40</v>
+        <v>6</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A207" s="2" t="s">
-        <v>519</v>
-      </c>
-      <c r="B207" s="1" t="s">
-        <v>501</v>
+      <c r="A207" t="s">
+        <v>51</v>
+      </c>
+      <c r="B207" s="7" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A208" s="2" t="s">
-        <v>520</v>
+      <c r="A208" s="1" t="s">
+        <v>225</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>501</v>
+        <v>56</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A209" s="2" t="s">
-        <v>521</v>
-      </c>
-      <c r="B209" s="1" t="s">
-        <v>501</v>
+        <v>530</v>
+      </c>
+      <c r="B209" s="2" t="s">
+        <v>531</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A210" s="2" t="s">
-        <v>522</v>
-      </c>
-      <c r="B210" s="1" t="s">
-        <v>501</v>
+        <v>523</v>
+      </c>
+      <c r="B210" s="2" t="s">
+        <v>520</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A211" s="2" t="s">
-        <v>523</v>
-      </c>
-      <c r="B211" s="1" t="s">
-        <v>501</v>
+        <v>521</v>
+      </c>
+      <c r="B211" s="2" t="s">
+        <v>520</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A212" s="2" t="s">
-        <v>524</v>
-      </c>
-      <c r="B212" s="2" t="s">
-        <v>523</v>
+        <v>344</v>
+      </c>
+      <c r="B212" s="1" t="s">
+        <v>342</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A213" s="2" t="s">
-        <v>525</v>
-      </c>
-      <c r="B213" s="2" t="s">
-        <v>523</v>
+      <c r="A213" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="B213" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A214" s="2" t="s">
-        <v>526</v>
-      </c>
-      <c r="B214" s="2" t="s">
-        <v>523</v>
+        <v>349</v>
+      </c>
+      <c r="B214" s="1" t="s">
+        <v>342</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A215" s="2" t="s">
-        <v>527</v>
-      </c>
-      <c r="B215" s="2" t="s">
-        <v>523</v>
+      <c r="A215" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="B215" s="1" t="s">
+        <v>461</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A216" s="2" t="s">
-        <v>528</v>
-      </c>
-      <c r="B216" s="2" t="s">
-        <v>523</v>
+      <c r="A216" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="B216" s="1" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A217" s="2" t="s">
-        <v>529</v>
-      </c>
-      <c r="B217" s="2" t="s">
-        <v>523</v>
+      <c r="A217" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B217" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A218" s="2" t="s">
-        <v>530</v>
-      </c>
-      <c r="B218" s="2" t="s">
-        <v>523</v>
+      <c r="A218" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B218" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A219" s="2" t="s">
-        <v>531</v>
-      </c>
-      <c r="B219" s="2" t="s">
-        <v>523</v>
+      <c r="A219" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="B219" s="1" t="s">
+        <v>291</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A220" s="2" t="s">
-        <v>532</v>
-      </c>
-      <c r="B220" s="2" t="s">
-        <v>523</v>
+      <c r="A220" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="B220" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A221" s="2" t="s">
-        <v>533</v>
-      </c>
-      <c r="B221" s="2" t="s">
-        <v>534</v>
+      <c r="A221" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="B221" s="1" t="s">
+        <v>309</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A222" s="2" t="s">
-        <v>534</v>
+      <c r="A222" s="1" t="s">
+        <v>309</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>501</v>
-      </c>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A223" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="B223" s="1" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A224" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="B224" s="1" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A225" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B225" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A226" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B226" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A227" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B227" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A228" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="B228" s="1" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A229" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B229" s="1" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A230" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B230" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A231" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="B231" s="1" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A232" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="B232" s="1" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A233" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="B233" s="1" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A234" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B234" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A235" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="B235" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A236" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="B236" s="1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A237" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="B237" s="1" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A238" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="B238" s="1" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A239" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="B239" s="1" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A240" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="B240" s="1" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A241" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="B241" s="1" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A242" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="B242" s="1" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A243" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="B243" s="1" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A244" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="B244" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A245" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="B245" s="1" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A246" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="B246" s="1" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A247" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="B247" s="1" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A248" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="B248" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A249" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="B249" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A250" s="2" t="s">
+        <v>511</v>
+      </c>
+      <c r="B250" s="1" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A251" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="B251" s="1" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A252" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="B252" s="1" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A253" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="B253" s="1" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A254" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B254" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A255" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="B255" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A256" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="B256" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A257" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="B257" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A258" s="2" t="s">
+        <v>518</v>
+      </c>
+      <c r="B258" s="1" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A259" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="B259" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A260" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="B260" s="1" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A261" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="B261" s="1" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A262" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="B262" s="1" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A263" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="B263" s="1" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A264" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="B264" s="1" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A265" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="B265" s="1" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A266" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B266" s="1" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A267" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="B267" s="1" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A268" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B268" s="1" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A269" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B269" s="1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A270" s="2" t="s">
+        <v>507</v>
+      </c>
+      <c r="B270" s="1" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A271" s="2" t="s">
+        <v>507</v>
+      </c>
+      <c r="B271" s="1" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A272" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="B272" s="1" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A273" s="1"/>
+      <c r="B273" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5750,10 +6422,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC6FEC00-8F71-5647-A95F-97669058CBEA}">
-  <dimension ref="A1:B136"/>
+  <dimension ref="A1:B148"/>
   <sheetViews>
-    <sheetView topLeftCell="A116" workbookViewId="0">
-      <selection activeCell="A137" sqref="A137"/>
+    <sheetView topLeftCell="A126" workbookViewId="0">
+      <selection activeCell="A149" sqref="A149"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5770,754 +6442,754 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="B3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="B30" s="1" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="B4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>364</v>
-      </c>
-      <c r="B6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+      <c r="B31" s="1" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A43" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A44" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A45" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A46" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A47" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A48" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A49" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A50" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A51" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A52" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A53" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A54" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A55" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A56" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A57" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A58" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="B7" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>450</v>
-      </c>
-      <c r="B8" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>449</v>
-      </c>
-      <c r="B9" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>451</v>
-      </c>
-      <c r="B10" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>452</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>366</v>
-      </c>
-      <c r="B12" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>367</v>
-      </c>
-      <c r="B13" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>368</v>
-      </c>
-      <c r="B14" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>276</v>
-      </c>
-      <c r="B15" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>138</v>
-      </c>
-      <c r="B16" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
+      <c r="B58" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A59" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A60" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A61" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A62" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A63" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A64" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A65" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A66" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A67" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A68" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="B17" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>330</v>
-      </c>
-      <c r="B18" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>331</v>
-      </c>
-      <c r="B19" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>332</v>
-      </c>
-      <c r="B20" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>450</v>
-      </c>
-      <c r="B21" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>410</v>
-      </c>
-      <c r="B22" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>411</v>
-      </c>
-      <c r="B23" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>164</v>
-      </c>
-      <c r="B24" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>285</v>
-      </c>
-      <c r="B25" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>430</v>
-      </c>
-      <c r="B26" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>239</v>
-      </c>
-      <c r="B27" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>240</v>
-      </c>
-      <c r="B28" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>241</v>
-      </c>
-      <c r="B29" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>362</v>
-      </c>
-      <c r="B30" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>363</v>
-      </c>
-      <c r="B31" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>140</v>
-      </c>
-      <c r="B32" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>143</v>
-      </c>
-      <c r="B33" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>144</v>
-      </c>
-      <c r="B34" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>145</v>
-      </c>
-      <c r="B35" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>190</v>
-      </c>
-      <c r="B36" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>172</v>
-      </c>
-      <c r="B37" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>132</v>
-      </c>
-      <c r="B38" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>167</v>
-      </c>
-      <c r="B39" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>168</v>
-      </c>
-      <c r="B40" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>169</v>
-      </c>
-      <c r="B41" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
-        <v>170</v>
-      </c>
-      <c r="B42" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
-        <v>171</v>
-      </c>
-      <c r="B43" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
-        <v>172</v>
-      </c>
-      <c r="B44" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
-        <v>174</v>
-      </c>
-      <c r="B45" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
-        <v>175</v>
-      </c>
-      <c r="B46" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
-        <v>176</v>
-      </c>
-      <c r="B47" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
-        <v>177</v>
-      </c>
-      <c r="B48" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
-        <v>411</v>
-      </c>
-      <c r="B49" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
-        <v>223</v>
-      </c>
-      <c r="B50" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
-        <v>302</v>
-      </c>
-      <c r="B51" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
-        <v>303</v>
-      </c>
-      <c r="B52" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
-        <v>34</v>
-      </c>
-      <c r="B53" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
-        <v>325</v>
-      </c>
-      <c r="B54" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
-        <v>422</v>
-      </c>
-      <c r="B55" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A56" t="s">
-        <v>24</v>
-      </c>
-      <c r="B56" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
+      <c r="B68" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B57" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
-        <v>318</v>
-      </c>
-      <c r="B58" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A59" t="s">
-        <v>190</v>
-      </c>
-      <c r="B59" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A60" t="s">
-        <v>249</v>
-      </c>
-      <c r="B60" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A61" t="s">
-        <v>250</v>
-      </c>
-      <c r="B61" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A62" t="s">
-        <v>251</v>
-      </c>
-      <c r="B62" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A63" t="s">
-        <v>252</v>
-      </c>
-      <c r="B63" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A64" t="s">
-        <v>35</v>
-      </c>
-      <c r="B64" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A65" t="s">
-        <v>253</v>
-      </c>
-      <c r="B65" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A66" t="s">
-        <v>255</v>
-      </c>
-      <c r="B66" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A67" t="s">
-        <v>256</v>
-      </c>
-      <c r="B67" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A68" t="s">
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A69" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="B68" t="s">
+      <c r="B69" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A69" t="s">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A70" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="B69" t="s">
+      <c r="B70" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A70" t="s">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A71" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="B70" t="s">
+      <c r="B71" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A71" t="s">
-        <v>309</v>
-      </c>
-      <c r="B71" t="s">
-        <v>55</v>
-      </c>
-    </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A72" t="s">
+      <c r="A72" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B72" t="s">
+      <c r="B72" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" s="6" t="s">
-        <v>275</v>
-      </c>
-      <c r="B73" t="s">
+        <v>274</v>
+      </c>
+      <c r="B73" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" s="6" t="s">
+        <v>275</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A75" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A76" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A77" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A78" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="B74" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A75" t="s">
-        <v>278</v>
-      </c>
-      <c r="B75" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A76" t="s">
-        <v>279</v>
-      </c>
-      <c r="B76" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A77" t="s">
-        <v>424</v>
-      </c>
-      <c r="B77" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A78" t="s">
-        <v>277</v>
-      </c>
-      <c r="B78" t="s">
+      <c r="B78" s="1" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A79" t="s">
+      <c r="A79" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="B79" t="s">
+      <c r="B79" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A80" t="s">
+      <c r="A80" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="B80" t="s">
+      <c r="B80" s="1" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A81" t="s">
+      <c r="A81" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="B81" t="s">
+      <c r="B81" s="1" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A82" t="s">
+      <c r="A82" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="B82" t="s">
+      <c r="B82" s="1" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A83" t="s">
+      <c r="A83" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="B83" t="s">
+      <c r="B83" s="1" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A84" t="s">
-        <v>452</v>
-      </c>
-      <c r="B84" t="s">
+      <c r="A84" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="B84" s="1" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A85" t="s">
+      <c r="A85" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="B85" t="s">
+      <c r="B85" s="1" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A86" t="s">
+      <c r="A86" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="B86" t="s">
+      <c r="B86" s="1" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A87" t="s">
+      <c r="A87" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="B87" t="s">
+      <c r="B87" s="1" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A88" t="s">
+      <c r="A88" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="B88" t="s">
+      <c r="B88" s="1" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A89" t="s">
+      <c r="A89" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="B89" t="s">
+      <c r="B89" s="1" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A90" t="s">
+      <c r="A90" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="B90" t="s">
+      <c r="B90" s="1" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A91" t="s">
+      <c r="A91" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="B91" t="s">
+      <c r="B91" s="1" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A92" t="s">
+      <c r="A92" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="B92" t="s">
+      <c r="B92" s="1" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A93" t="s">
+      <c r="A93" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="B93" t="s">
+      <c r="B93" s="1" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A94" t="s">
+      <c r="A94" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="B94" t="s">
+      <c r="B94" s="1" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A95" t="s">
+      <c r="A95" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="B95" t="s">
+      <c r="B95" s="1" t="s">
         <v>190</v>
       </c>
     </row>
@@ -6525,7 +7197,7 @@
       <c r="A96" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="B96" t="s">
+      <c r="B96" s="1" t="s">
         <v>11</v>
       </c>
     </row>
@@ -6533,7 +7205,7 @@
       <c r="A97" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="B97" t="s">
+      <c r="B97" s="1" t="s">
         <v>11</v>
       </c>
     </row>
@@ -6541,7 +7213,7 @@
       <c r="A98" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="B98" t="s">
+      <c r="B98" s="1" t="s">
         <v>11</v>
       </c>
     </row>
@@ -6549,132 +7221,132 @@
       <c r="A99" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="B99" t="s">
+      <c r="B99" s="1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A100" t="s">
+      <c r="A100" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="B100" t="s">
+      <c r="B100" s="1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A101" t="s">
+      <c r="A101" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="B101" t="s">
+      <c r="B101" s="1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A102" t="s">
+      <c r="A102" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A103" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="B102" t="s">
+      <c r="B103" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A103" s="3" t="s">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A104" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="B103" t="s">
+      <c r="B104" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A104" s="3" t="s">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A105" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="B104" t="s">
+      <c r="B105" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A105" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="B105" t="s">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A106" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="B106" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A106" t="s">
-        <v>316</v>
-      </c>
-      <c r="B106" t="s">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A107" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="B107" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A107" t="s">
-        <v>365</v>
-      </c>
-      <c r="B107" t="s">
-        <v>11</v>
-      </c>
-    </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A108" t="s">
-        <v>425</v>
-      </c>
-      <c r="B108" t="s">
+      <c r="A108" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A109" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A110" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A111" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A112" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A113" s="1" t="s">
         <v>424</v>
       </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A109" t="s">
-        <v>139</v>
-      </c>
-      <c r="B109" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A110" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="B110" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A111" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="B111" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A112" t="s">
-        <v>426</v>
-      </c>
-      <c r="B112" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A113" t="s">
-        <v>427</v>
-      </c>
-      <c r="B113" t="s">
-        <v>302</v>
+      <c r="B113" s="1" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A114" t="s">
-        <v>414</v>
-      </c>
-      <c r="B114" t="s">
+      <c r="A114" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="B114" s="1" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A115" t="s">
+      <c r="A115" s="1" t="s">
         <v>171</v>
       </c>
       <c r="B115" s="6" t="s">
@@ -6682,171 +7354,267 @@
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A116" t="s">
-        <v>304</v>
-      </c>
-      <c r="B116" t="s">
+      <c r="A116" s="1" t="s">
         <v>303</v>
       </c>
+      <c r="B116" s="1" t="s">
+        <v>302</v>
+      </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A117" t="s">
-        <v>412</v>
+      <c r="A117" s="1" t="s">
+        <v>410</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A118" t="s">
-        <v>428</v>
-      </c>
-      <c r="B118" t="s">
-        <v>413</v>
+      <c r="A118" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A119" t="s">
+      <c r="A119" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A120" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A121" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A122" s="1" t="s">
         <v>481</v>
       </c>
-      <c r="B119" t="s">
+      <c r="B122" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A120" t="s">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A123" s="1" t="s">
         <v>482</v>
       </c>
-      <c r="B120" t="s">
+      <c r="B123" s="1" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A124" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A125" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A126" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A127" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A128" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A129" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A130" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A131" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A132" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A133" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A134" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A135" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A136" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A137" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A138" s="2" t="s">
+        <v>570</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A139" s="2" t="s">
+        <v>571</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A140" s="2" t="s">
+        <v>572</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A141" s="2" t="s">
+        <v>573</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A142" s="2" t="s">
+        <v>574</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A143" s="2" t="s">
+        <v>575</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A144" s="2" t="s">
+        <v>576</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A145" s="2" t="s">
+        <v>578</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A146" s="2" t="s">
+        <v>577</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A147" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A148" s="1" t="s">
+        <v>599</v>
+      </c>
+      <c r="B148" s="1" t="s">
         <v>24</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A121" t="s">
-        <v>483</v>
-      </c>
-      <c r="B121" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A122" t="s">
-        <v>484</v>
-      </c>
-      <c r="B122" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A123" t="s">
-        <v>485</v>
-      </c>
-      <c r="B123" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A124" t="s">
-        <v>486</v>
-      </c>
-      <c r="B124" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A125" t="s">
-        <v>487</v>
-      </c>
-      <c r="B125" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A126" t="s">
-        <v>488</v>
-      </c>
-      <c r="B126" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A127" t="s">
-        <v>489</v>
-      </c>
-      <c r="B127" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A128" t="s">
-        <v>490</v>
-      </c>
-      <c r="B128" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A129" t="s">
-        <v>491</v>
-      </c>
-      <c r="B129" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A130" t="s">
-        <v>492</v>
-      </c>
-      <c r="B130" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A131" t="s">
-        <v>493</v>
-      </c>
-      <c r="B131" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A132" t="s">
-        <v>494</v>
-      </c>
-      <c r="B132" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A133" t="s">
-        <v>495</v>
-      </c>
-      <c r="B133" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A134" t="s">
-        <v>496</v>
-      </c>
-      <c r="B134" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A135" t="s">
-        <v>497</v>
-      </c>
-      <c r="B135" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A136" t="s">
-        <v>498</v>
-      </c>
-      <c r="B136" t="s">
-        <v>489</v>
       </c>
     </row>
   </sheetData>
@@ -6928,7 +7696,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B8" t="s">
         <v>12</v>
@@ -6968,18 +7736,18 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B13" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B14" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">

--- a/skills/Digital Skills.xlsx
+++ b/skills/Digital Skills.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/binxuan/Desktop/Projects/Skills Ontology/skills/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kongbinxuan/Desktop/skills-onthology-project/skills/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3E2A466-3ECA-F04E-9DFB-B888B44ED356}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EF9FCF8-F361-5B43-982B-AB657CA02136}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10800" yWindow="460" windowWidth="18000" windowHeight="16140" activeTab="3" xr2:uid="{273D56F0-60F4-7D4D-B74A-F5CA8C152A80}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2167" uniqueCount="936">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2289" uniqueCount="988">
   <si>
     <t>Skill</t>
   </si>
@@ -869,9 +869,6 @@
     <t>Copula</t>
   </si>
   <si>
-    <t>Probably Approximately Correct Learning</t>
-  </si>
-  <si>
     <t>Sequential Probability Ratios Testing</t>
   </si>
   <si>
@@ -1307,9 +1304,6 @@
     <t>Gaussian Process</t>
   </si>
   <si>
-    <t>Support Vector Machine</t>
-  </si>
-  <si>
     <t>K-Nearest Neighbours Algorithm</t>
   </si>
   <si>
@@ -2847,6 +2841,168 @@
   </si>
   <si>
     <t>Ubuntu</t>
+  </si>
+  <si>
+    <t>Inductive Machine Learning</t>
+  </si>
+  <si>
+    <t>Overfitting</t>
+  </si>
+  <si>
+    <t>Decision Tree</t>
+  </si>
+  <si>
+    <t>Neural Network</t>
+  </si>
+  <si>
+    <t>Probabilistic Network</t>
+  </si>
+  <si>
+    <t>Semi-supervised Machine Learning</t>
+  </si>
+  <si>
+    <t>Semi-supervised Learning</t>
+  </si>
+  <si>
+    <t>Transfuction</t>
+  </si>
+  <si>
+    <t>Learning to Learn</t>
+  </si>
+  <si>
+    <t>Speech Recognition</t>
+  </si>
+  <si>
+    <t>Informal Retrieval</t>
+  </si>
+  <si>
+    <t>Bio-informatics</t>
+  </si>
+  <si>
+    <t>Inductive Logic Programming (ILP)</t>
+  </si>
+  <si>
+    <t>Model Selection</t>
+  </si>
+  <si>
+    <t>Model Validation</t>
+  </si>
+  <si>
+    <t>Cross Validation</t>
+  </si>
+  <si>
+    <t>Platt Calibration</t>
+  </si>
+  <si>
+    <t>Isotonic Regression</t>
+  </si>
+  <si>
+    <t>Perceptron</t>
+  </si>
+  <si>
+    <t>Ensemble Learning</t>
+  </si>
+  <si>
+    <t>Sequential Ensemble Method</t>
+  </si>
+  <si>
+    <t>Parallel Ensemble Method</t>
+  </si>
+  <si>
+    <t>Ensemble Method</t>
+  </si>
+  <si>
+    <t>Principal Component Analysis (PCA)</t>
+  </si>
+  <si>
+    <t>Incremental Learning</t>
+  </si>
+  <si>
+    <t>Kernel-based Principal Component Analysis (KPCA)</t>
+  </si>
+  <si>
+    <t>Independent Component Analysis (ICA)</t>
+  </si>
+  <si>
+    <t>Feature Selection</t>
+  </si>
+  <si>
+    <t>Support Vector Machine (SVM)</t>
+  </si>
+  <si>
+    <t>Model Evaluation</t>
+  </si>
+  <si>
+    <t>Data Acquisition</t>
+  </si>
+  <si>
+    <t>Ground Truth Acquisition</t>
+  </si>
+  <si>
+    <t>Query Type</t>
+  </si>
+  <si>
+    <t>Scoring Metric</t>
+  </si>
+  <si>
+    <t>Significance Test</t>
+  </si>
+  <si>
+    <t>Sequential Supervised Learning</t>
+  </si>
+  <si>
+    <t>Sliding-window Methods</t>
+  </si>
+  <si>
+    <t>Recurrent Sliding Windows</t>
+  </si>
+  <si>
+    <t>Hidden Markov Models</t>
+  </si>
+  <si>
+    <t>Maximum Entropy Markov Models</t>
+  </si>
+  <si>
+    <t>Conditional Random Fields</t>
+  </si>
+  <si>
+    <t>Graph Transformer Networks</t>
+  </si>
+  <si>
+    <t>Sequential Prediction Problem</t>
+  </si>
+  <si>
+    <t>Imitation Learning</t>
+  </si>
+  <si>
+    <t>Structured Prediction</t>
+  </si>
+  <si>
+    <t>Model Based Reinforcement Learning</t>
+  </si>
+  <si>
+    <t>Probably Approximately Correct (PAC) Learning</t>
+  </si>
+  <si>
+    <t>Sequence Learning Process</t>
+  </si>
+  <si>
+    <t>Sequence Prediction</t>
+  </si>
+  <si>
+    <t>Sequence Generation</t>
+  </si>
+  <si>
+    <t>Sequence Recognition</t>
+  </si>
+  <si>
+    <t>Sequential Decision</t>
+  </si>
+  <si>
+    <t>Sequential Learning</t>
+  </si>
+  <si>
+    <t>Genetic Programming</t>
   </si>
 </sst>
 </file>
@@ -3101,10 +3257,10 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{78C3955E-191C-6B46-A4F8-304DB8D99527}" name="Table1345" displayName="Table1345" ref="A1:B148" totalsRowShown="0" dataDxfId="2">
-  <autoFilter ref="A1:B148" xr:uid="{70E2AE85-8354-604E-A8F5-BA1E0909D1D5}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B118">
-    <sortCondition ref="B1:B118"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{78C3955E-191C-6B46-A4F8-304DB8D99527}" name="Table1345" displayName="Table1345" ref="A1:B210" totalsRowShown="0" dataDxfId="2">
+  <autoFilter ref="A1:B210" xr:uid="{70E2AE85-8354-604E-A8F5-BA1E0909D1D5}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B152">
+    <sortCondition ref="A1:A152"/>
   </sortState>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{00E09998-D601-914C-AAF8-829F2822E229}" name="Skill" dataDxfId="1"/>
@@ -3532,7 +3688,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B11" t="s">
         <v>2</v>
@@ -3556,7 +3712,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B14" t="s">
         <v>2</v>
@@ -3588,7 +3744,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B18" t="s">
         <v>2</v>
@@ -3612,7 +3768,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B21" t="s">
         <v>2</v>
@@ -3660,7 +3816,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B27" t="s">
         <v>2</v>
@@ -3668,7 +3824,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B28" t="s">
         <v>2</v>
@@ -3684,7 +3840,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="B30" t="s">
         <v>2</v>
@@ -3700,7 +3856,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B32" t="s">
         <v>2</v>
@@ -3708,7 +3864,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="B33" t="s">
         <v>2</v>
@@ -3772,7 +3928,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B41" t="s">
         <v>3</v>
@@ -3907,7 +4063,7 @@
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="B59" t="s">
         <v>2</v>
@@ -3915,7 +4071,7 @@
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="B60" t="s">
         <v>2</v>
@@ -3923,7 +4079,7 @@
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="B61" t="s">
         <v>4</v>
@@ -3931,7 +4087,7 @@
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="B62" t="s">
         <v>2</v>
@@ -3939,7 +4095,7 @@
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="B63" t="s">
         <v>2</v>
@@ -3947,47 +4103,47 @@
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="B64" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="B65" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="B66" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="B67" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="B68" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="B69" t="s">
         <v>2</v>
@@ -4024,10 +4180,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="B2" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -4072,7 +4228,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B8" t="s">
         <v>72</v>
@@ -4080,7 +4236,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B9" t="s">
         <v>212</v>
@@ -4112,7 +4268,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B13" t="s">
         <v>70</v>
@@ -4120,7 +4276,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B14" t="s">
         <v>70</v>
@@ -4128,7 +4284,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B15" t="s">
         <v>70</v>
@@ -4136,7 +4292,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B16" t="s">
         <v>70</v>
@@ -4144,23 +4300,23 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B17" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>367</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>368</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>253</v>
@@ -4208,26 +4364,26 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B25" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B26" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="B27" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
@@ -4264,10 +4420,10 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B32" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
@@ -4288,7 +4444,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B35" s="10" t="s">
         <v>29</v>
@@ -4304,7 +4460,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B37" t="s">
         <v>241</v>
@@ -4376,18 +4532,18 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="B46" t="s">
         <v>373</v>
-      </c>
-      <c r="B46" t="s">
-        <v>374</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="B47" t="s">
         <v>373</v>
-      </c>
-      <c r="B47" t="s">
-        <v>374</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
@@ -4408,15 +4564,15 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="B50" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B51" t="s">
         <v>29</v>
@@ -4424,23 +4580,23 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B52" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B53" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B54" t="s">
         <v>241</v>
@@ -4448,10 +4604,10 @@
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B55" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
@@ -4472,7 +4628,7 @@
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B58" t="s">
         <v>13</v>
@@ -4480,18 +4636,18 @@
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="B59" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B60" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
@@ -4536,10 +4692,10 @@
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B66" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
@@ -4560,18 +4716,18 @@
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="B69" t="s">
         <v>372</v>
-      </c>
-      <c r="B69" t="s">
-        <v>373</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="B70" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
@@ -4584,15 +4740,15 @@
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B72" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B73" t="s">
         <v>70</v>
@@ -4600,7 +4756,7 @@
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B74" t="s">
         <v>29</v>
@@ -4608,10 +4764,10 @@
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="B75" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
@@ -4624,26 +4780,26 @@
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B77" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B78" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="B79" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
@@ -4696,7 +4852,7 @@
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86" s="2" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B86" t="s">
         <v>70</v>
@@ -4720,7 +4876,7 @@
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B89" t="s">
         <v>241</v>
@@ -4728,10 +4884,10 @@
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90" s="2" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="B90" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.2">
@@ -4744,7 +4900,7 @@
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B92" t="s">
         <v>42</v>
@@ -4752,26 +4908,26 @@
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B93" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B94" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B95" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.2">
@@ -4800,10 +4956,10 @@
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="B99" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.2">
@@ -4816,10 +4972,10 @@
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="B101" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.2">
@@ -4832,10 +4988,10 @@
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A103" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B103" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.2">
@@ -4864,10 +5020,10 @@
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="B107" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.2">
@@ -4880,7 +5036,7 @@
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A109" s="2" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B109" t="s">
         <v>70</v>
@@ -4920,7 +5076,7 @@
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B114" t="s">
         <v>212</v>
@@ -4944,7 +5100,7 @@
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B117" t="s">
         <v>72</v>
@@ -4952,7 +5108,7 @@
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B118" t="s">
         <v>44</v>
@@ -5016,7 +5172,7 @@
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B126" t="s">
         <v>29</v>
@@ -5032,7 +5188,7 @@
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B128" t="s">
         <v>28</v>
@@ -5040,7 +5196,7 @@
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A129" s="2" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B129" t="s">
         <v>30</v>
@@ -5072,15 +5228,15 @@
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A133" s="2" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="B133" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B134" t="s">
         <v>8</v>
@@ -5115,7 +5271,7 @@
         <v>257</v>
       </c>
       <c r="B138" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.2">
@@ -5136,7 +5292,7 @@
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A141" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B141" t="s">
         <v>153</v>
@@ -5144,10 +5300,10 @@
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B142" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.2">
@@ -5155,7 +5311,7 @@
         <v>42</v>
       </c>
       <c r="B143" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.2">
@@ -5163,7 +5319,7 @@
         <v>42</v>
       </c>
       <c r="B144" s="3" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.2">
@@ -5184,10 +5340,10 @@
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A147" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="B147" t="s">
         <v>412</v>
-      </c>
-      <c r="B147" t="s">
-        <v>413</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.2">
@@ -5200,26 +5356,26 @@
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B149" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A150" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B150" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A151" s="2" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="B151" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.2">
@@ -5256,10 +5412,10 @@
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A156" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B156" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.2">
@@ -5304,10 +5460,10 @@
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A162" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B162" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.2">
@@ -5328,7 +5484,7 @@
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A165" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B165" t="s">
         <v>29</v>
@@ -5347,12 +5503,12 @@
         <v>42</v>
       </c>
       <c r="B167" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A168" s="1" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="B168" t="s">
         <v>30</v>
@@ -5360,15 +5516,15 @@
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A169" s="1" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A170" s="1" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="B170" t="s">
         <v>29</v>
@@ -5405,42 +5561,42 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -5485,7 +5641,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>56</v>
@@ -5501,7 +5657,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>56</v>
@@ -5525,7 +5681,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>56</v>
@@ -5541,7 +5697,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>56</v>
@@ -5557,7 +5713,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>56</v>
@@ -5565,7 +5721,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>56</v>
@@ -5629,7 +5785,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>151</v>
@@ -5661,71 +5817,71 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>103</v>
@@ -5733,7 +5889,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>103</v>
@@ -5757,26 +5913,26 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
@@ -5789,7 +5945,7 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>36</v>
@@ -5797,7 +5953,7 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>36</v>
@@ -5805,7 +5961,7 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>36</v>
@@ -5821,7 +5977,7 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>37</v>
@@ -5829,7 +5985,7 @@
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>37</v>
@@ -5837,42 +5993,42 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
@@ -5925,106 +6081,106 @@
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="B68" s="3" t="s">
         <v>498</v>
-      </c>
-      <c r="B68" s="3" t="s">
-        <v>500</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
@@ -6053,7 +6209,7 @@
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="B83" s="1" t="s">
         <v>57</v>
@@ -6069,7 +6225,7 @@
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="B85" s="1" t="s">
         <v>57</v>
@@ -6077,7 +6233,7 @@
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="B86" s="1" t="s">
         <v>57</v>
@@ -6117,7 +6273,7 @@
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="B91" s="1" t="s">
         <v>57</v>
@@ -6125,274 +6281,274 @@
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A113" s="2" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A114" s="2" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A115" s="2" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A117" s="2" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A118" s="2" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A119" s="2" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A120" s="2" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A121" s="2" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A123" s="2" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.2">
@@ -6405,7 +6561,7 @@
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B127" s="1" t="s">
         <v>50</v>
@@ -6413,7 +6569,7 @@
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B128" s="1" t="s">
         <v>50</v>
@@ -6429,23 +6585,23 @@
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A130" s="2" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B132" s="1" t="s">
         <v>33</v>
@@ -6453,7 +6609,7 @@
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B133" s="1" t="s">
         <v>33</v>
@@ -6461,7 +6617,7 @@
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A134" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B134" s="1" t="s">
         <v>253</v>
@@ -6469,7 +6625,7 @@
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A135" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B135" s="1" t="s">
         <v>253</v>
@@ -6477,7 +6633,7 @@
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="B136" s="1" t="s">
         <v>40</v>
@@ -6485,7 +6641,7 @@
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A137" s="2" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="B137" s="1" t="s">
         <v>40</v>
@@ -6493,7 +6649,7 @@
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A138" s="2" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="B138" s="1" t="s">
         <v>40</v>
@@ -6501,7 +6657,7 @@
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="B139" s="1" t="s">
         <v>40</v>
@@ -6517,7 +6673,7 @@
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A141" s="2" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="B141" s="1" t="s">
         <v>40</v>
@@ -6525,10 +6681,10 @@
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.2">
@@ -6581,26 +6737,26 @@
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A150" s="2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A151" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.2">
@@ -6608,39 +6764,39 @@
         <v>253</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A153" s="2" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A154" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A155" s="2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A156" s="2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.2">
@@ -6661,10 +6817,10 @@
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A159" s="1" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.2">
@@ -6672,7 +6828,7 @@
         <v>52</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.2">
@@ -6680,15 +6836,15 @@
         <v>53</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A162" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.2">
@@ -6696,84 +6852,84 @@
         <v>54</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A164" s="2" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A165" s="2" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A166" s="2" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A167" s="2" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A168" s="2" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A169" s="2" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A170" s="2" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A171" s="2" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A172" s="2" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A173" s="1" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="B173" s="1" t="s">
         <v>41</v>
@@ -6781,7 +6937,7 @@
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A174" s="1" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="B174" s="1" t="s">
         <v>41</v>
@@ -6797,7 +6953,7 @@
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A176" s="1" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="B176" s="7" t="s">
         <v>41</v>
@@ -6805,23 +6961,23 @@
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A177" s="1" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A178" s="1" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A179" s="1" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="B179" s="1" t="s">
         <v>7</v>
@@ -6893,7 +7049,7 @@
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A188" s="1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B188" s="5" t="s">
         <v>7</v>
@@ -6901,7 +7057,7 @@
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A189" s="1" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="B189" s="1" t="s">
         <v>7</v>
@@ -6909,7 +7065,7 @@
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A190" s="1" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="B190" s="1" t="s">
         <v>7</v>
@@ -6917,7 +7073,7 @@
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A191" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B191" s="1" t="s">
         <v>7</v>
@@ -6933,7 +7089,7 @@
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A193" s="1" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="B193" s="1" t="s">
         <v>7</v>
@@ -6965,7 +7121,7 @@
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A197" s="1" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="B197" s="1" t="s">
         <v>7</v>
@@ -6973,7 +7129,7 @@
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A198" s="1" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="B198" s="1" t="s">
         <v>7</v>
@@ -6989,10 +7145,10 @@
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A200" s="2" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.2">
@@ -7005,7 +7161,7 @@
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A202" s="1" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="B202" s="1" t="s">
         <v>44</v>
@@ -7013,7 +7169,7 @@
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A203" s="1" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="B203" s="1" t="s">
         <v>44</v>
@@ -7021,10 +7177,10 @@
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A204" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.2">
@@ -7037,7 +7193,7 @@
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A206" s="1" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="B206" s="7" t="s">
         <v>6</v>
@@ -7085,7 +7241,7 @@
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A212" s="1" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="B212" s="1" t="s">
         <v>6</v>
@@ -7101,7 +7257,7 @@
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A214" s="1" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="B214" s="1" t="s">
         <v>22</v>
@@ -7109,7 +7265,7 @@
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A215" s="1" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="B215" s="1" t="s">
         <v>22</v>
@@ -7117,7 +7273,7 @@
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A216" s="1" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="B216" s="1" t="s">
         <v>22</v>
@@ -7125,7 +7281,7 @@
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A217" s="1" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="B217" s="1" t="s">
         <v>22</v>
@@ -7133,7 +7289,7 @@
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A218" s="1" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="B218" s="1" t="s">
         <v>22</v>
@@ -7157,7 +7313,7 @@
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A221" s="1" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="B221" s="1" t="s">
         <v>22</v>
@@ -7165,7 +7321,7 @@
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A222" s="1" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="B222" s="1" t="s">
         <v>22</v>
@@ -7173,7 +7329,7 @@
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A223" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="B223" s="1" t="s">
         <v>22</v>
@@ -7181,18 +7337,18 @@
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A224" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A225" s="1" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.2">
@@ -7200,52 +7356,52 @@
         <v>151</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A227" s="1" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="B227" s="1" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A228" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A229" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A230" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A231" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A232" s="1" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="B232" s="1" t="s">
         <v>42</v>
@@ -7253,7 +7409,7 @@
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A233" s="1" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="B233" s="1" t="s">
         <v>42</v>
@@ -7261,18 +7417,18 @@
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A234" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B234" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A235" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B235" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.2">
@@ -7317,90 +7473,90 @@
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A241" s="1" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A242" s="1" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B242" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A243" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B243" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A244" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B244" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A245" s="1" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B245" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A246" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B246" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A247" s="1" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B247" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A248" s="1" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A249" s="1" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B249" s="1" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A250" s="1" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B250" s="1" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A251" s="1" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B251" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.2">
@@ -7408,39 +7564,39 @@
         <v>50</v>
       </c>
       <c r="B252" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A253" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B253" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A254" s="2" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B254" s="7" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A255" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B255" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A256" s="2" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B256" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.2">
@@ -7448,84 +7604,84 @@
         <v>49</v>
       </c>
       <c r="B257" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A258" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B258" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A259" s="2" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="B259" s="1" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A260" s="2" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="B260" s="1" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A261" s="2" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="B261" s="1" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A262" s="2" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B262" s="1" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A263" s="2" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="B263" s="1" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A264" s="2" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="B264" s="1" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A265" s="2" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="B265" s="1" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A266" s="2" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="B266" s="1" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A267" s="1" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="B267" s="1" t="s">
         <v>46</v>
@@ -7533,7 +7689,7 @@
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A268" s="1" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="B268" s="1" t="s">
         <v>46</v>
@@ -7541,7 +7697,7 @@
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A269" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B269" s="1" t="s">
         <v>235</v>
@@ -7549,7 +7705,7 @@
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A270" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B270" s="1" t="s">
         <v>235</v>
@@ -7557,7 +7713,7 @@
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A271" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B271" s="1" t="s">
         <v>235</v>
@@ -7565,7 +7721,7 @@
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A272" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B272" s="1" t="s">
         <v>235</v>
@@ -7573,7 +7729,7 @@
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A273" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B273" s="1" t="s">
         <v>235</v>
@@ -7581,7 +7737,7 @@
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A274" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B274" s="1" t="s">
         <v>235</v>
@@ -7645,82 +7801,82 @@
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A282" s="1" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="B282" s="1" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A283" s="1" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="B283" s="1" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A284" s="1" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="B284" s="1" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A285" s="1" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="B285" s="1" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A286" s="1" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="B286" s="1" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A287" s="1" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="B287" s="1" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A288" s="1" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="B288" s="1" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A289" s="1" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="B289" s="1" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A290" s="1" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="B290" s="1" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A291" s="1" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="B291" s="1" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
   </sheetData>
@@ -7733,10 +7889,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC6FEC00-8F71-5647-A95F-97669058CBEA}">
-  <dimension ref="A1:B148"/>
+  <dimension ref="A1:B210"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="A104" sqref="A104"/>
+    <sheetView tabSelected="1" topLeftCell="A159" workbookViewId="0">
+      <selection activeCell="B178" sqref="B178"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7754,15 +7910,15 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>200</v>
+        <v>408</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>16</v>
+        <v>409</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>357</v>
+        <v>18</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>16</v>
@@ -7770,327 +7926,327 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>358</v>
+        <v>174</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>18</v>
+        <v>313</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>361</v>
+      <c r="A6" s="2" t="s">
+        <v>570</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>16</v>
+        <v>566</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>315</v>
+        <v>483</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>314</v>
+        <v>482</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>446</v>
+        <v>406</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>407</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>445</v>
+        <v>173</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>407</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>447</v>
+        <v>362</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>407</v>
+        <v>361</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>448</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>407</v>
+        <v>363</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>361</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>364</v>
+        <v>274</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
-        <v>365</v>
+      <c r="A14" s="7" t="s">
+        <v>274</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>362</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>274</v>
+        <v>361</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>362</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>137</v>
+        <v>485</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>138</v>
+        <v>482</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>303</v>
+        <v>175</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>302</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>328</v>
+        <v>488</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>302</v>
+        <v>483</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>329</v>
+        <v>138</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>330</v>
+        <v>137</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>302</v>
+        <v>138</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>446</v>
+        <v>137</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>24</v>
+        <v>131</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>407</v>
+        <v>301</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>34</v>
+        <v>300</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" s="1" t="s">
-        <v>408</v>
+      <c r="A23" s="2" t="s">
+        <v>567</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>34</v>
+        <v>566</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>163</v>
+        <v>24</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>162</v>
+        <v>9</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26" s="1" t="s">
-        <v>426</v>
+      <c r="A26" s="2" t="s">
+        <v>575</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>278</v>
+        <v>570</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>238</v>
+        <v>479</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>237</v>
+        <v>475</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>239</v>
+        <v>444</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>237</v>
+        <v>406</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>240</v>
+        <v>444</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>237</v>
+        <v>24</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A30" s="1" t="s">
-        <v>359</v>
+      <c r="A30" s="2" t="s">
+        <v>568</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>200</v>
+        <v>566</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>360</v>
+        <v>275</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>200</v>
+        <v>19</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>139</v>
+        <v>329</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>135</v>
+        <v>301</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>142</v>
+        <v>489</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>135</v>
+        <v>485</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>143</v>
+        <v>936</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>135</v>
+        <v>299</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>144</v>
+        <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>135</v>
+        <v>9</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A36" s="1" t="s">
-        <v>189</v>
+      <c r="A36" s="2" t="s">
+        <v>571</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>20</v>
+        <v>566</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A37" s="1" t="s">
-        <v>171</v>
+      <c r="A37" s="2" t="s">
+        <v>572</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>172</v>
+        <v>566</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>131</v>
+        <v>480</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>9</v>
+        <v>476</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>167</v>
+        <v>277</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>168</v>
+        <v>240</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>9</v>
+        <v>237</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>169</v>
+        <v>356</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A43" s="1" t="s">
-        <v>170</v>
+      <c r="A43" s="2" t="s">
+        <v>569</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>9</v>
+        <v>566</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>9</v>
@@ -8098,7 +8254,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>9</v>
@@ -8106,55 +8262,55 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>174</v>
+        <v>443</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>9</v>
+        <v>406</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A47" s="1" t="s">
-        <v>175</v>
+      <c r="A47" s="2" t="s">
+        <v>128</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A48" s="1" t="s">
-        <v>176</v>
+      <c r="A48" s="2" t="s">
+        <v>574</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>9</v>
+        <v>566</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>408</v>
+        <v>420</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>9</v>
+        <v>419</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>222</v>
+        <v>490</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>9</v>
+        <v>482</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>300</v>
+        <v>327</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>9</v>
+        <v>301</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
-        <v>301</v>
+        <v>167</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>9</v>
@@ -8162,498 +8318,498 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>34</v>
+        <v>237</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
-        <v>323</v>
+        <v>476</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
-        <v>418</v>
+        <v>475</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="B56" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
-        <v>55</v>
+        <v>491</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>25</v>
+        <v>490</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
-        <v>316</v>
+        <v>934</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
-        <v>189</v>
+        <v>484</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>408</v>
+        <v>482</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>248</v>
+        <v>302</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>408</v>
+        <v>301</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
-        <v>249</v>
+        <v>421</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>408</v>
+        <v>299</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>408</v>
+        <v>446</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>406</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>251</v>
+        <v>446</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>408</v>
+        <v>44</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
-        <v>35</v>
+        <v>141</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>408</v>
+        <v>131</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
-        <v>252</v>
+        <v>410</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>408</v>
+        <v>254</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>254</v>
+        <v>200</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>408</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
-        <v>255</v>
+        <v>359</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>408</v>
+        <v>200</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
-        <v>304</v>
+        <v>135</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>55</v>
+        <v>131</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A69" s="1" t="s">
-        <v>305</v>
+      <c r="A69" s="3" t="s">
+        <v>135</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>55</v>
+        <v>299</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A70" s="1" t="s">
-        <v>306</v>
+      <c r="A70" s="2" t="s">
+        <v>279</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>55</v>
+        <v>11</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
-        <v>307</v>
+        <v>134</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>55</v>
+        <v>131</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A72" s="1" t="s">
-        <v>19</v>
+      <c r="A72" s="3" t="s">
+        <v>134</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>10</v>
+        <v>299</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" s="6" t="s">
-        <v>273</v>
+        <v>592</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>10</v>
+        <v>445</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" s="6" t="s">
-        <v>274</v>
+        <v>172</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
-        <v>276</v>
+        <v>492</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>10</v>
+        <v>483</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
-        <v>277</v>
+        <v>481</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
-        <v>420</v>
+        <v>357</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>275</v>
+        <v>487</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>19</v>
+        <v>482</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
-        <v>172</v>
+        <v>139</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>7</v>
+        <v>135</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
-        <v>169</v>
+        <v>314</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>44</v>
+        <v>313</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
-        <v>170</v>
+        <v>144</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>44</v>
+        <v>135</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
-        <v>176</v>
+        <v>249</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>44</v>
+        <v>407</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
-        <v>250</v>
+        <v>407</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
-        <v>448</v>
+        <v>407</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>44</v>
+        <v>9</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
-        <v>132</v>
+        <v>252</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>131</v>
+        <v>407</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
-        <v>133</v>
+        <v>251</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>131</v>
+        <v>407</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
-        <v>134</v>
+        <v>250</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>131</v>
+        <v>407</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
-        <v>135</v>
+        <v>250</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>131</v>
+        <v>44</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
-        <v>137</v>
+        <v>248</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>131</v>
+        <v>407</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
-        <v>140</v>
+        <v>35</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>131</v>
+        <v>407</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A91" s="1" t="s">
-        <v>141</v>
+      <c r="A91" s="2" t="s">
+        <v>280</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>131</v>
+        <v>11</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
-        <v>136</v>
+        <v>937</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>133</v>
+        <v>9</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
-        <v>188</v>
+        <v>163</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>189</v>
+        <v>162</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
-        <v>190</v>
+        <v>142</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>189</v>
+        <v>135</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A95" s="1" t="s">
-        <v>191</v>
+      <c r="A95" s="2" t="s">
+        <v>278</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>189</v>
+        <v>11</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A96" s="2" t="s">
-        <v>128</v>
+      <c r="A96" s="1" t="s">
+        <v>239</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>11</v>
+        <v>237</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A97" s="2" t="s">
-        <v>129</v>
+      <c r="A97" s="1" t="s">
+        <v>358</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>11</v>
+        <v>200</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A98" s="2" t="s">
-        <v>130</v>
+      <c r="A98" s="1" t="s">
+        <v>477</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A99" s="2" t="s">
-        <v>131</v>
+      <c r="A99" s="1" t="s">
+        <v>596</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
-        <v>162</v>
+        <v>136</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>11</v>
+        <v>133</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
-        <v>237</v>
+        <v>424</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>11</v>
+        <v>277</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
-        <v>278</v>
+        <v>935</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A103" s="2" t="s">
-        <v>279</v>
+      <c r="A103" s="1" t="s">
+        <v>306</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>11</v>
+        <v>55</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A104" s="2" t="s">
-        <v>280</v>
+      <c r="A104" s="1" t="s">
+        <v>304</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>11</v>
+        <v>55</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A105" s="2" t="s">
-        <v>281</v>
+      <c r="A105" s="1" t="s">
+        <v>305</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>11</v>
+        <v>55</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
-        <v>314</v>
+        <v>55</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
-        <v>362</v>
+        <v>322</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
-        <v>421</v>
+        <v>565</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>420</v>
+        <v>131</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A109" s="1" t="s">
-        <v>138</v>
+      <c r="A109" s="2" t="s">
+        <v>129</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>300</v>
+        <v>11</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A110" s="3" t="s">
-        <v>134</v>
+      <c r="A110" s="7" t="s">
+        <v>273</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>300</v>
+        <v>10</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A111" s="3" t="s">
-        <v>135</v>
+      <c r="A111" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>300</v>
+        <v>10</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
-        <v>422</v>
+        <v>980</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>300</v>
+        <v>10</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
-        <v>423</v>
+        <v>170</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>300</v>
+        <v>9</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
-        <v>411</v>
+        <v>170</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>254</v>
+        <v>44</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.2">
@@ -8666,267 +8822,759 @@
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
-        <v>302</v>
+        <v>222</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>301</v>
+        <v>9</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="B117" s="1" t="s">
         <v>409</v>
-      </c>
-      <c r="B117" s="1" t="s">
-        <v>410</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
-        <v>424</v>
+        <v>445</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
-        <v>477</v>
+        <v>131</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A120" s="1" t="s">
-        <v>478</v>
+      <c r="A120" s="2" t="s">
+        <v>131</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
-        <v>479</v>
+        <v>133</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>24</v>
+        <v>131</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
-        <v>480</v>
+        <v>132</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>24</v>
+        <v>131</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
-        <v>481</v>
+        <v>255</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>477</v>
+        <v>407</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
-        <v>482</v>
+        <v>417</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>478</v>
+        <v>9</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
-        <v>483</v>
+        <v>360</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
-        <v>484</v>
+        <v>140</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>9</v>
+        <v>131</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
-        <v>485</v>
+        <v>169</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>484</v>
+        <v>9</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
-        <v>486</v>
+        <v>169</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>484</v>
+        <v>44</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
-        <v>487</v>
+        <v>189</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>484</v>
+        <v>20</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
-        <v>488</v>
+        <v>189</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>484</v>
+        <v>407</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
-        <v>489</v>
+        <v>190</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>484</v>
+        <v>189</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
-        <v>490</v>
+        <v>188</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>485</v>
+        <v>189</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
-        <v>491</v>
+        <v>191</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>487</v>
+        <v>189</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
-        <v>492</v>
+        <v>315</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>484</v>
+        <v>25</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
-        <v>493</v>
+        <v>276</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>492</v>
+        <v>10</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
-        <v>494</v>
+        <v>143</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>485</v>
+        <v>135</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
-        <v>567</v>
+        <v>328</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>131</v>
+        <v>301</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A138" s="2" t="s">
-        <v>569</v>
+      <c r="A138" s="1" t="s">
+        <v>238</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>568</v>
+        <v>237</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A139" s="2" t="s">
-        <v>570</v>
+        <v>130</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>568</v>
+        <v>11</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A140" s="2" t="s">
-        <v>571</v>
+      <c r="A140" s="1" t="s">
+        <v>419</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>568</v>
+        <v>10</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A141" s="2" t="s">
-        <v>572</v>
+      <c r="A141" s="1" t="s">
+        <v>299</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>568</v>
+        <v>9</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A142" s="2" t="s">
-        <v>573</v>
+      <c r="A142" s="1" t="s">
+        <v>962</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>568</v>
+        <v>299</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A143" s="2" t="s">
-        <v>574</v>
+      <c r="A143" s="1" t="s">
+        <v>176</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>568</v>
+        <v>9</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A144" s="2" t="s">
-        <v>575</v>
+      <c r="A144" s="1" t="s">
+        <v>176</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>568</v>
+        <v>44</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A145" s="2" t="s">
-        <v>577</v>
+      <c r="A145" s="1" t="s">
+        <v>303</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>572</v>
+        <v>55</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A146" s="2" t="s">
-        <v>576</v>
+      <c r="A146" s="1" t="s">
+        <v>254</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>568</v>
+        <v>407</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A147" s="1" t="s">
-        <v>594</v>
+        <v>171</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>447</v>
+        <v>172</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A148" s="1" t="s">
-        <v>598</v>
+        <v>171</v>
       </c>
       <c r="B148" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A149" s="2" t="s">
+        <v>573</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A150" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A151" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="B151" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A152" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="B152" s="1" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A153" s="9" t="s">
+        <v>406</v>
+      </c>
+      <c r="B153" s="1" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A154" s="1" t="s">
+        <v>938</v>
+      </c>
+      <c r="B154" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A155" s="1" t="s">
+        <v>940</v>
+      </c>
+      <c r="B155" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A156" s="1" t="s">
+        <v>939</v>
+      </c>
+      <c r="B156" s="1" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A157" s="1" t="s">
+        <v>941</v>
+      </c>
+      <c r="B157" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A158" s="1" t="s">
+        <v>942</v>
+      </c>
+      <c r="B158" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A159" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="B159" s="1" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A160" s="1" t="s">
         <v>24</v>
       </c>
+      <c r="B160" s="1" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A161" s="1" t="s">
+        <v>943</v>
+      </c>
+      <c r="B161" s="1" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A162" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B162" s="1" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A163" s="1" t="s">
+        <v>944</v>
+      </c>
+      <c r="B163" s="1" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A164" s="1" t="s">
+        <v>945</v>
+      </c>
+      <c r="B164" s="1" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A165" s="1" t="s">
+        <v>987</v>
+      </c>
+      <c r="B165" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A166" s="1" t="s">
+        <v>946</v>
+      </c>
+      <c r="B166" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A167" s="1" t="s">
+        <v>947</v>
+      </c>
+      <c r="B167" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A168" s="1" t="s">
+        <v>948</v>
+      </c>
+      <c r="B168" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A169" s="1" t="s">
+        <v>949</v>
+      </c>
+      <c r="B169" s="1" t="s">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A170" s="1" t="s">
+        <v>950</v>
+      </c>
+      <c r="B170" s="1" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A171" s="1" t="s">
+        <v>951</v>
+      </c>
+      <c r="B171" s="1" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A172" s="1" t="s">
+        <v>952</v>
+      </c>
+      <c r="B172" s="1" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A173" s="1" t="s">
+        <v>953</v>
+      </c>
+      <c r="B173" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A174" s="1" t="s">
+        <v>954</v>
+      </c>
+      <c r="B174" s="1" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A175" s="1" t="s">
+        <v>955</v>
+      </c>
+      <c r="B175" s="1" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A176" s="1" t="s">
+        <v>956</v>
+      </c>
+      <c r="B176" s="1" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A177" s="1" t="s">
+        <v>957</v>
+      </c>
+      <c r="B177" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A178" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B178" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A179" s="1" t="s">
+        <v>958</v>
+      </c>
+      <c r="B179" s="1" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A180" s="1" t="s">
+        <v>959</v>
+      </c>
+      <c r="B180" s="1" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A181" s="1" t="s">
+        <v>960</v>
+      </c>
+      <c r="B181" s="1" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A182" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B182" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A183" s="1" t="s">
+        <v>961</v>
+      </c>
+      <c r="B183" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A184" s="1" t="s">
+        <v>963</v>
+      </c>
+      <c r="B184" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A185" s="1" t="s">
+        <v>964</v>
+      </c>
+      <c r="B185" s="1" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A186" s="1" t="s">
+        <v>965</v>
+      </c>
+      <c r="B186" s="1" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A187" s="1" t="s">
+        <v>949</v>
+      </c>
+      <c r="B187" s="1" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A188" s="1" t="s">
+        <v>966</v>
+      </c>
+      <c r="B188" s="1" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A189" s="1" t="s">
+        <v>967</v>
+      </c>
+      <c r="B189" s="1" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A190" s="1" t="s">
+        <v>968</v>
+      </c>
+      <c r="B190" s="1" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A191" s="1" t="s">
+        <v>969</v>
+      </c>
+      <c r="B191" s="1" t="s">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A192" s="1" t="s">
+        <v>970</v>
+      </c>
+      <c r="B192" s="1" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A193" s="1" t="s">
+        <v>971</v>
+      </c>
+      <c r="B193" s="1" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A194" s="1" t="s">
+        <v>972</v>
+      </c>
+      <c r="B194" s="1" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A195" s="1" t="s">
+        <v>973</v>
+      </c>
+      <c r="B195" s="1" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A196" s="1" t="s">
+        <v>974</v>
+      </c>
+      <c r="B196" s="1" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A197" s="1" t="s">
+        <v>975</v>
+      </c>
+      <c r="B197" s="1" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A198" s="1" t="s">
+        <v>976</v>
+      </c>
+      <c r="B198" s="1" t="s">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A199" s="1" t="s">
+        <v>977</v>
+      </c>
+      <c r="B199" s="1" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A200" s="1" t="s">
+        <v>978</v>
+      </c>
+      <c r="B200" s="1" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A201" s="1" t="s">
+        <v>979</v>
+      </c>
+      <c r="B201" s="1" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A202" s="1" t="s">
+        <v>980</v>
+      </c>
+      <c r="B202" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A203" s="1" t="s">
+        <v>981</v>
+      </c>
+      <c r="B203" s="1" t="s">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A204" s="1" t="s">
+        <v>982</v>
+      </c>
+      <c r="B204" s="1" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A205" s="1" t="s">
+        <v>983</v>
+      </c>
+      <c r="B205" s="1" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A206" s="1" t="s">
+        <v>984</v>
+      </c>
+      <c r="B206" s="1" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A207" s="1" t="s">
+        <v>985</v>
+      </c>
+      <c r="B207" s="1" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A208" s="1" t="s">
+        <v>986</v>
+      </c>
+      <c r="B208" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A209" s="1" t="s">
+        <v>969</v>
+      </c>
+      <c r="B209" s="1" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A210" s="1"/>
+      <c r="B210" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9087,402 +9735,402 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="B18" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="B19" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="B20" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="B21" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="B22" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="B23" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="B24" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="B25" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="B26" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="B27" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="B28" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="B29" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="B30" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="B31" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="B32" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="B33" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="B34" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="B35" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="B36" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="B37" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="B38" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="B39" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="B40" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="B41" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="B42" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="B43" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="B44" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="B45" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="B46" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="B47" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="B48" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="B49" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="B50" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="B51" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="B52" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="B53" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="B54" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="B55" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="B56" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="B57" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="B58" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="B59" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="B60" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="B61" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="B62" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="B63" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="B64" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="B65" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
+        <v>637</v>
+      </c>
+      <c r="B66" t="s">
         <v>639</v>
-      </c>
-      <c r="B66" t="s">
-        <v>641</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="B67" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
@@ -9490,404 +10138,404 @@
         <v>171</v>
       </c>
       <c r="B68" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="B69" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="B70" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="B71" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="B72" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="B73" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="B74" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="B75" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="B76" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="B77" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="B78" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="B79" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="B80" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="B81" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="B82" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="B83" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="B84" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="B85" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="B86" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="B87" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="B88" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="B89" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="B90" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="B91" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="B92" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="B93" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="B94" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="B95" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="B96" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="B97" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="B98" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="B99" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="B100" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="B101" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="B102" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="B103" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="B104" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="B105" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="B106" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="B107" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="B108" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="B109" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="B110" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="B111" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="B112" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="B113" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="B114" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="B115" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="B116" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="B117" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="B118" t="s">
         <v>12</v>
@@ -9895,18 +10543,18 @@
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="B119" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="B120" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
     </row>
   </sheetData>
@@ -9940,471 +10588,471 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="B2" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="B3" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="B4" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="B7" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="B8" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="B9" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="B10" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="B11" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B12" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B13" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B14" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B15" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B16" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B17" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B18" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B19" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="B20" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="B21" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="B22" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="B23" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="B24" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="B25" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="B26" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="B27" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="B28" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="B29" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="B30" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="B31" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="B32" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="B33" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="B34" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="B35" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="B36" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="B37" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="B38" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="B39" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="B40" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="B41" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="B42" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
+        <v>288</v>
+      </c>
+      <c r="B43" t="s">
         <v>289</v>
-      </c>
-      <c r="B43" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="B44" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="B45" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="B46" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="B47" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="B48" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="B49" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="B51" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="B52" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="B54" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="B55" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="B56" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="B57" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="B58" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="B59" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="B60" t="s">
         <v>30</v>
@@ -10412,663 +11060,663 @@
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="B61" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="B62" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="B63" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="B64" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="B65" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="B66" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="B67" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="B68" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="B69" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="B70" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="B71" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="B72" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="B73" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="B74" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="B75" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="B76" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="B77" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="B78" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="B79" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="B80" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="B81" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="B82" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="B83" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="B84" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="B85" s="10" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="B86" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87" s="8" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="B87" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="B88" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="B89" s="8" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="B90" s="8" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="B91" s="8" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B92" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="B93" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="B94" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="B95" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="B96" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="B97" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="B98" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="B99" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="B100" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="B101" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="B102" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="B103" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="B104" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A105" s="10" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="B105" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="B106" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="B107" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="B108" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="B109" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="B110" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="B111" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="B113" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="B114" s="10" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="B115" s="10" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="B116" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B118" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B119" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B120" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="B121" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="B122" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="B123" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="B124" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="B125" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="B126" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="B127" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="B128" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="B129" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="B130" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="B131" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="B132" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="B133" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="B134" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="B135" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
+        <v>768</v>
+      </c>
+      <c r="B136" t="s">
         <v>770</v>
-      </c>
-      <c r="B136" t="s">
-        <v>772</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="B138" s="3" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="B139" s="3" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="B140" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="B141" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="B142" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="B143" t="s">
         <v>22</v>
@@ -11076,39 +11724,39 @@
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="B144" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="B145" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="B146" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="B147" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="B148" t="s">
         <v>11</v>
@@ -11116,498 +11764,498 @@
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
+        <v>741</v>
+      </c>
+      <c r="B149" t="s">
         <v>743</v>
-      </c>
-      <c r="B149" t="s">
-        <v>745</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="B150" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="B151" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="B152" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="B153" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="B154" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="B155" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="B156" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="B157" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="B158" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="B159" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="B160" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="B161" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="B162" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="B163" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="B164" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="B165" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="B166" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="B167" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="B168" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="B169" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="B170" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="B171" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="B172" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="B173" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="B174" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="B175" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="B176" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="B177" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="B178" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="B179" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="B180" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
+        <v>832</v>
+      </c>
+      <c r="B181" t="s">
         <v>834</v>
-      </c>
-      <c r="B181" t="s">
-        <v>836</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="B182" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="B183" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="B184" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="B185" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="B186" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="B187" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="B188" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="B189" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A190" s="2" t="s">
+        <v>862</v>
+      </c>
+      <c r="B190" t="s">
         <v>864</v>
-      </c>
-      <c r="B190" t="s">
-        <v>866</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A191" s="2" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="B191" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A192" s="2" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="B192" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A193" s="2" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="B193" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A194" s="2" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="B194" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A195" s="2" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="B195" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A196" s="2" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="B196" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A197" s="2" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="B197" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A198" s="2" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="B198" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A199" s="2" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="B199" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="B200" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="B201" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="B202" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="B203" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="B204" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="B205" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="B206" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="B207" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="B208" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="B209" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="B210" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.2">
@@ -11615,615 +12263,615 @@
         <v>211</v>
       </c>
       <c r="B211" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B212" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B213" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B214" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B215" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B216" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B217" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="B218" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="B219" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="B220" s="9" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="B221" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="B222" s="9" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="B223" s="9" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="B224" s="9" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="B225" s="9" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="B226" s="9" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="B227" s="9" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="B228" s="9" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="B229" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="B230" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="B231" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="B232" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="B233" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="B234" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="B235" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="B236" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="B237" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="B238" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="B239" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="B240" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="B241" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="B242" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="B243" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="B244" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="B245" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="B246" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="B247" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="B248" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="B249" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="B250" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="B251" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="B252" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="B253" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="B254" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="B255" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="B256" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="B257" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="B258" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="B259" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
       <c r="B260" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="B261" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="B262" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="B263" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="B264" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="B265" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="B266" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="B267" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="B268" s="9" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="B269" s="9" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="B270" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="B271" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="B272" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="B273" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="B274" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="B275" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="B276" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="B277" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="B278" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="B279" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="B280" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="B281" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="B282" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="B283" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="B284" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="B285" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="B286" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="B287" s="11" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
     </row>
   </sheetData>

--- a/skills/Digital Skills.xlsx
+++ b/skills/Digital Skills.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kongbinxuan/Desktop/skills-onthology-project/skills/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EF9FCF8-F361-5B43-982B-AB657CA02136}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C388D091-687F-2642-B748-728A15F4536E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10800" yWindow="460" windowWidth="18000" windowHeight="16140" activeTab="3" xr2:uid="{273D56F0-60F4-7D4D-B74A-F5CA8C152A80}"/>
+    <workbookView xWindow="10800" yWindow="460" windowWidth="18000" windowHeight="16140" activeTab="4" xr2:uid="{273D56F0-60F4-7D4D-B74A-F5CA8C152A80}"/>
   </bookViews>
   <sheets>
     <sheet name="Base" sheetId="1" r:id="rId1"/>
@@ -722,9 +722,6 @@
     <t>Algorithmic Trading</t>
   </si>
   <si>
-    <t>Web Service</t>
-  </si>
-  <si>
     <t>Amazon Web Service</t>
   </si>
   <si>
@@ -3003,6 +3000,9 @@
   </si>
   <si>
     <t>Genetic Programming</t>
+  </si>
+  <si>
+    <t>Cloud Service</t>
   </si>
 </sst>
 </file>
@@ -3688,7 +3688,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B11" t="s">
         <v>2</v>
@@ -3712,7 +3712,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B14" t="s">
         <v>2</v>
@@ -3744,7 +3744,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B18" t="s">
         <v>2</v>
@@ -3768,7 +3768,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B21" t="s">
         <v>2</v>
@@ -3816,7 +3816,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B27" t="s">
         <v>2</v>
@@ -3824,7 +3824,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B28" t="s">
         <v>2</v>
@@ -3832,7 +3832,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B29" t="s">
         <v>2</v>
@@ -3840,7 +3840,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B30" t="s">
         <v>2</v>
@@ -3856,7 +3856,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B32" t="s">
         <v>2</v>
@@ -3864,7 +3864,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B33" t="s">
         <v>2</v>
@@ -3904,7 +3904,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B38" t="s">
         <v>3</v>
@@ -3928,7 +3928,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B41" t="s">
         <v>3</v>
@@ -4063,7 +4063,7 @@
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B59" t="s">
         <v>2</v>
@@ -4071,7 +4071,7 @@
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B60" t="s">
         <v>2</v>
@@ -4079,7 +4079,7 @@
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B61" t="s">
         <v>4</v>
@@ -4087,7 +4087,7 @@
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="B62" t="s">
         <v>2</v>
@@ -4095,7 +4095,7 @@
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="B63" t="s">
         <v>2</v>
@@ -4103,47 +4103,47 @@
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="B64" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B65" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
+        <v>695</v>
+      </c>
+      <c r="B66" t="s">
         <v>696</v>
-      </c>
-      <c r="B66" t="s">
-        <v>697</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="B67" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="B68" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="B69" t="s">
         <v>2</v>
@@ -4180,10 +4180,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -4228,7 +4228,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B8" t="s">
         <v>72</v>
@@ -4236,7 +4236,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B9" t="s">
         <v>212</v>
@@ -4268,7 +4268,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B13" t="s">
         <v>70</v>
@@ -4276,7 +4276,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B14" t="s">
         <v>70</v>
@@ -4284,7 +4284,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B15" t="s">
         <v>70</v>
@@ -4292,7 +4292,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B16" t="s">
         <v>70</v>
@@ -4300,26 +4300,26 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B17" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>366</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>367</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
@@ -4364,26 +4364,26 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B25" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B26" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B27" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
@@ -4420,10 +4420,10 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B32" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
@@ -4436,15 +4436,15 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B35" s="10" t="s">
         <v>29</v>
@@ -4460,10 +4460,10 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B37" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
@@ -4532,18 +4532,18 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="B46" t="s">
         <v>372</v>
-      </c>
-      <c r="B46" t="s">
-        <v>373</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="B47" t="s">
         <v>372</v>
-      </c>
-      <c r="B47" t="s">
-        <v>373</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
@@ -4556,23 +4556,23 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B49" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B50" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B51" t="s">
         <v>29</v>
@@ -4580,34 +4580,34 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B52" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B53" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B54" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B55" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
@@ -4628,7 +4628,7 @@
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B58" t="s">
         <v>13</v>
@@ -4636,18 +4636,18 @@
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="B59" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B60" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
@@ -4692,10 +4692,10 @@
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B66" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
@@ -4716,23 +4716,23 @@
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="B69" t="s">
         <v>371</v>
-      </c>
-      <c r="B69" t="s">
-        <v>372</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B70" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B71" t="s">
         <v>72</v>
@@ -4740,15 +4740,15 @@
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B72" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B73" t="s">
         <v>70</v>
@@ -4756,7 +4756,7 @@
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B74" t="s">
         <v>29</v>
@@ -4764,10 +4764,10 @@
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B75" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
@@ -4780,26 +4780,26 @@
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B77" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B78" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B79" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
@@ -4812,7 +4812,7 @@
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B81" t="s">
         <v>73</v>
@@ -4852,7 +4852,7 @@
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86" s="2" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B86" t="s">
         <v>70</v>
@@ -4876,23 +4876,23 @@
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B89" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90" s="2" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B90" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B91" t="s">
         <v>30</v>
@@ -4900,7 +4900,7 @@
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B92" t="s">
         <v>42</v>
@@ -4908,26 +4908,26 @@
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B93" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B94" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B95" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.2">
@@ -4940,31 +4940,31 @@
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B97" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="B99" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B100" t="s">
         <v>23</v>
@@ -4972,10 +4972,10 @@
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B101" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.2">
@@ -4988,10 +4988,10 @@
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A103" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B103" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.2">
@@ -5020,10 +5020,10 @@
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B107" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.2">
@@ -5036,7 +5036,7 @@
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A109" s="2" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B109" t="s">
         <v>70</v>
@@ -5076,7 +5076,7 @@
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B114" t="s">
         <v>212</v>
@@ -5100,7 +5100,7 @@
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B117" t="s">
         <v>72</v>
@@ -5108,7 +5108,7 @@
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B118" t="s">
         <v>44</v>
@@ -5116,7 +5116,7 @@
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B119" t="s">
         <v>42</v>
@@ -5172,7 +5172,7 @@
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B126" t="s">
         <v>29</v>
@@ -5188,7 +5188,7 @@
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B128" t="s">
         <v>28</v>
@@ -5196,7 +5196,7 @@
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A129" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B129" t="s">
         <v>30</v>
@@ -5228,15 +5228,15 @@
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A133" s="2" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B133" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B134" t="s">
         <v>8</v>
@@ -5244,15 +5244,15 @@
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B135" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B136" t="s">
         <v>72</v>
@@ -5268,18 +5268,18 @@
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B138" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B139" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.2">
@@ -5292,7 +5292,7 @@
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A141" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B141" t="s">
         <v>153</v>
@@ -5300,10 +5300,10 @@
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B142" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.2">
@@ -5311,7 +5311,7 @@
         <v>42</v>
       </c>
       <c r="B143" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.2">
@@ -5319,7 +5319,7 @@
         <v>42</v>
       </c>
       <c r="B144" s="3" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.2">
@@ -5340,10 +5340,10 @@
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A147" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="B147" t="s">
         <v>411</v>
-      </c>
-      <c r="B147" t="s">
-        <v>412</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.2">
@@ -5356,26 +5356,26 @@
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B149" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A150" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B150" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A151" s="2" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B151" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.2">
@@ -5412,10 +5412,10 @@
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A156" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B156" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.2">
@@ -5428,7 +5428,7 @@
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A158" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B158" t="s">
         <v>29</v>
@@ -5460,10 +5460,10 @@
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A162" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B162" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.2">
@@ -5484,7 +5484,7 @@
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A165" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B165" t="s">
         <v>29</v>
@@ -5492,10 +5492,10 @@
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A166" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B166" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.2">
@@ -5503,12 +5503,12 @@
         <v>42</v>
       </c>
       <c r="B167" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A168" s="1" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="B168" t="s">
         <v>30</v>
@@ -5516,15 +5516,15 @@
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A169" s="1" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A170" s="1" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="B170" t="s">
         <v>29</v>
@@ -5561,42 +5561,42 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -5641,7 +5641,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>56</v>
@@ -5657,7 +5657,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>56</v>
@@ -5681,7 +5681,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>56</v>
@@ -5697,7 +5697,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>56</v>
@@ -5713,7 +5713,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>56</v>
@@ -5721,7 +5721,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>56</v>
@@ -5785,7 +5785,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>151</v>
@@ -5817,71 +5817,71 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>103</v>
@@ -5889,7 +5889,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>103</v>
@@ -5897,7 +5897,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>205</v>
@@ -5913,26 +5913,26 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
@@ -5945,7 +5945,7 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>36</v>
@@ -5953,7 +5953,7 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>36</v>
@@ -5961,7 +5961,7 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>36</v>
@@ -5977,7 +5977,7 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>37</v>
@@ -5985,7 +5985,7 @@
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>37</v>
@@ -5993,47 +5993,47 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>14</v>
@@ -6041,7 +6041,7 @@
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>14</v>
@@ -6081,106 +6081,106 @@
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
@@ -6209,7 +6209,7 @@
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B83" s="1" t="s">
         <v>57</v>
@@ -6225,7 +6225,7 @@
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B85" s="1" t="s">
         <v>57</v>
@@ -6233,7 +6233,7 @@
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B86" s="1" t="s">
         <v>57</v>
@@ -6273,7 +6273,7 @@
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B91" s="1" t="s">
         <v>57</v>
@@ -6281,274 +6281,274 @@
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A113" s="2" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A114" s="2" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A115" s="2" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A117" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A118" s="2" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A119" s="2" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A120" s="2" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A121" s="2" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="B122" s="1" t="s">
         <v>432</v>
-      </c>
-      <c r="B122" s="1" t="s">
-        <v>433</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A123" s="2" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.2">
@@ -6561,7 +6561,7 @@
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B127" s="1" t="s">
         <v>50</v>
@@ -6569,7 +6569,7 @@
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B128" s="1" t="s">
         <v>50</v>
@@ -6585,23 +6585,23 @@
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A130" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="B130" s="2" t="s">
         <v>527</v>
-      </c>
-      <c r="B130" s="2" t="s">
-        <v>528</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B132" s="1" t="s">
         <v>33</v>
@@ -6609,7 +6609,7 @@
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B133" s="1" t="s">
         <v>33</v>
@@ -6617,23 +6617,23 @@
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A134" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A135" s="2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B136" s="1" t="s">
         <v>40</v>
@@ -6641,7 +6641,7 @@
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A137" s="2" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B137" s="1" t="s">
         <v>40</v>
@@ -6649,7 +6649,7 @@
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A138" s="2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B138" s="1" t="s">
         <v>40</v>
@@ -6657,7 +6657,7 @@
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B139" s="1" t="s">
         <v>40</v>
@@ -6673,7 +6673,7 @@
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A141" s="2" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B141" s="1" t="s">
         <v>40</v>
@@ -6681,10 +6681,10 @@
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.2">
@@ -6729,7 +6729,7 @@
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A148" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B148" s="1" t="s">
         <v>206</v>
@@ -6737,66 +6737,66 @@
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A150" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A151" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A152" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A153" s="2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A154" s="2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A155" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A156" s="2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.2">
@@ -6817,10 +6817,10 @@
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A159" s="1" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.2">
@@ -6828,7 +6828,7 @@
         <v>52</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.2">
@@ -6836,15 +6836,15 @@
         <v>53</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A162" s="1" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.2">
@@ -6852,84 +6852,84 @@
         <v>54</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A164" s="2" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A165" s="2" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A166" s="2" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A167" s="2" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A168" s="2" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A169" s="2" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A170" s="2" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A171" s="2" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A172" s="2" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A173" s="1" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B173" s="1" t="s">
         <v>41</v>
@@ -6937,7 +6937,7 @@
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A174" s="1" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B174" s="1" t="s">
         <v>41</v>
@@ -6953,7 +6953,7 @@
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A176" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B176" s="7" t="s">
         <v>41</v>
@@ -6961,23 +6961,23 @@
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A177" s="1" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A178" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A179" s="1" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="B179" s="1" t="s">
         <v>7</v>
@@ -7049,7 +7049,7 @@
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A188" s="1" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B188" s="5" t="s">
         <v>7</v>
@@ -7057,7 +7057,7 @@
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A189" s="1" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B189" s="1" t="s">
         <v>7</v>
@@ -7065,7 +7065,7 @@
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A190" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="B190" s="1" t="s">
         <v>7</v>
@@ -7073,7 +7073,7 @@
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A191" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B191" s="1" t="s">
         <v>7</v>
@@ -7089,7 +7089,7 @@
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A193" s="1" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B193" s="1" t="s">
         <v>7</v>
@@ -7121,7 +7121,7 @@
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A197" s="1" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B197" s="1" t="s">
         <v>7</v>
@@ -7129,7 +7129,7 @@
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A198" s="1" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B198" s="1" t="s">
         <v>7</v>
@@ -7145,15 +7145,15 @@
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A200" s="2" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A201" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B201" s="1" t="s">
         <v>44</v>
@@ -7161,7 +7161,7 @@
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A202" s="1" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B202" s="1" t="s">
         <v>44</v>
@@ -7169,7 +7169,7 @@
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A203" s="1" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B203" s="1" t="s">
         <v>44</v>
@@ -7177,10 +7177,10 @@
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A204" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.2">
@@ -7193,7 +7193,7 @@
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A206" s="1" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B206" s="7" t="s">
         <v>6</v>
@@ -7241,7 +7241,7 @@
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A212" s="1" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B212" s="1" t="s">
         <v>6</v>
@@ -7249,7 +7249,7 @@
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A213" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B213" s="7" t="s">
         <v>6</v>
@@ -7257,7 +7257,7 @@
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A214" s="1" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="B214" s="1" t="s">
         <v>22</v>
@@ -7265,7 +7265,7 @@
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A215" s="1" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="B215" s="1" t="s">
         <v>22</v>
@@ -7273,7 +7273,7 @@
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A216" s="1" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B216" s="1" t="s">
         <v>22</v>
@@ -7281,7 +7281,7 @@
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A217" s="1" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="B217" s="1" t="s">
         <v>22</v>
@@ -7289,7 +7289,7 @@
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A218" s="1" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="B218" s="1" t="s">
         <v>22</v>
@@ -7313,7 +7313,7 @@
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A221" s="1" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="B221" s="1" t="s">
         <v>22</v>
@@ -7321,7 +7321,7 @@
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A222" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="B222" s="1" t="s">
         <v>22</v>
@@ -7329,7 +7329,7 @@
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A223" s="1" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B223" s="1" t="s">
         <v>22</v>
@@ -7337,18 +7337,18 @@
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A224" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A225" s="1" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.2">
@@ -7356,52 +7356,52 @@
         <v>151</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A227" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="B227" s="1" t="s">
         <v>425</v>
-      </c>
-      <c r="B227" s="1" t="s">
-        <v>426</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A228" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A229" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A230" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A231" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A232" s="1" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B232" s="1" t="s">
         <v>42</v>
@@ -7409,7 +7409,7 @@
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A233" s="1" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B233" s="1" t="s">
         <v>42</v>
@@ -7417,18 +7417,18 @@
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A234" s="1" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B234" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A235" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B235" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.2">
@@ -7473,90 +7473,90 @@
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A241" s="1" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A242" s="1" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B242" s="1" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A243" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B243" s="1" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A244" s="1" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B244" s="1" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A245" s="1" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B245" s="1" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A246" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B246" s="1" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A247" s="1" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B247" s="1" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A248" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A249" s="1" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B249" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A250" s="1" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B250" s="1" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A251" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B251" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.2">
@@ -7564,39 +7564,39 @@
         <v>50</v>
       </c>
       <c r="B252" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A253" s="2" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B253" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A254" s="2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B254" s="7" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A255" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B255" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A256" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B256" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.2">
@@ -7604,84 +7604,84 @@
         <v>49</v>
       </c>
       <c r="B257" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A258" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B258" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A259" s="2" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B259" s="1" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A260" s="2" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B260" s="1" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A261" s="2" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B261" s="1" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A262" s="2" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B262" s="1" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A263" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B263" s="1" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A264" s="2" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B264" s="1" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A265" s="2" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B265" s="1" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A266" s="2" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B266" s="1" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A267" s="1" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B267" s="1" t="s">
         <v>46</v>
@@ -7689,7 +7689,7 @@
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A268" s="1" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B268" s="1" t="s">
         <v>46</v>
@@ -7697,186 +7697,186 @@
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A269" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B269" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A270" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B270" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A271" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B271" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A272" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B272" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A273" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B273" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A274" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B274" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A275" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B275" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A276" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B276" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A277" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B277" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A278" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B278" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A279" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B279" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A280" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B280" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A281" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B281" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A282" s="1" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="B282" s="1" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A283" s="1" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="B283" s="1" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A284" s="1" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="B284" s="1" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A285" s="1" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B285" s="1" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A286" s="1" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="B286" s="1" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A287" s="1" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="B287" s="1" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A288" s="1" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="B288" s="1" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A289" s="1" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B289" s="1" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A290" s="1" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="B290" s="1" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A291" s="1" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="B291" s="1" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
   </sheetData>
@@ -7891,7 +7891,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC6FEC00-8F71-5647-A95F-97669058CBEA}">
   <dimension ref="A1:B210"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A159" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B178" sqref="B178"/>
     </sheetView>
   </sheetViews>
@@ -7910,10 +7910,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>408</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>409</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -7934,7 +7934,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>11</v>
@@ -7942,23 +7942,23 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>34</v>
@@ -7974,39 +7974,39 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>10</v>
@@ -8014,7 +8014,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>11</v>
@@ -8022,10 +8022,10 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
@@ -8038,10 +8038,10 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
@@ -8049,7 +8049,7 @@
         <v>138</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
@@ -8070,18 +8070,18 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
@@ -8094,39 +8094,39 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>24</v>
@@ -8134,15 +8134,15 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>19</v>
@@ -8150,26 +8150,26 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
@@ -8182,26 +8182,26 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
@@ -8214,7 +8214,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>11</v>
@@ -8222,15 +8222,15 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>16</v>
@@ -8238,10 +8238,10 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
@@ -8262,10 +8262,10 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
@@ -8278,34 +8278,34 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
@@ -8318,7 +8318,7 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>11</v>
@@ -8326,7 +8326,7 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>24</v>
@@ -8334,7 +8334,7 @@
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>24</v>
@@ -8342,7 +8342,7 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>24</v>
@@ -8350,15 +8350,15 @@
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>9</v>
@@ -8366,39 +8366,39 @@
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>44</v>
@@ -8414,10 +8414,10 @@
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
@@ -8430,7 +8430,7 @@
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>200</v>
@@ -8449,12 +8449,12 @@
         <v>135</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>11</v>
@@ -8473,15 +8473,15 @@
         <v>134</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" s="6" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
@@ -8494,15 +8494,15 @@
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B76" s="1" t="s">
         <v>9</v>
@@ -8510,7 +8510,7 @@
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>16</v>
@@ -8518,10 +8518,10 @@
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
@@ -8534,10 +8534,10 @@
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
@@ -8550,15 +8550,15 @@
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B83" s="1" t="s">
         <v>34</v>
@@ -8566,7 +8566,7 @@
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B84" s="1" t="s">
         <v>9</v>
@@ -8574,31 +8574,31 @@
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B88" s="1" t="s">
         <v>44</v>
@@ -8606,10 +8606,10 @@
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.2">
@@ -8617,12 +8617,12 @@
         <v>35</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B91" s="1" t="s">
         <v>11</v>
@@ -8630,7 +8630,7 @@
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="B92" s="1" t="s">
         <v>9</v>
@@ -8654,7 +8654,7 @@
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B95" s="1" t="s">
         <v>11</v>
@@ -8662,15 +8662,15 @@
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B97" s="1" t="s">
         <v>200</v>
@@ -8678,7 +8678,7 @@
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B98" s="1" t="s">
         <v>24</v>
@@ -8686,7 +8686,7 @@
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="B99" s="1" t="s">
         <v>24</v>
@@ -8702,15 +8702,15 @@
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="B102" s="1" t="s">
         <v>9</v>
@@ -8718,7 +8718,7 @@
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B103" s="1" t="s">
         <v>55</v>
@@ -8726,7 +8726,7 @@
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B104" s="1" t="s">
         <v>55</v>
@@ -8734,7 +8734,7 @@
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B105" s="1" t="s">
         <v>55</v>
@@ -8750,7 +8750,7 @@
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B107" s="1" t="s">
         <v>9</v>
@@ -8758,7 +8758,7 @@
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B108" s="1" t="s">
         <v>131</v>
@@ -8774,7 +8774,7 @@
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A110" s="7" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B110" s="1" t="s">
         <v>10</v>
@@ -8790,7 +8790,7 @@
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="B112" s="1" t="s">
         <v>10</v>
@@ -8830,18 +8830,18 @@
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.2">
@@ -8878,15 +8878,15 @@
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B124" s="1" t="s">
         <v>9</v>
@@ -8894,7 +8894,7 @@
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B125" s="1" t="s">
         <v>16</v>
@@ -8937,7 +8937,7 @@
         <v>189</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.2">
@@ -8966,7 +8966,7 @@
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B134" s="1" t="s">
         <v>25</v>
@@ -8974,7 +8974,7 @@
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B135" s="1" t="s">
         <v>10</v>
@@ -8990,18 +8990,18 @@
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.2">
@@ -9014,7 +9014,7 @@
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B140" s="1" t="s">
         <v>10</v>
@@ -9022,7 +9022,7 @@
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A141" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B141" s="1" t="s">
         <v>9</v>
@@ -9030,10 +9030,10 @@
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.2">
@@ -9054,7 +9054,7 @@
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A145" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B145" s="1" t="s">
         <v>55</v>
@@ -9062,10 +9062,10 @@
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A146" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.2">
@@ -9086,15 +9086,15 @@
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A149" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A150" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B150" s="1" t="s">
         <v>9</v>
@@ -9102,7 +9102,7 @@
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A151" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B151" s="1" t="s">
         <v>9</v>
@@ -9110,23 +9110,23 @@
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A152" s="1" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A153" s="9" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A154" s="1" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="B154" s="1" t="s">
         <v>9</v>
@@ -9134,7 +9134,7 @@
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A155" s="1" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="B155" s="1" t="s">
         <v>9</v>
@@ -9142,15 +9142,15 @@
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A156" s="1" t="s">
+        <v>938</v>
+      </c>
+      <c r="B156" s="1" t="s">
         <v>939</v>
-      </c>
-      <c r="B156" s="1" t="s">
-        <v>940</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A157" s="1" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="B157" s="1" t="s">
         <v>9</v>
@@ -9158,7 +9158,7 @@
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A158" s="1" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="B158" s="1" t="s">
         <v>9</v>
@@ -9166,10 +9166,10 @@
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A159" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.2">
@@ -9177,15 +9177,15 @@
         <v>24</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A161" s="1" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.2">
@@ -9193,28 +9193,28 @@
         <v>29</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A163" s="1" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A164" s="1" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A165" s="1" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="B165" s="1" t="s">
         <v>9</v>
@@ -9222,7 +9222,7 @@
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A166" s="1" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="B166" s="1" t="s">
         <v>9</v>
@@ -9230,7 +9230,7 @@
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A167" s="1" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="B167" s="1" t="s">
         <v>9</v>
@@ -9238,7 +9238,7 @@
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A168" s="1" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="B168" s="1" t="s">
         <v>9</v>
@@ -9246,39 +9246,39 @@
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A169" s="1" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A170" s="1" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A171" s="1" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A172" s="1" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A173" s="1" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="B173" s="1" t="s">
         <v>9</v>
@@ -9286,31 +9286,31 @@
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A174" s="1" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A175" s="1" t="s">
+        <v>954</v>
+      </c>
+      <c r="B175" s="1" t="s">
         <v>955</v>
-      </c>
-      <c r="B175" s="1" t="s">
-        <v>956</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A176" s="1" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A177" s="1" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="B177" s="1" t="s">
         <v>166</v>
@@ -9326,26 +9326,26 @@
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A179" s="1" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A180" s="1" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A181" s="1" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.2">
@@ -9358,7 +9358,7 @@
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A183" s="1" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="B183" s="1" t="s">
         <v>162</v>
@@ -9366,7 +9366,7 @@
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A184" s="1" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="B184" s="1" t="s">
         <v>9</v>
@@ -9374,143 +9374,143 @@
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A185" s="1" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A186" s="1" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A187" s="1" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A188" s="1" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A189" s="1" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A190" s="1" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A191" s="1" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A192" s="1" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A193" s="1" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A194" s="1" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A195" s="1" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A196" s="1" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A197" s="1" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A198" s="1" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A199" s="1" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A200" s="1" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A201" s="1" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A202" s="1" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="B202" s="1" t="s">
         <v>9</v>
@@ -9518,47 +9518,47 @@
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A203" s="1" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A204" s="1" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A205" s="1" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A206" s="1" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A207" s="1" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A208" s="1" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="B208" s="1" t="s">
         <v>9</v>
@@ -9566,10 +9566,10 @@
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A209" s="1" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.2">
@@ -9588,8 +9588,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60AB18F8-3BFD-6745-86FB-84FE740E519C}">
   <dimension ref="A1:B120"/>
   <sheetViews>
-    <sheetView topLeftCell="A107" workbookViewId="0">
-      <selection activeCell="A121" sqref="A121"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9647,7 +9647,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>227</v>
+        <v>987</v>
       </c>
       <c r="B7" t="s">
         <v>12</v>
@@ -9655,7 +9655,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B8" t="s">
         <v>12</v>
@@ -9695,18 +9695,18 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B13" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B14" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
@@ -9727,410 +9727,410 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B17" t="s">
-        <v>227</v>
+        <v>987</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="B18" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B19" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="B20" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B21" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="B22" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B23" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="B24" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B25" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B26" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="B27" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B28" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="B29" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B30" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="B31" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B32" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="B33" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="B34" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="B35" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="B36" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="B37" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="B38" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B39" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="B40" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="B41" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
+        <v>619</v>
+      </c>
+      <c r="B42" t="s">
         <v>620</v>
-      </c>
-      <c r="B42" t="s">
-        <v>621</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B43" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="B44" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="B45" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="B46" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="B47" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="B48" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B49" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="B50" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="B51" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="B52" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="B53" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="B54" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="B55" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="B56" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B57" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="B58" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="B59" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="B60" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="B61" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="B62" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="B63" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="B64" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="B65" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="B66" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="B67" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
@@ -10138,404 +10138,404 @@
         <v>171</v>
       </c>
       <c r="B68" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="B69" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
+        <v>637</v>
+      </c>
+      <c r="B70" t="s">
         <v>638</v>
-      </c>
-      <c r="B70" t="s">
-        <v>639</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="B71" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="B72" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="B73" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="B74" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="B75" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="B76" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="B77" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="B78" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="B79" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="B80" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="B81" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="B82" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="B83" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="B84" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B85" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="B86" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="B87" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="B88" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="B89" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="B90" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="B91" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="B92" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="B93" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="B94" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="B95" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="B96" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="B97" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="B98" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="B99" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="B100" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="B101" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="B102" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="B103" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="B104" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="B105" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="B106" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="B107" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="B108" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="B109" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="B110" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="B111" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="B112" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="B113" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="B114" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="B115" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="B116" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="B117" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="B118" t="s">
         <v>12</v>
@@ -10543,18 +10543,18 @@
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="B119" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="B120" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
   </sheetData>
@@ -10588,471 +10588,471 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="B2" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="B3" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="B4" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="B7" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
+        <v>789</v>
+      </c>
+      <c r="B8" t="s">
         <v>790</v>
-      </c>
-      <c r="B8" t="s">
-        <v>791</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="B9" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="B10" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="B11" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B12" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B13" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B14" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B15" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B16" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B17" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B18" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B19" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="B20" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="B21" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="B22" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="B23" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="B24" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="B25" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="B26" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="B27" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="B28" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="B29" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="B30" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="B31" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="B32" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="B33" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="B34" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
+        <v>811</v>
+      </c>
+      <c r="B35" t="s">
         <v>812</v>
-      </c>
-      <c r="B35" t="s">
-        <v>813</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="B36" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="B37" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="B38" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="B39" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="B40" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="B41" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
+        <v>769</v>
+      </c>
+      <c r="B42" t="s">
         <v>770</v>
-      </c>
-      <c r="B42" t="s">
-        <v>771</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
+        <v>287</v>
+      </c>
+      <c r="B43" t="s">
         <v>288</v>
-      </c>
-      <c r="B43" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="B44" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="B45" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="B46" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="B47" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B48" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="B49" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="B51" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="B52" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B54" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B55" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B56" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B57" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="B58" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="B59" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B60" t="s">
         <v>30</v>
@@ -11060,663 +11060,663 @@
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
+        <v>707</v>
+      </c>
+      <c r="B61" t="s">
         <v>708</v>
-      </c>
-      <c r="B61" t="s">
-        <v>709</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="B62" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="B63" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B64" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B65" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B66" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B67" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="B68" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B69" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B70" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B71" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="B72" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="B73" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B74" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="B75" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="B76" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="B77" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="B78" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="B79" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B80" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="B81" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="B82" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="B83" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="B84" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="B85" s="10" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="B86" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87" s="8" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="B87" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B88" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="B89" s="8" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="B90" s="8" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="B91" s="8" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B92" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B93" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="B94" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="B95" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="B96" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="B97" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="B98" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="B99" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B100" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="B101" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="B102" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="B103" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="B104" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A105" s="10" t="s">
+        <v>724</v>
+      </c>
+      <c r="B105" t="s">
         <v>725</v>
-      </c>
-      <c r="B105" t="s">
-        <v>726</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="B106" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="B107" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="B108" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="B109" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="B110" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="B111" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="B113" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="B114" s="10" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="B115" s="10" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="B116" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B118" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B119" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B120" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="B121" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="B122" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="B123" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
+        <v>770</v>
+      </c>
+      <c r="B124" t="s">
         <v>771</v>
-      </c>
-      <c r="B124" t="s">
-        <v>772</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="B125" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="B126" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="B127" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="B128" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="B129" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="B130" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="B131" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="B132" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="B133" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="B134" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
+        <v>768</v>
+      </c>
+      <c r="B135" t="s">
         <v>769</v>
-      </c>
-      <c r="B135" t="s">
-        <v>770</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="B136" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="B138" s="3" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="B139" s="3" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="B140" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="B141" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="B142" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B143" t="s">
         <v>22</v>
@@ -11724,39 +11724,39 @@
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="B144" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="B145" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="B146" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="B147" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="B148" t="s">
         <v>11</v>
@@ -11764,498 +11764,498 @@
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="B149" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="B150" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="B151" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="B152" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="B153" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="B154" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="B155" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B156" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B157" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="B158" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="B159" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="B160" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="B161" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="B162" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="B163" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="B164" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="B165" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="B166" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="B167" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="B168" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="B169" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="B170" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="B171" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="B172" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="B173" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="B174" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B175" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="B176" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="B177" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="B178" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="B179" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="B180" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="B181" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
+        <v>832</v>
+      </c>
+      <c r="B182" t="s">
         <v>833</v>
-      </c>
-      <c r="B182" t="s">
-        <v>834</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="B183" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="B184" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="B185" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="B186" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="B187" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B188" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="B189" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A190" s="2" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="B190" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A191" s="2" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="B191" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A192" s="2" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="B192" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A193" s="2" t="s">
+        <v>862</v>
+      </c>
+      <c r="B193" t="s">
         <v>863</v>
-      </c>
-      <c r="B193" t="s">
-        <v>864</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A194" s="2" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="B194" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A195" s="2" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="B195" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A196" s="2" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="B196" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A197" s="2" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="B197" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A198" s="2" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="B198" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A199" s="2" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="B199" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="B200" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="B201" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="B202" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="B203" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="B204" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="B205" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="B206" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="B207" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="B208" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="B209" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="B210" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.2">
@@ -12263,615 +12263,615 @@
         <v>211</v>
       </c>
       <c r="B211" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B212" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B213" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B214" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B215" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B216" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B217" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="B218" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="B219" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="B220" s="9" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="B221" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="B222" s="9" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="B223" s="9" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="B224" s="9" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="B225" s="9" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="B226" s="9" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="B227" s="9" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="B228" s="9" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="B229" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="B230" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="B231" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="B232" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="B233" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="B234" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="B235" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="B236" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="B237" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="B238" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="B239" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="B240" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="B241" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="B242" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="B243" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="B244" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="B245" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="B246" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="B247" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="B248" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="B249" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="B250" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="B251" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="B252" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="B253" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="B254" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="B255" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="B256" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="B257" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="B258" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="B259" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="B260" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="B261" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="B262" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="B263" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="B264" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="B265" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="B266" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="B267" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="B268" s="9" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="B269" s="9" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="B270" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="B271" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B272" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B273" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B274" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B275" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B276" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B277" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="B278" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="B279" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="B280" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="B281" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="B282" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="B283" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="B284" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="B285" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B286" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B287" s="11" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
     </row>
   </sheetData>

--- a/skills/Digital Skills.xlsx
+++ b/skills/Digital Skills.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kongbinxuan/Desktop/skills-onthology-project/skills/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/binxuan/Desktop/Projects/Skills Ontology/skills/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C388D091-687F-2642-B748-728A15F4536E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93D84848-803F-0842-A18A-18291B95D482}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10800" yWindow="460" windowWidth="18000" windowHeight="16140" activeTab="4" xr2:uid="{273D56F0-60F4-7D4D-B74A-F5CA8C152A80}"/>
+    <workbookView xWindow="10800" yWindow="460" windowWidth="18000" windowHeight="16140" activeTab="2" xr2:uid="{273D56F0-60F4-7D4D-B74A-F5CA8C152A80}"/>
   </bookViews>
   <sheets>
     <sheet name="Base" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2289" uniqueCount="988">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2299" uniqueCount="993">
   <si>
     <t>Skill</t>
   </si>
@@ -1277,9 +1277,6 @@
     <t>Relational Database Management System</t>
   </si>
   <si>
-    <t>User Interface</t>
-  </si>
-  <si>
     <t>User Interface Design</t>
   </si>
   <si>
@@ -3003,6 +3000,24 @@
   </si>
   <si>
     <t>Cloud Service</t>
+  </si>
+  <si>
+    <t>Infrastructure as a Service (IaaS)</t>
+  </si>
+  <si>
+    <t>Computer Hardware</t>
+  </si>
+  <si>
+    <t>Computer-aided Design</t>
+  </si>
+  <si>
+    <t>Platform as a Service (PaaS)</t>
+  </si>
+  <si>
+    <t>Standard Markup Language</t>
+  </si>
+  <si>
+    <t>User Interface (UI)</t>
   </si>
 </sst>
 </file>
@@ -3086,13 +3101,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3215,8 +3230,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FCFD10E1-5310-7346-AC41-980E95A43B73}" name="Table1" displayName="Table1" ref="A1:B69" totalsRowShown="0">
-  <autoFilter ref="A1:B69" xr:uid="{70E2AE85-8354-604E-A8F5-BA1E0909D1D5}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FCFD10E1-5310-7346-AC41-980E95A43B73}" name="Table1" displayName="Table1" ref="A1:B71" totalsRowShown="0">
+  <autoFilter ref="A1:B71" xr:uid="{70E2AE85-8354-604E-A8F5-BA1E0909D1D5}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B58">
     <sortCondition ref="B1:B58"/>
   </sortState>
@@ -3243,10 +3258,10 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{6955DF53-08E7-354C-879B-4C93548A2DFB}" name="Table134" displayName="Table134" ref="A1:B291" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
-  <autoFilter ref="A1:B291" xr:uid="{70E2AE85-8354-604E-A8F5-BA1E0909D1D5}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B281">
-    <sortCondition ref="B1:B281"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{6955DF53-08E7-354C-879B-4C93548A2DFB}" name="Table134" displayName="Table134" ref="A1:B292" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
+  <autoFilter ref="A1:B292" xr:uid="{70E2AE85-8354-604E-A8F5-BA1E0909D1D5}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B291">
+    <sortCondition ref="A1:A291"/>
   </sortState>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{35F37C34-962A-B542-ADB6-57B519C2B0E6}" name="Skill" dataDxfId="4"/>
@@ -3271,8 +3286,8 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{27EF683E-E617-FC45-A9F4-3737C17AF3B3}" name="Table13456" displayName="Table13456" ref="A1:B121" totalsRowShown="0">
-  <autoFilter ref="A1:B121" xr:uid="{70E2AE85-8354-604E-A8F5-BA1E0909D1D5}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{27EF683E-E617-FC45-A9F4-3737C17AF3B3}" name="Table13456" displayName="Table13456" ref="A1:B122" totalsRowShown="0">
+  <autoFilter ref="A1:B122" xr:uid="{70E2AE85-8354-604E-A8F5-BA1E0909D1D5}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B17">
     <sortCondition ref="B1:B17"/>
   </sortState>
@@ -3595,10 +3610,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25E914D5-27CD-7E41-A3B3-3B307D4A30A6}">
-  <dimension ref="A1:B69"/>
+  <dimension ref="A1:B71"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="A70" sqref="A70"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="A71" sqref="A71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3840,7 +3855,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B30" t="s">
         <v>2</v>
@@ -3856,7 +3871,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B32" t="s">
         <v>2</v>
@@ -3864,7 +3879,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B33" t="s">
         <v>2</v>
@@ -4063,7 +4078,7 @@
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B59" t="s">
         <v>2</v>
@@ -4071,7 +4086,7 @@
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B60" t="s">
         <v>2</v>
@@ -4079,7 +4094,7 @@
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B61" t="s">
         <v>4</v>
@@ -4087,7 +4102,7 @@
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="B62" t="s">
         <v>2</v>
@@ -4095,7 +4110,7 @@
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B63" t="s">
         <v>2</v>
@@ -4103,49 +4118,65 @@
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="B64" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="B65" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
+        <v>694</v>
+      </c>
+      <c r="B66" t="s">
         <v>695</v>
-      </c>
-      <c r="B66" t="s">
-        <v>696</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="B67" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="B68" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="B69" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>988</v>
+      </c>
+      <c r="B70" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>989</v>
+      </c>
+      <c r="B71" t="s">
         <v>2</v>
       </c>
     </row>
@@ -4180,10 +4211,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -4380,10 +4411,10 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B27" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
@@ -4446,7 +4477,7 @@
       <c r="A35" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="B35" s="10" t="s">
+      <c r="B35" s="9" t="s">
         <v>29</v>
       </c>
     </row>
@@ -4564,10 +4595,10 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B50" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
@@ -4636,7 +4667,7 @@
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="B59" t="s">
         <v>372</v>
@@ -4662,7 +4693,7 @@
       <c r="A62" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B62" s="10" t="s">
+      <c r="B62" s="9" t="s">
         <v>8</v>
       </c>
     </row>
@@ -4724,10 +4755,10 @@
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B70" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
@@ -4764,10 +4795,10 @@
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B75" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
@@ -4796,7 +4827,7 @@
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B79" t="s">
         <v>371</v>
@@ -4884,10 +4915,10 @@
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90" s="2" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B90" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.2">
@@ -4956,7 +4987,7 @@
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="B99" t="s">
         <v>372</v>
@@ -4972,10 +5003,10 @@
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B101" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.2">
@@ -5020,7 +5051,7 @@
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B107" t="s">
         <v>371</v>
@@ -5228,10 +5259,10 @@
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A133" s="2" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B133" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.2">
@@ -5271,7 +5302,7 @@
         <v>256</v>
       </c>
       <c r="B138" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.2">
@@ -5311,7 +5342,7 @@
         <v>42</v>
       </c>
       <c r="B143" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.2">
@@ -5372,10 +5403,10 @@
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A151" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B151" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.2">
@@ -5503,12 +5534,12 @@
         <v>42</v>
       </c>
       <c r="B167" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A168" s="1" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="B168" t="s">
         <v>30</v>
@@ -5516,15 +5547,15 @@
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A169" s="1" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A170" s="1" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="B170" t="s">
         <v>29</v>
@@ -5540,10 +5571,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC367FE4-F21A-4B4E-A4D6-C29EEEBA6A4D}">
-  <dimension ref="A1:B291"/>
+  <dimension ref="A1:B292"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C150" sqref="C150"/>
+    <sheetView tabSelected="1" topLeftCell="A241" workbookViewId="0">
+      <selection activeCell="B265" sqref="B265"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5561,79 +5592,79 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>460</v>
+        <v>243</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>457</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>461</v>
+        <v>244</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>457</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>457</v>
+        <v>424</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>459</v>
+        <v>114</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>457</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>458</v>
+        <v>197</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>457</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>31</v>
+        <v>194</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>56</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>226</v>
+        <v>497</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>56</v>
+        <v>495</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>225</v>
+        <v>593</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>56</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>221</v>
+        <v>31</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
-        <v>224</v>
+      <c r="A11" t="s">
+        <v>31</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>56</v>
@@ -5641,23 +5672,23 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>306</v>
+        <v>226</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
-        <v>223</v>
+      <c r="A13" t="s">
+        <v>226</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>480</v>
+      <c r="A14" s="1" t="s">
+        <v>225</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>56</v>
@@ -5665,71 +5696,71 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>31</v>
+        <v>817</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>223</v>
+      <c r="A16" s="1" t="s">
+        <v>576</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>56</v>
+        <v>574</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>817</v>
+      <c r="A17" s="1" t="s">
+        <v>235</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>56</v>
+        <v>229</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>224</v>
+      <c r="A18" s="1" t="s">
+        <v>151</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>56</v>
+        <v>424</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>818</v>
+      <c r="A19" s="1" t="s">
+        <v>161</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>56</v>
+        <v>151</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>226</v>
+      <c r="A20" s="1" t="s">
+        <v>158</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>56</v>
+        <v>151</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>819</v>
+      <c r="A21" s="1" t="s">
+        <v>152</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>56</v>
+        <v>151</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>816</v>
+      <c r="A22" s="1" t="s">
+        <v>152</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>56</v>
+        <v>206</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>151</v>
@@ -5737,7 +5768,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>151</v>
@@ -5745,7 +5776,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>151</v>
@@ -5753,7 +5784,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>151</v>
@@ -5761,7 +5792,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>156</v>
+        <v>416</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>151</v>
@@ -5769,7 +5800,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>151</v>
@@ -5777,7 +5808,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>151</v>
@@ -5785,7 +5816,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>417</v>
+        <v>157</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>151</v>
@@ -5793,207 +5824,207 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>153</v>
+        <v>287</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>151</v>
+        <v>289</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>159</v>
+        <v>103</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>151</v>
+        <v>57</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>157</v>
+        <v>262</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>151</v>
+        <v>206</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A34" s="2" t="s">
-        <v>295</v>
+      <c r="A34" s="1" t="s">
+        <v>579</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>287</v>
+        <v>574</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A35" s="2" t="s">
-        <v>297</v>
+      <c r="A35" s="1" t="s">
+        <v>554</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>287</v>
+        <v>552</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A36" s="2" t="s">
-        <v>296</v>
+      <c r="A36" s="1" t="s">
+        <v>553</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>287</v>
+        <v>552</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A37" s="2" t="s">
-        <v>290</v>
+      <c r="A37" s="1" t="s">
+        <v>552</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>287</v>
+        <v>546</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A38" s="2" t="s">
-        <v>293</v>
+      <c r="A38" s="1" t="s">
+        <v>498</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>287</v>
+        <v>495</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A39" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>287</v>
+      <c r="A39" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>496</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A40" s="2" t="s">
-        <v>291</v>
+      <c r="A40" s="1" t="s">
+        <v>429</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>287</v>
+        <v>381</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A41" s="2" t="s">
-        <v>292</v>
+      <c r="A41" s="1" t="s">
+        <v>36</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>287</v>
+        <v>7</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>558</v>
+        <v>36</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>103</v>
+        <v>7</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>559</v>
+        <v>115</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>103</v>
+        <v>36</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>263</v>
+        <v>38</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>205</v>
+        <v>7</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>205</v>
+        <v>38</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>555</v>
+        <v>196</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>553</v>
+        <v>21</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>554</v>
+        <v>37</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>553</v>
+        <v>7</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>556</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>553</v>
+        <v>381</v>
+      </c>
+      <c r="B48" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>115</v>
+        <v>847</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>36</v>
+        <v>843</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A50" s="1" t="s">
-        <v>561</v>
+      <c r="A50" s="2" t="s">
+        <v>295</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>36</v>
+        <v>287</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>563</v>
+        <v>588</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
-        <v>562</v>
+        <v>585</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>38</v>
+        <v>496</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>493</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A54" s="1" t="s">
-        <v>551</v>
+      <c r="A54" s="2" t="s">
+        <v>514</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>37</v>
+        <v>493</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
-        <v>552</v>
+        <v>428</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>37</v>
+        <v>381</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>381</v>
@@ -6001,7 +6032,7 @@
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>381</v>
@@ -6009,631 +6040,631 @@
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
-        <v>428</v>
+        <v>577</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>381</v>
+        <v>574</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A59" s="1" t="s">
-        <v>427</v>
+      <c r="A59" s="2" t="s">
+        <v>503</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>381</v>
+        <v>495</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>426</v>
+        <v>209</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>381</v>
+        <v>208</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
-        <v>243</v>
+        <v>101</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>14</v>
+        <v>57</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
-        <v>244</v>
+        <v>541</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>14</v>
+        <v>57</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>146</v>
+        <v>102</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>14</v>
+        <v>57</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A64" s="1" t="s">
-        <v>147</v>
+      <c r="A64" s="2" t="s">
+        <v>500</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>14</v>
+        <v>495</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
-        <v>104</v>
+        <v>574</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>116</v>
+        <v>545</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>32</v>
+        <v>57</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
-        <v>289</v>
+        <v>848</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>288</v>
+        <v>843</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
-        <v>495</v>
-      </c>
-      <c r="B68" s="3" t="s">
-        <v>497</v>
+        <v>557</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
-        <v>497</v>
-      </c>
-      <c r="B69" s="3" t="s">
-        <v>494</v>
+        <v>491</v>
+      </c>
+      <c r="B69" s="6" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A70" s="2" t="s">
-        <v>515</v>
+      <c r="A70" s="1" t="s">
+        <v>560</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>494</v>
+        <v>36</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
-        <v>496</v>
-      </c>
-      <c r="B72" s="3" t="s">
-        <v>494</v>
+        <v>529</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>528</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A73" s="2" t="s">
-        <v>527</v>
+      <c r="A73" s="1" t="s">
+        <v>538</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>494</v>
+        <v>529</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A74" s="2" t="s">
-        <v>512</v>
+      <c r="A74" s="1" t="s">
+        <v>536</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>494</v>
+        <v>529</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A75" s="2" t="s">
-        <v>511</v>
+      <c r="A75" s="1" t="s">
+        <v>532</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>494</v>
+        <v>529</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A76" s="2" t="s">
-        <v>516</v>
+      <c r="A76" s="1" t="s">
+        <v>531</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>494</v>
+        <v>529</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A77" s="2" t="s">
-        <v>508</v>
+      <c r="A77" s="1" t="s">
+        <v>530</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>494</v>
+        <v>529</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A78" s="2" t="s">
-        <v>510</v>
+      <c r="A78" s="1" t="s">
+        <v>530</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>494</v>
+        <v>540</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A79" s="2" t="s">
-        <v>514</v>
+      <c r="A79" s="1" t="s">
+        <v>535</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>494</v>
+        <v>529</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
-        <v>114</v>
+        <v>539</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>57</v>
+        <v>529</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
-        <v>103</v>
+        <v>534</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>57</v>
+        <v>529</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
-        <v>101</v>
+        <v>550</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A83" s="1" t="s">
-        <v>542</v>
+      <c r="A83" s="2" t="s">
+        <v>297</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>57</v>
+        <v>287</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A84" s="1" t="s">
-        <v>102</v>
+      <c r="A84" s="2" t="s">
+        <v>504</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>57</v>
+        <v>495</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A85" s="1" t="s">
-        <v>546</v>
+      <c r="A85" s="2" t="s">
+        <v>504</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>57</v>
+        <v>372</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
-        <v>543</v>
-      </c>
-      <c r="B86" s="1" t="s">
-        <v>57</v>
+        <v>495</v>
+      </c>
+      <c r="B86" s="3" t="s">
+        <v>493</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
-        <v>105</v>
+        <v>499</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>57</v>
+        <v>495</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
-        <v>192</v>
+        <v>452</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>57</v>
+        <v>40</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
-        <v>100</v>
+        <v>587</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>57</v>
+        <v>22</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A90" s="1" t="s">
-        <v>104</v>
+      <c r="A90" s="2" t="s">
+        <v>343</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>57</v>
+        <v>339</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A91" s="1" t="s">
-        <v>547</v>
+      <c r="A91" s="2" t="s">
+        <v>342</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>57</v>
+        <v>252</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
-        <v>577</v>
+        <v>340</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>575</v>
+        <v>339</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
-        <v>580</v>
+        <v>431</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>575</v>
+        <v>372</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A94" s="1" t="s">
-        <v>578</v>
+      <c r="A94" s="2" t="s">
+        <v>505</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>575</v>
+        <v>495</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
-        <v>576</v>
+        <v>39</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>575</v>
+        <v>7</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
-        <v>584</v>
+        <v>589</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>575</v>
+        <v>22</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
-        <v>579</v>
+        <v>68</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>575</v>
+        <v>22</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
-        <v>583</v>
+        <v>68</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>575</v>
+        <v>22</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
-        <v>581</v>
+        <v>584</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>575</v>
+        <v>22</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
-        <v>582</v>
+        <v>558</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>575</v>
+        <v>103</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
-        <v>539</v>
+        <v>353</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>530</v>
+        <v>234</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
-        <v>537</v>
+        <v>50</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>530</v>
+        <v>329</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
-        <v>533</v>
+        <v>330</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>530</v>
+        <v>50</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
-        <v>532</v>
+        <v>331</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>530</v>
+        <v>50</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
-        <v>531</v>
+        <v>562</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>530</v>
+        <v>36</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
-        <v>536</v>
+        <v>575</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>530</v>
+        <v>574</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A107" s="1" t="s">
-        <v>540</v>
+      <c r="A107" t="s">
+        <v>818</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>530</v>
+        <v>56</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
-        <v>535</v>
+        <v>146</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>530</v>
+        <v>14</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
-        <v>534</v>
+        <v>147</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>530</v>
+        <v>14</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A110" s="1" t="s">
-        <v>538</v>
+      <c r="A110" s="2" t="s">
+        <v>526</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>537</v>
+        <v>493</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A111" s="1" t="s">
-        <v>498</v>
+      <c r="A111" s="2" t="s">
+        <v>501</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
-        <v>499</v>
+        <v>849</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>496</v>
+        <v>843</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A113" s="2" t="s">
-        <v>504</v>
+        <v>345</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>496</v>
+        <v>252</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A114" s="2" t="s">
-        <v>501</v>
+      <c r="A114" s="1" t="s">
+        <v>413</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>496</v>
+        <v>33</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A115" s="2" t="s">
-        <v>505</v>
+      <c r="A115" s="1" t="s">
+        <v>252</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>496</v>
+        <v>339</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
-        <v>500</v>
+        <v>252</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>496</v>
+        <v>230</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A117" s="2" t="s">
-        <v>506</v>
+        <v>336</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>496</v>
+        <v>329</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A118" s="2" t="s">
-        <v>502</v>
+      <c r="A118" s="1" t="s">
+        <v>850</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>496</v>
+        <v>843</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A119" s="2" t="s">
-        <v>507</v>
+      <c r="A119" s="1" t="s">
+        <v>851</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>496</v>
+        <v>843</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A120" s="2" t="s">
-        <v>503</v>
+      <c r="A120" s="1" t="s">
+        <v>583</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>496</v>
+        <v>574</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A121" s="2" t="s">
-        <v>503</v>
+      <c r="A121" s="1" t="s">
+        <v>459</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>340</v>
+        <v>456</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A122" s="1" t="s">
-        <v>431</v>
+      <c r="A122" s="2" t="s">
+        <v>296</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>432</v>
+        <v>287</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A123" s="2" t="s">
-        <v>505</v>
+        <v>290</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>372</v>
+        <v>287</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
-        <v>432</v>
+        <v>269</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>372</v>
+        <v>44</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
-        <v>404</v>
+        <v>845</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>372</v>
+        <v>844</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
-        <v>208</v>
+        <v>40</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>207</v>
+        <v>7</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="B127" s="1" t="s">
-        <v>50</v>
+        <v>40</v>
+      </c>
+      <c r="B127" s="6" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A128" s="1" t="s">
-        <v>331</v>
+      <c r="A128" s="2" t="s">
+        <v>511</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>50</v>
+        <v>493</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A129" s="1" t="s">
-        <v>148</v>
+      <c r="A129" s="2" t="s">
+        <v>511</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>146</v>
+        <v>40</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A130" s="2" t="s">
-        <v>526</v>
-      </c>
-      <c r="B130" s="2" t="s">
-        <v>527</v>
+        <v>510</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>493</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A131" s="1" t="s">
-        <v>412</v>
+      <c r="A131" s="2" t="s">
+        <v>510</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>414</v>
+        <v>40</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
-        <v>414</v>
+        <v>462</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
-        <v>394</v>
+        <v>451</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A134" s="2" t="s">
-        <v>342</v>
+      <c r="A134" s="1" t="s">
+        <v>195</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>252</v>
+        <v>40</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A135" s="2" t="s">
-        <v>345</v>
+      <c r="A135" s="1" t="s">
+        <v>195</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>252</v>
+        <v>21</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A136" s="1" t="s">
-        <v>453</v>
+      <c r="A136" s="2" t="s">
+        <v>434</v>
       </c>
       <c r="B136" s="1" t="s">
         <v>40</v>
@@ -6641,1135 +6672,1135 @@
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A137" s="2" t="s">
-        <v>512</v>
+        <v>434</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>40</v>
+        <v>432</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A138" s="2" t="s">
-        <v>511</v>
-      </c>
-      <c r="B138" s="1" t="s">
-        <v>40</v>
+      <c r="A138" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B138" s="6" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
-        <v>463</v>
+        <v>430</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>40</v>
+        <v>431</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="B140" s="1" t="s">
-        <v>40</v>
+        <v>382</v>
+      </c>
+      <c r="B140" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A141" s="2" t="s">
-        <v>435</v>
+      <c r="A141" s="1" t="s">
+        <v>578</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>40</v>
+        <v>574</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A142" s="1" t="s">
-        <v>557</v>
+      <c r="A142" s="2" t="s">
+        <v>433</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>543</v>
+        <v>432</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A143" s="1" t="s">
-        <v>208</v>
+      <c r="A143" s="2" t="s">
+        <v>347</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>5</v>
+        <v>339</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="s">
-        <v>209</v>
+        <v>164</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>208</v>
+        <v>15</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A145" s="1" t="s">
-        <v>210</v>
+        <v>423</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>208</v>
+        <v>424</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A146" s="1" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A147" s="1" t="s">
-        <v>152</v>
+        <v>556</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>206</v>
+        <v>542</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A148" s="1" t="s">
-        <v>262</v>
+        <v>52</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>206</v>
+        <v>395</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="s">
-        <v>531</v>
+        <v>542</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>541</v>
+        <v>57</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A150" s="2" t="s">
-        <v>343</v>
+      <c r="A150" t="s">
+        <v>479</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>339</v>
+        <v>56</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A151" s="1" t="s">
-        <v>340</v>
+        <v>53</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>339</v>
+        <v>395</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A152" s="1" t="s">
-        <v>252</v>
+        <v>308</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>339</v>
+        <v>306</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A153" s="2" t="s">
-        <v>347</v>
+      <c r="A153" s="1" t="s">
+        <v>208</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>339</v>
+        <v>207</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A154" s="2" t="s">
-        <v>341</v>
+      <c r="A154" s="1" t="s">
+        <v>208</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>339</v>
+        <v>5</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A155" s="2" t="s">
-        <v>346</v>
+      <c r="A155" s="1" t="s">
+        <v>263</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>339</v>
+        <v>205</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A156" s="2" t="s">
-        <v>344</v>
+      <c r="A156" s="1" t="s">
+        <v>206</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>339</v>
+        <v>205</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A157" s="1" t="s">
-        <v>164</v>
+        <v>206</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>15</v>
+        <v>204</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A158" s="1" t="s">
-        <v>203</v>
+        <v>533</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>201</v>
+        <v>529</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A159" s="1" t="s">
-        <v>530</v>
-      </c>
-      <c r="B159" s="1" t="s">
-        <v>529</v>
+        <v>414</v>
+      </c>
+      <c r="B159" s="6" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A160" s="1" t="s">
-        <v>52</v>
+      <c r="A160" s="2" t="s">
+        <v>293</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>395</v>
+        <v>287</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A161" s="1" t="s">
-        <v>53</v>
+        <v>450</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>395</v>
+        <v>42</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A162" s="1" t="s">
-        <v>396</v>
+        <v>551</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>395</v>
+        <v>37</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A163" s="1" t="s">
-        <v>54</v>
+      <c r="A163" s="2" t="s">
+        <v>438</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>395</v>
+        <v>432</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A164" s="2" t="s">
-        <v>524</v>
-      </c>
-      <c r="B164" s="2" t="s">
-        <v>516</v>
+      <c r="A164" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="B164" s="1" t="s">
+        <v>574</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A165" s="2" t="s">
-        <v>518</v>
-      </c>
-      <c r="B165" s="2" t="s">
-        <v>516</v>
+      <c r="A165" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="B165" s="1" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A166" s="2" t="s">
-        <v>523</v>
-      </c>
-      <c r="B166" s="2" t="s">
-        <v>516</v>
+      <c r="A166" s="1" t="s">
+        <v>586</v>
+      </c>
+      <c r="B166" s="1" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A167" s="2" t="s">
-        <v>520</v>
-      </c>
-      <c r="B167" s="2" t="s">
-        <v>516</v>
+      <c r="A167" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="B167" s="1" t="s">
+        <v>456</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A168" s="2" t="s">
-        <v>522</v>
-      </c>
-      <c r="B168" s="2" t="s">
-        <v>516</v>
+      <c r="A168" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B168" s="1" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A169" s="2" t="s">
-        <v>521</v>
-      </c>
-      <c r="B169" s="2" t="s">
-        <v>516</v>
+        <v>294</v>
+      </c>
+      <c r="B169" s="1" t="s">
+        <v>287</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A170" s="2" t="s">
-        <v>525</v>
-      </c>
-      <c r="B170" s="2" t="s">
-        <v>516</v>
+      <c r="A170" s="1" t="s">
+        <v>844</v>
+      </c>
+      <c r="B170" s="1" t="s">
+        <v>843</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A171" s="2" t="s">
-        <v>519</v>
-      </c>
-      <c r="B171" s="2" t="s">
-        <v>516</v>
+      <c r="A171" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="B171" s="1" t="s">
+        <v>399</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A172" s="2" t="s">
-        <v>517</v>
-      </c>
-      <c r="B172" s="2" t="s">
-        <v>516</v>
+      <c r="A172" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B172" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A173" s="1" t="s">
-        <v>446</v>
+        <v>425</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>41</v>
+        <v>381</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A174" s="1" t="s">
-        <v>447</v>
+        <v>210</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>41</v>
+        <v>208</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A175" s="1" t="s">
-        <v>198</v>
+        <v>559</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A176" s="1" t="s">
-        <v>449</v>
-      </c>
-      <c r="B176" s="7" t="s">
-        <v>41</v>
+        <v>461</v>
+      </c>
+      <c r="B176" s="1" t="s">
+        <v>456</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A177" s="1" t="s">
-        <v>450</v>
+        <v>307</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>447</v>
+        <v>306</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A178" s="1" t="s">
-        <v>448</v>
+      <c r="A178" s="2" t="s">
+        <v>435</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>447</v>
+        <v>432</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A179" s="1" t="s">
-        <v>594</v>
+        <v>537</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>7</v>
+        <v>536</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A180" s="1" t="s">
-        <v>36</v>
+        <v>192</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>7</v>
+        <v>57</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A181" s="1" t="s">
-        <v>36</v>
+      <c r="A181" s="2" t="s">
+        <v>440</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>7</v>
+        <v>432</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A182" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B182" s="1" t="s">
-        <v>7</v>
+      <c r="A182" s="2" t="s">
+        <v>523</v>
+      </c>
+      <c r="B182" s="2" t="s">
+        <v>515</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A183" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B183" s="1" t="s">
-        <v>7</v>
+      <c r="A183" s="2" t="s">
+        <v>517</v>
+      </c>
+      <c r="B183" s="2" t="s">
+        <v>515</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A184" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B184" s="1" t="s">
-        <v>7</v>
+      <c r="A184" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="B184" s="2" t="s">
+        <v>515</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A185" s="1" t="s">
-        <v>40</v>
+      <c r="A185" s="2" t="s">
+        <v>515</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>7</v>
+        <v>493</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A186" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B186" s="5" t="s">
-        <v>7</v>
+      <c r="A186" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="B186" s="11" t="s">
+        <v>515</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A187" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B187" s="5" t="s">
-        <v>7</v>
+      <c r="A187" s="2" t="s">
+        <v>521</v>
+      </c>
+      <c r="B187" s="11" t="s">
+        <v>515</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A188" s="1" t="s">
-        <v>415</v>
-      </c>
-      <c r="B188" s="5" t="s">
-        <v>7</v>
+      <c r="A188" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="B188" s="11" t="s">
+        <v>515</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A189" s="1" t="s">
-        <v>560</v>
-      </c>
-      <c r="B189" s="1" t="s">
-        <v>7</v>
+      <c r="A189" s="2" t="s">
+        <v>524</v>
+      </c>
+      <c r="B189" s="2" t="s">
+        <v>515</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A190" s="1" t="s">
-        <v>593</v>
+      <c r="A190" s="2" t="s">
+        <v>291</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>7</v>
+        <v>287</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A191" s="1" t="s">
-        <v>332</v>
+        <v>592</v>
       </c>
       <c r="B191" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A192" s="1" t="s">
-        <v>45</v>
+      <c r="A192" t="s">
+        <v>815</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>7</v>
+        <v>56</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A193" s="1" t="s">
-        <v>545</v>
+        <v>100</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>7</v>
+        <v>57</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A194" s="1" t="s">
-        <v>42</v>
+        <v>449</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>7</v>
+        <v>446</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A195" s="1" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>7</v>
+        <v>47</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A196" s="1" t="s">
-        <v>46</v>
+        <v>445</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>7</v>
+        <v>41</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A197" s="1" t="s">
-        <v>455</v>
+        <v>446</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>7</v>
+        <v>41</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A198" s="1" t="s">
-        <v>550</v>
+        <v>198</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>7</v>
+        <v>41</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A199" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="B199" s="1" t="s">
-        <v>204</v>
+        <v>198</v>
+      </c>
+      <c r="B199" s="6" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A200" s="2" t="s">
-        <v>509</v>
-      </c>
-      <c r="B200" s="2" t="s">
-        <v>508</v>
+      <c r="A200" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="B200" s="6" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A201" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="B201" s="1" t="s">
-        <v>44</v>
+      <c r="A201" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="B201" s="6" t="s">
+        <v>329</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A202" s="1" t="s">
-        <v>592</v>
+        <v>555</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>44</v>
+        <v>552</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A203" s="1" t="s">
-        <v>422</v>
+        <v>116</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A204" s="1" t="s">
-        <v>333</v>
+      <c r="A204" s="2" t="s">
+        <v>507</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>332</v>
+        <v>493</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A205" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B205" s="1" t="s">
-        <v>47</v>
+      <c r="A205" s="2" t="s">
+        <v>508</v>
+      </c>
+      <c r="B205" s="2" t="s">
+        <v>507</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A206" s="1" t="s">
-        <v>492</v>
-      </c>
-      <c r="B206" s="7" t="s">
-        <v>6</v>
+        <v>591</v>
+      </c>
+      <c r="B206" s="1" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A207" s="1" t="s">
-        <v>67</v>
+      <c r="A207" s="2" t="s">
+        <v>509</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>6</v>
+        <v>493</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A208" s="1" t="s">
-        <v>51</v>
+      <c r="A208" s="2" t="s">
+        <v>337</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>6</v>
+        <v>329</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A209" t="s">
-        <v>51</v>
-      </c>
-      <c r="B209" s="7" t="s">
-        <v>6</v>
+      <c r="A209" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="B209" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A210" s="1" t="s">
-        <v>177</v>
+        <v>221</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>6</v>
+        <v>56</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A211" s="1" t="s">
-        <v>69</v>
+        <v>580</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>6</v>
+        <v>574</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A212" s="1" t="s">
-        <v>425</v>
+        <v>233</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>6</v>
+        <v>230</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A213" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="B213" s="7" t="s">
-        <v>6</v>
+        <v>458</v>
+      </c>
+      <c r="B213" s="1" t="s">
+        <v>456</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A214" s="1" t="s">
-        <v>589</v>
+        <v>333</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>22</v>
+        <v>332</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A215" s="1" t="s">
-        <v>586</v>
+        <v>67</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A216" s="1" t="s">
-        <v>575</v>
+        <v>45</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A217" s="1" t="s">
-        <v>588</v>
+        <v>421</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>22</v>
+        <v>44</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A218" s="1" t="s">
-        <v>590</v>
+        <v>581</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>22</v>
+        <v>574</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A219" s="1" t="s">
-        <v>68</v>
+        <v>51</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A220" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B220" s="1" t="s">
-        <v>22</v>
+      <c r="A220" t="s">
+        <v>51</v>
+      </c>
+      <c r="B220" s="6" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A221" s="1" t="s">
-        <v>585</v>
+        <v>224</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>22</v>
+        <v>56</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A222" s="1" t="s">
-        <v>587</v>
+      <c r="A222" t="s">
+        <v>224</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>22</v>
+        <v>56</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A223" s="1" t="s">
-        <v>493</v>
-      </c>
-      <c r="B223" s="1" t="s">
-        <v>22</v>
+      <c r="A223" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="B223" s="2" t="s">
+        <v>526</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A224" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="B224" s="1" t="s">
-        <v>289</v>
+      <c r="A224" s="2" t="s">
+        <v>518</v>
+      </c>
+      <c r="B224" s="2" t="s">
+        <v>515</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A225" s="1" t="s">
-        <v>457</v>
-      </c>
-      <c r="B225" s="1" t="s">
-        <v>425</v>
+      <c r="A225" s="2" t="s">
+        <v>516</v>
+      </c>
+      <c r="B225" s="2" t="s">
+        <v>515</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A226" s="1" t="s">
-        <v>151</v>
+      <c r="A226" s="2" t="s">
+        <v>341</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>425</v>
+        <v>339</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A227" s="1" t="s">
-        <v>424</v>
+        <v>544</v>
       </c>
       <c r="B227" s="1" t="s">
-        <v>425</v>
+        <v>7</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A228" s="1" t="s">
-        <v>308</v>
+      <c r="A228" s="2" t="s">
+        <v>346</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>306</v>
+        <v>339</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A229" s="1" t="s">
-        <v>307</v>
+      <c r="A229" t="s">
+        <v>816</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>306</v>
+        <v>56</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A230" s="1" t="s">
-        <v>309</v>
+        <v>457</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>306</v>
+        <v>456</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A231" s="1" t="s">
-        <v>310</v>
+        <v>492</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>306</v>
+        <v>22</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A232" s="1" t="s">
-        <v>452</v>
+        <v>177</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>42</v>
+        <v>6</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A233" s="1" t="s">
-        <v>451</v>
+        <v>69</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>42</v>
+        <v>6</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A234" s="1" t="s">
-        <v>381</v>
-      </c>
-      <c r="B234" t="s">
-        <v>373</v>
+        <v>289</v>
+      </c>
+      <c r="B234" s="1" t="s">
+        <v>288</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A235" s="1" t="s">
-        <v>382</v>
-      </c>
-      <c r="B235" t="s">
-        <v>373</v>
+        <v>424</v>
+      </c>
+      <c r="B235" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A236" s="1" t="s">
-        <v>197</v>
+        <v>930</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>21</v>
+        <v>395</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A237" s="1" t="s">
-        <v>194</v>
+        <v>309</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>21</v>
+        <v>306</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A238" s="1" t="s">
-        <v>196</v>
+        <v>306</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>21</v>
+        <v>56</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A239" s="1" t="s">
-        <v>195</v>
+        <v>310</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>21</v>
+        <v>306</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A240" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="B240" s="7" t="s">
-        <v>21</v>
+      <c r="A240" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="B240" s="1" t="s">
+        <v>329</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A241" s="1" t="s">
-        <v>553</v>
+        <v>104</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>547</v>
+        <v>14</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A242" s="1" t="s">
-        <v>402</v>
+        <v>104</v>
       </c>
       <c r="B242" s="1" t="s">
-        <v>396</v>
+        <v>57</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A243" s="1" t="s">
-        <v>398</v>
+        <v>42</v>
       </c>
       <c r="B243" s="1" t="s">
-        <v>396</v>
+        <v>7</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A244" s="1" t="s">
-        <v>404</v>
+      <c r="A244" s="2" t="s">
+        <v>344</v>
       </c>
       <c r="B244" s="1" t="s">
-        <v>396</v>
+        <v>339</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A245" s="1" t="s">
-        <v>401</v>
+        <v>49</v>
       </c>
       <c r="B245" s="1" t="s">
-        <v>396</v>
+        <v>329</v>
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A246" s="1" t="s">
-        <v>397</v>
+        <v>21</v>
       </c>
       <c r="B246" s="1" t="s">
-        <v>396</v>
+        <v>7</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A247" s="1" t="s">
-        <v>400</v>
+      <c r="A247" s="2" t="s">
+        <v>436</v>
       </c>
       <c r="B247" s="1" t="s">
-        <v>396</v>
+        <v>432</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A248" s="1" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="B248" s="1" t="s">
         <v>396</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A249" s="1" t="s">
-        <v>403</v>
+      <c r="A249" s="2" t="s">
+        <v>292</v>
       </c>
       <c r="B249" s="1" t="s">
-        <v>399</v>
+        <v>287</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A250" s="1" t="s">
-        <v>408</v>
+        <v>223</v>
       </c>
       <c r="B250" s="1" t="s">
-        <v>394</v>
+        <v>56</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A251" s="1" t="s">
-        <v>413</v>
+      <c r="A251" t="s">
+        <v>223</v>
       </c>
       <c r="B251" s="1" t="s">
-        <v>412</v>
+        <v>56</v>
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A252" s="1" t="s">
-        <v>50</v>
+        <v>546</v>
       </c>
       <c r="B252" s="1" t="s">
-        <v>329</v>
+        <v>57</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A253" s="2" t="s">
-        <v>336</v>
+      <c r="A253" s="1" t="s">
+        <v>931</v>
       </c>
       <c r="B253" s="1" t="s">
-        <v>329</v>
+        <v>395</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A254" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="B254" s="7" t="s">
-        <v>329</v>
+      <c r="A254" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="B254" s="1" t="s">
+        <v>395</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A255" s="2" t="s">
-        <v>337</v>
+      <c r="A255" s="1" t="s">
+        <v>398</v>
       </c>
       <c r="B255" s="1" t="s">
-        <v>329</v>
+        <v>396</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A256" s="2" t="s">
-        <v>338</v>
+      <c r="A256" s="1" t="s">
+        <v>404</v>
       </c>
       <c r="B256" s="1" t="s">
-        <v>329</v>
+        <v>372</v>
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A257" s="1" t="s">
-        <v>49</v>
+        <v>404</v>
       </c>
       <c r="B257" s="1" t="s">
-        <v>329</v>
+        <v>396</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A258" s="1" t="s">
-        <v>334</v>
+        <v>401</v>
       </c>
       <c r="B258" s="1" t="s">
-        <v>329</v>
+        <v>396</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A259" s="2" t="s">
-        <v>435</v>
+      <c r="A259" s="1" t="s">
+        <v>397</v>
       </c>
       <c r="B259" s="1" t="s">
-        <v>433</v>
+        <v>396</v>
       </c>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A260" s="2" t="s">
-        <v>434</v>
+      <c r="A260" s="1" t="s">
+        <v>400</v>
       </c>
       <c r="B260" s="1" t="s">
-        <v>433</v>
+        <v>396</v>
       </c>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A261" s="2" t="s">
-        <v>439</v>
+      <c r="A261" s="1" t="s">
+        <v>399</v>
       </c>
       <c r="B261" s="1" t="s">
-        <v>433</v>
+        <v>396</v>
       </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A262" s="2" t="s">
-        <v>436</v>
+      <c r="A262" s="1" t="s">
+        <v>394</v>
       </c>
       <c r="B262" s="1" t="s">
-        <v>433</v>
+        <v>33</v>
       </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A263" s="2" t="s">
-        <v>441</v>
+      <c r="A263" s="1" t="s">
+        <v>408</v>
       </c>
       <c r="B263" s="1" t="s">
-        <v>433</v>
+        <v>394</v>
       </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A264" s="2" t="s">
-        <v>437</v>
+      <c r="A264" s="1" t="s">
+        <v>992</v>
       </c>
       <c r="B264" s="1" t="s">
-        <v>433</v>
+        <v>413</v>
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A265" s="2" t="s">
-        <v>440</v>
+      <c r="A265" s="1" t="s">
+        <v>412</v>
       </c>
       <c r="B265" s="1" t="s">
-        <v>433</v>
+        <v>992</v>
       </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A266" s="2" t="s">
-        <v>438</v>
+      <c r="A266" s="1" t="s">
+        <v>211</v>
       </c>
       <c r="B266" s="1" t="s">
-        <v>433</v>
+        <v>208</v>
       </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A267" s="1" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B267" s="1" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A268" s="1" t="s">
-        <v>454</v>
+      <c r="A268" s="2" t="s">
+        <v>506</v>
       </c>
       <c r="B268" s="1" t="s">
-        <v>46</v>
+        <v>495</v>
       </c>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A269" s="1" t="s">
-        <v>353</v>
+        <v>334</v>
       </c>
       <c r="B269" s="1" t="s">
-        <v>234</v>
+        <v>329</v>
       </c>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A270" s="1" t="s">
-        <v>352</v>
+      <c r="A270" s="2" t="s">
+        <v>439</v>
       </c>
       <c r="B270" s="1" t="s">
-        <v>234</v>
+        <v>432</v>
       </c>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A271" s="1" t="s">
-        <v>351</v>
+      <c r="A271" s="2" t="s">
+        <v>437</v>
       </c>
       <c r="B271" s="1" t="s">
-        <v>234</v>
+        <v>432</v>
       </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A272" s="1" t="s">
-        <v>349</v>
+        <v>46</v>
       </c>
       <c r="B272" s="1" t="s">
-        <v>234</v>
+        <v>7</v>
       </c>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A273" s="1" t="s">
-        <v>348</v>
+        <v>454</v>
       </c>
       <c r="B273" s="1" t="s">
-        <v>234</v>
+        <v>7</v>
       </c>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A274" s="1" t="s">
-        <v>350</v>
+        <v>453</v>
       </c>
       <c r="B274" s="1" t="s">
-        <v>234</v>
+        <v>46</v>
       </c>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A275" s="1" t="s">
-        <v>230</v>
+        <v>549</v>
       </c>
       <c r="B275" s="1" t="s">
-        <v>234</v>
+        <v>7</v>
       </c>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A276" s="1" t="s">
-        <v>229</v>
+      <c r="A276" s="2" t="s">
+        <v>513</v>
       </c>
       <c r="B276" s="1" t="s">
-        <v>234</v>
+        <v>493</v>
       </c>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A277" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="B277" s="1" t="s">
         <v>234</v>
+      </c>
+      <c r="B277" s="6" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A278" s="1" t="s">
-        <v>232</v>
+        <v>352</v>
       </c>
       <c r="B278" s="1" t="s">
         <v>234</v>
@@ -7777,106 +7808,114 @@
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A279" s="1" t="s">
-        <v>252</v>
+        <v>351</v>
       </c>
       <c r="B279" s="1" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A280" s="1" t="s">
-        <v>233</v>
+        <v>349</v>
       </c>
       <c r="B280" s="1" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A281" s="1" t="s">
-        <v>235</v>
+        <v>348</v>
       </c>
       <c r="B281" s="1" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A282" s="1" t="s">
-        <v>845</v>
+        <v>350</v>
       </c>
       <c r="B282" s="1" t="s">
-        <v>844</v>
+        <v>234</v>
       </c>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A283" s="1" t="s">
-        <v>846</v>
+        <v>230</v>
       </c>
       <c r="B283" s="1" t="s">
-        <v>845</v>
+        <v>234</v>
       </c>
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A284" s="1" t="s">
-        <v>847</v>
+        <v>229</v>
       </c>
       <c r="B284" s="1" t="s">
-        <v>845</v>
+        <v>234</v>
       </c>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A285" s="1" t="s">
-        <v>848</v>
+        <v>231</v>
       </c>
       <c r="B285" s="1" t="s">
-        <v>844</v>
+        <v>234</v>
       </c>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A286" s="1" t="s">
-        <v>852</v>
+        <v>232</v>
       </c>
       <c r="B286" s="1" t="s">
-        <v>844</v>
+        <v>234</v>
       </c>
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A287" s="1" t="s">
-        <v>849</v>
+        <v>54</v>
       </c>
       <c r="B287" s="1" t="s">
-        <v>844</v>
+        <v>395</v>
       </c>
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A288" s="1" t="s">
-        <v>851</v>
+      <c r="A288" s="2" t="s">
+        <v>502</v>
       </c>
       <c r="B288" s="1" t="s">
-        <v>844</v>
+        <v>495</v>
       </c>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A289" s="1" t="s">
-        <v>850</v>
+      <c r="A289" s="2" t="s">
+        <v>502</v>
       </c>
       <c r="B289" s="1" t="s">
-        <v>844</v>
+        <v>340</v>
       </c>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A290" s="1" t="s">
-        <v>931</v>
+        <v>846</v>
       </c>
       <c r="B290" s="1" t="s">
-        <v>395</v>
+        <v>844</v>
       </c>
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A291" s="1" t="s">
-        <v>932</v>
+        <v>447</v>
       </c>
       <c r="B291" s="1" t="s">
-        <v>395</v>
+        <v>446</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A292" s="1" t="s">
+        <v>991</v>
+      </c>
+      <c r="B292" s="1" t="s">
+        <v>339</v>
       </c>
     </row>
   </sheetData>
@@ -7942,18 +7981,18 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
@@ -8005,7 +8044,7 @@
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" s="7" t="s">
+      <c r="A14" s="6" t="s">
         <v>273</v>
       </c>
       <c r="B14" s="1" t="s">
@@ -8022,10 +8061,10 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
@@ -8038,10 +8077,10 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
@@ -8078,10 +8117,10 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
@@ -8102,23 +8141,23 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>405</v>
@@ -8126,7 +8165,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>24</v>
@@ -8134,10 +8173,10 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
@@ -8158,15 +8197,15 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>298</v>
@@ -8182,26 +8221,26 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
@@ -8238,10 +8277,10 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
@@ -8262,7 +8301,7 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>405</v>
@@ -8278,26 +8317,26 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
@@ -8326,7 +8365,7 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>24</v>
@@ -8334,7 +8373,7 @@
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>24</v>
@@ -8342,7 +8381,7 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>24</v>
@@ -8350,15 +8389,15 @@
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>9</v>
@@ -8366,10 +8405,10 @@
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
@@ -8382,7 +8421,7 @@
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>298</v>
@@ -8390,7 +8429,7 @@
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B62" s="3" t="s">
         <v>405</v>
@@ -8398,7 +8437,7 @@
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>44</v>
@@ -8477,15 +8516,15 @@
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A73" s="6" t="s">
-        <v>591</v>
+      <c r="A73" s="5" t="s">
+        <v>590</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A74" s="6" t="s">
+      <c r="A74" s="5" t="s">
         <v>172</v>
       </c>
       <c r="B74" s="1" t="s">
@@ -8494,15 +8533,15 @@
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B76" s="1" t="s">
         <v>9</v>
@@ -8518,10 +8557,10 @@
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
@@ -8630,7 +8669,7 @@
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="B92" s="1" t="s">
         <v>9</v>
@@ -8678,7 +8717,7 @@
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B98" s="1" t="s">
         <v>24</v>
@@ -8686,7 +8725,7 @@
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="B99" s="1" t="s">
         <v>24</v>
@@ -8702,7 +8741,7 @@
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B101" s="1" t="s">
         <v>276</v>
@@ -8710,7 +8749,7 @@
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="B102" s="1" t="s">
         <v>9</v>
@@ -8758,7 +8797,7 @@
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B108" s="1" t="s">
         <v>131</v>
@@ -8773,7 +8812,7 @@
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A110" s="7" t="s">
+      <c r="A110" s="6" t="s">
         <v>272</v>
       </c>
       <c r="B110" s="1" t="s">
@@ -8790,7 +8829,7 @@
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="B112" s="1" t="s">
         <v>10</v>
@@ -8816,7 +8855,7 @@
       <c r="A115" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="B115" s="6" t="s">
+      <c r="B115" s="5" t="s">
         <v>171</v>
       </c>
     </row>
@@ -8830,7 +8869,7 @@
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B117" s="1" t="s">
         <v>408</v>
@@ -8838,7 +8877,7 @@
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B118" s="1" t="s">
         <v>405</v>
@@ -8886,7 +8925,7 @@
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B124" s="1" t="s">
         <v>9</v>
@@ -9014,7 +9053,7 @@
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B140" s="1" t="s">
         <v>10</v>
@@ -9030,7 +9069,7 @@
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="B142" s="1" t="s">
         <v>298</v>
@@ -9086,15 +9125,15 @@
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A149" s="2" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A150" s="1" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B150" s="1" t="s">
         <v>9</v>
@@ -9110,23 +9149,23 @@
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A152" s="1" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A153" s="9" t="s">
+      <c r="A153" s="8" t="s">
         <v>405</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A154" s="1" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="B154" s="1" t="s">
         <v>9</v>
@@ -9134,7 +9173,7 @@
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A155" s="1" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="B155" s="1" t="s">
         <v>9</v>
@@ -9142,15 +9181,15 @@
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A156" s="1" t="s">
+        <v>937</v>
+      </c>
+      <c r="B156" s="1" t="s">
         <v>938</v>
-      </c>
-      <c r="B156" s="1" t="s">
-        <v>939</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A157" s="1" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="B157" s="1" t="s">
         <v>9</v>
@@ -9158,7 +9197,7 @@
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A158" s="1" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="B158" s="1" t="s">
         <v>9</v>
@@ -9182,7 +9221,7 @@
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A161" s="1" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="B161" s="1" t="s">
         <v>321</v>
@@ -9198,7 +9237,7 @@
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A163" s="1" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="B163" s="1" t="s">
         <v>321</v>
@@ -9206,7 +9245,7 @@
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A164" s="1" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="B164" s="1" t="s">
         <v>321</v>
@@ -9214,7 +9253,7 @@
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A165" s="1" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="B165" s="1" t="s">
         <v>9</v>
@@ -9222,7 +9261,7 @@
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A166" s="1" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="B166" s="1" t="s">
         <v>9</v>
@@ -9230,7 +9269,7 @@
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A167" s="1" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="B167" s="1" t="s">
         <v>9</v>
@@ -9238,7 +9277,7 @@
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A168" s="1" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="B168" s="1" t="s">
         <v>9</v>
@@ -9246,15 +9285,15 @@
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A169" s="1" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A170" s="1" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="B170" s="1" t="s">
         <v>298</v>
@@ -9262,7 +9301,7 @@
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A171" s="1" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="B171" s="1" t="s">
         <v>298</v>
@@ -9270,7 +9309,7 @@
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A172" s="1" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="B172" s="1" t="s">
         <v>405</v>
@@ -9278,7 +9317,7 @@
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A173" s="1" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="B173" s="1" t="s">
         <v>9</v>
@@ -9286,31 +9325,31 @@
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A174" s="1" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A175" s="1" t="s">
+        <v>953</v>
+      </c>
+      <c r="B175" s="1" t="s">
         <v>954</v>
-      </c>
-      <c r="B175" s="1" t="s">
-        <v>955</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A176" s="1" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A177" s="1" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="B177" s="1" t="s">
         <v>166</v>
@@ -9326,26 +9365,26 @@
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A179" s="1" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A180" s="1" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A181" s="1" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.2">
@@ -9358,7 +9397,7 @@
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A183" s="1" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="B183" s="1" t="s">
         <v>162</v>
@@ -9366,7 +9405,7 @@
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A184" s="1" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="B184" s="1" t="s">
         <v>9</v>
@@ -9374,143 +9413,143 @@
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A185" s="1" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A186" s="1" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A187" s="1" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A188" s="1" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A189" s="1" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A190" s="1" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A191" s="1" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A192" s="1" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A193" s="1" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A194" s="1" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A195" s="1" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A196" s="1" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A197" s="1" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A198" s="1" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A199" s="1" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A200" s="1" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A201" s="1" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A202" s="1" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="B202" s="1" t="s">
         <v>9</v>
@@ -9518,47 +9557,47 @@
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A203" s="1" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A204" s="1" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A205" s="1" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A206" s="1" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A207" s="1" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A208" s="1" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="B208" s="1" t="s">
         <v>9</v>
@@ -9566,7 +9605,7 @@
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A209" s="1" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="B209" s="1" t="s">
         <v>298</v>
@@ -9586,10 +9625,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60AB18F8-3BFD-6745-86FB-84FE740E519C}">
-  <dimension ref="A1:B120"/>
+  <dimension ref="A1:B122"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView topLeftCell="A111" workbookViewId="0">
+      <selection activeCell="B123" sqref="B123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9647,7 +9686,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="B7" t="s">
         <v>12</v>
@@ -9730,407 +9769,407 @@
         <v>227</v>
       </c>
       <c r="B17" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="B18" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="B19" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B20" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="B21" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B22" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="B23" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B24" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B25" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B26" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="B27" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="B28" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="B29" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B30" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B31" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="B32" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B33" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="B34" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="B35" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="B36" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="B37" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="B38" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B39" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="B40" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="B41" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
+        <v>618</v>
+      </c>
+      <c r="B42" t="s">
         <v>619</v>
-      </c>
-      <c r="B42" t="s">
-        <v>620</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="B43" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B44" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="B45" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="B46" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="B47" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="B48" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="B49" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B50" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="B51" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="B52" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="B53" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="B54" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="B55" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="B56" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="B57" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B58" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="B59" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="B60" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="B61" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="B62" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="B63" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="B64" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="B65" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="B66" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="B67" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
@@ -10138,348 +10177,348 @@
         <v>171</v>
       </c>
       <c r="B68" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="B69" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
+        <v>636</v>
+      </c>
+      <c r="B70" t="s">
         <v>637</v>
-      </c>
-      <c r="B70" t="s">
-        <v>638</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="B71" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="B72" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="B73" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="B74" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="B75" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="B76" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="B77" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="B78" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="B79" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="B80" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="B81" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="B82" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="B83" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="B84" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="B85" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="B86" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B87" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="B88" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="B89" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="B90" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="B91" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="B92" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="B93" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="B94" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="B95" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="B96" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="B97" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="B98" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="B99" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="B100" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="B101" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="B102" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="B103" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="B104" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="B105" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="B106" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="B107" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="B108" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="B109" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="B110" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="B111" t="s">
         <v>287</v>
@@ -10487,55 +10526,55 @@
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="B112" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="B113" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="B114" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="B115" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="B116" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="B117" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="B118" t="s">
         <v>12</v>
@@ -10543,18 +10582,34 @@
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="B119" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="B120" t="s">
-        <v>841</v>
+        <v>840</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A121" t="s">
+        <v>987</v>
+      </c>
+      <c r="B121" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A122" t="s">
+        <v>990</v>
+      </c>
+      <c r="B122" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -10588,82 +10643,82 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="B2" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="B3" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="B4" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>791</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>784</v>
+        <v>790</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>783</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>794</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>784</v>
+        <v>793</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>783</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="B7" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
+        <v>788</v>
+      </c>
+      <c r="B8" t="s">
         <v>789</v>
-      </c>
-      <c r="B8" t="s">
-        <v>790</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="B9" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="B10" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="B11" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
@@ -10732,186 +10787,186 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="B20" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="B21" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="B22" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="B23" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="B24" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="B25" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="B26" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="B27" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="B28" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="B29" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="B30" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="B31" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="B32" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="B33" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="B34" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
+        <v>810</v>
+      </c>
+      <c r="B35" t="s">
         <v>811</v>
-      </c>
-      <c r="B35" t="s">
-        <v>812</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="B36" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="B37" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="B38" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="B39" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="B40" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="B41" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
+        <v>768</v>
+      </c>
+      <c r="B42" t="s">
         <v>769</v>
-      </c>
-      <c r="B42" t="s">
-        <v>770</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
@@ -10924,135 +10979,135 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="B44" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="B45" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="B46" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="B47" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B48" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="B49" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>769</v>
-      </c>
-      <c r="B50" s="8" t="s">
-        <v>494</v>
+        <v>768</v>
+      </c>
+      <c r="B50" s="7" t="s">
+        <v>493</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="B51" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="B52" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>510</v>
-      </c>
-      <c r="B53" s="8" t="s">
-        <v>494</v>
+        <v>509</v>
+      </c>
+      <c r="B53" s="7" t="s">
+        <v>493</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B54" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B55" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B56" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B57" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="B58" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="B59" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B60" t="s">
         <v>30</v>
@@ -11060,119 +11115,119 @@
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
+        <v>706</v>
+      </c>
+      <c r="B61" t="s">
         <v>707</v>
-      </c>
-      <c r="B61" t="s">
-        <v>708</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="B62" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="B63" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B64" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B65" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B66" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B67" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="B68" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B69" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B70" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B71" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="B72" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="B73" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B74" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="B75" t="s">
         <v>372</v>
@@ -11180,130 +11235,130 @@
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="B76" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="B77" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="B78" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="B79" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B80" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="B81" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="B82" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="B83" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="B84" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>783</v>
-      </c>
-      <c r="B85" s="10" t="s">
-        <v>695</v>
+        <v>782</v>
+      </c>
+      <c r="B85" s="9" t="s">
+        <v>694</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="B86" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A87" s="8" t="s">
-        <v>725</v>
+      <c r="A87" s="7" t="s">
+        <v>724</v>
       </c>
       <c r="B87" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="B88" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>703</v>
-      </c>
-      <c r="B89" s="8" t="s">
-        <v>695</v>
+        <v>702</v>
+      </c>
+      <c r="B89" s="7" t="s">
+        <v>694</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>704</v>
-      </c>
-      <c r="B90" s="8" t="s">
-        <v>695</v>
+        <v>703</v>
+      </c>
+      <c r="B90" s="7" t="s">
+        <v>694</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>705</v>
-      </c>
-      <c r="B91" s="8" t="s">
-        <v>695</v>
+        <v>704</v>
+      </c>
+      <c r="B91" s="7" t="s">
+        <v>694</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.2">
@@ -11311,207 +11366,207 @@
         <v>350</v>
       </c>
       <c r="B92" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="B93" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="B94" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="B95" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="B96" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="B97" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="B98" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="B99" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="B100" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="B101" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="B102" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="B103" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="B104" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A105" s="10" t="s">
+      <c r="A105" s="9" t="s">
+        <v>723</v>
+      </c>
+      <c r="B105" t="s">
         <v>724</v>
-      </c>
-      <c r="B105" t="s">
-        <v>725</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="B106" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B107" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="B108" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="B109" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="B110" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="B111" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="B113" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>778</v>
-      </c>
-      <c r="B114" s="10" t="s">
-        <v>724</v>
+        <v>777</v>
+      </c>
+      <c r="B114" s="9" t="s">
+        <v>723</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>779</v>
-      </c>
-      <c r="B115" s="10" t="s">
-        <v>724</v>
+        <v>778</v>
+      </c>
+      <c r="B115" s="9" t="s">
+        <v>723</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="B116" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.2">
@@ -11540,7 +11595,7 @@
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="B121" t="s">
         <v>339</v>
@@ -11548,7 +11603,7 @@
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="B122" t="s">
         <v>339</v>
@@ -11556,7 +11611,7 @@
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="B123" t="s">
         <v>339</v>
@@ -11564,159 +11619,159 @@
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
+        <v>769</v>
+      </c>
+      <c r="B124" t="s">
         <v>770</v>
-      </c>
-      <c r="B124" t="s">
-        <v>771</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="B125" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="B126" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="B127" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="B128" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="B129" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="B130" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="B131" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="B132" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="B133" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="B134" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
+        <v>767</v>
+      </c>
+      <c r="B135" t="s">
         <v>768</v>
-      </c>
-      <c r="B135" t="s">
-        <v>769</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="B136" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="B138" s="3" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="B139" s="3" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="B140" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="B141" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="B142" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B143" t="s">
         <v>22</v>
@@ -11724,39 +11779,39 @@
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="B144" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="B145" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="B146" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="B147" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="B148" t="s">
         <v>11</v>
@@ -11764,498 +11819,498 @@
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="B149" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="B150" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="B151" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="B152" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="B153" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="B154" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="B155" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="B156" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="B157" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B158" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="B159" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="B160" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="B161" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="B162" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="B163" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="B164" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="B165" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="B166" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="B167" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="B168" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="B169" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="B170" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="B171" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="B172" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="B173" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="B174" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="B175" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B176" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="B177" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="B178" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="B179" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="B180" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="B181" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
+        <v>831</v>
+      </c>
+      <c r="B182" t="s">
         <v>832</v>
-      </c>
-      <c r="B182" t="s">
-        <v>833</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="B183" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="B184" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="B185" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="B186" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="B187" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B188" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="B189" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A190" s="2" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="B190" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A191" s="2" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="B191" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A192" s="2" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="B192" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A193" s="2" t="s">
+        <v>861</v>
+      </c>
+      <c r="B193" t="s">
         <v>862</v>
-      </c>
-      <c r="B193" t="s">
-        <v>863</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A194" s="2" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="B194" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A195" s="2" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="B195" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A196" s="2" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="B196" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A197" s="2" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="B197" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A198" s="2" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="B198" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A199" s="2" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="B199" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="B200" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="B201" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="B202" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="B203" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="B204" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="B205" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="B206" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="B207" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="B208" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="B209" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="B210" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.2">
@@ -12263,7 +12318,7 @@
         <v>211</v>
       </c>
       <c r="B211" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.2">
@@ -12271,7 +12326,7 @@
         <v>318</v>
       </c>
       <c r="B212" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.2">
@@ -12279,7 +12334,7 @@
         <v>316</v>
       </c>
       <c r="B213" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.2">
@@ -12287,7 +12342,7 @@
         <v>315</v>
       </c>
       <c r="B214" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.2">
@@ -12295,7 +12350,7 @@
         <v>317</v>
       </c>
       <c r="B215" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.2">
@@ -12303,7 +12358,7 @@
         <v>319</v>
       </c>
       <c r="B216" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.2">
@@ -12311,567 +12366,567 @@
         <v>320</v>
       </c>
       <c r="B217" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="B218" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="B219" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
-        <v>881</v>
-      </c>
-      <c r="B220" s="9" t="s">
-        <v>876</v>
+        <v>880</v>
+      </c>
+      <c r="B220" s="8" t="s">
+        <v>875</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="B221" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
-        <v>883</v>
-      </c>
-      <c r="B222" s="9" t="s">
-        <v>876</v>
+        <v>882</v>
+      </c>
+      <c r="B222" s="8" t="s">
+        <v>875</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
-        <v>884</v>
-      </c>
-      <c r="B223" s="9" t="s">
-        <v>876</v>
+        <v>883</v>
+      </c>
+      <c r="B223" s="8" t="s">
+        <v>875</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
-        <v>877</v>
-      </c>
-      <c r="B224" s="9" t="s">
         <v>876</v>
+      </c>
+      <c r="B224" s="8" t="s">
+        <v>875</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
-        <v>878</v>
-      </c>
-      <c r="B225" s="9" t="s">
-        <v>876</v>
+        <v>877</v>
+      </c>
+      <c r="B225" s="8" t="s">
+        <v>875</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
-        <v>879</v>
-      </c>
-      <c r="B226" s="9" t="s">
-        <v>876</v>
+        <v>878</v>
+      </c>
+      <c r="B226" s="8" t="s">
+        <v>875</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
-        <v>885</v>
-      </c>
-      <c r="B227" s="9" t="s">
-        <v>876</v>
+        <v>884</v>
+      </c>
+      <c r="B227" s="8" t="s">
+        <v>875</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
-        <v>880</v>
-      </c>
-      <c r="B228" s="9" t="s">
-        <v>876</v>
+        <v>879</v>
+      </c>
+      <c r="B228" s="8" t="s">
+        <v>875</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="B229" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="B230" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="B231" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="B232" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="B233" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="B234" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="B235" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="B236" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="B237" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="B238" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="B239" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="B240" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="B241" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="B242" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="B243" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="B244" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="B245" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="B246" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="B247" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="B248" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="B249" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="B250" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="B251" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="B252" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="B253" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="B254" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="B255" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="B256" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="B257" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="B258" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="B259" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="B260" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="B261" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="B262" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="B263" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="B264" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="B265" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="B266" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="B267" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
-        <v>920</v>
-      </c>
-      <c r="B268" s="9" t="s">
         <v>919</v>
+      </c>
+      <c r="B268" s="8" t="s">
+        <v>918</v>
       </c>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
-        <v>921</v>
-      </c>
-      <c r="B269" s="9" t="s">
-        <v>919</v>
+        <v>920</v>
+      </c>
+      <c r="B269" s="8" t="s">
+        <v>918</v>
       </c>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B270" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="B271" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B272" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B273" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B274" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B275" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B276" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B277" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="B278" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="B279" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="B280" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="B281" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="B282" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="B283" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="B284" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="B285" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="B286" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
-        <v>516</v>
-      </c>
-      <c r="B287" s="11" t="s">
-        <v>930</v>
+        <v>515</v>
+      </c>
+      <c r="B287" s="10" t="s">
+        <v>929</v>
       </c>
     </row>
   </sheetData>

--- a/skills/Digital Skills.xlsx
+++ b/skills/Digital Skills.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/binxuan/Desktop/Projects/Skills Ontology/skills/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kongbinxuan/Desktop/skills-onthology-project/skills/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93D84848-803F-0842-A18A-18291B95D482}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DE92625-3DA1-D64F-9959-DC29D491D5C0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10800" yWindow="460" windowWidth="18000" windowHeight="16140" activeTab="2" xr2:uid="{273D56F0-60F4-7D4D-B74A-F5CA8C152A80}"/>
+    <workbookView xWindow="10800" yWindow="460" windowWidth="18000" windowHeight="16140" activeTab="1" xr2:uid="{273D56F0-60F4-7D4D-B74A-F5CA8C152A80}"/>
   </bookViews>
   <sheets>
     <sheet name="Base" sheetId="1" r:id="rId1"/>
@@ -3095,7 +3095,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3106,7 +3106,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -3288,8 +3287,8 @@
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{27EF683E-E617-FC45-A9F4-3737C17AF3B3}" name="Table13456" displayName="Table13456" ref="A1:B122" totalsRowShown="0">
   <autoFilter ref="A1:B122" xr:uid="{70E2AE85-8354-604E-A8F5-BA1E0909D1D5}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B17">
-    <sortCondition ref="B1:B17"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B122">
+    <sortCondition ref="A1:A122"/>
   </sortState>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{4D657AA0-93DD-2941-AE44-71A11F855079}" name="Skill"/>
@@ -3302,8 +3301,8 @@
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{387527DB-FE19-FC4D-ABB5-906E37E52660}" name="Table134567" displayName="Table134567" ref="A1:B287" totalsRowShown="0">
   <autoFilter ref="A1:B287" xr:uid="{70E2AE85-8354-604E-A8F5-BA1E0909D1D5}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B163">
-    <sortCondition ref="B1:B163"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B287">
+    <sortCondition ref="A1:A287"/>
   </sortState>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{83C7801B-251E-164F-8C5A-E2D83147F54D}" name="Skill"/>
@@ -4192,8 +4191,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC568B44-548B-D74F-B49B-DF829991C980}">
   <dimension ref="A1:B170"/>
   <sheetViews>
-    <sheetView topLeftCell="A90" workbookViewId="0">
-      <selection activeCell="A171" sqref="A171"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5573,7 +5572,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC367FE4-F21A-4B4E-A4D6-C29EEEBA6A4D}">
   <dimension ref="A1:B292"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A241" workbookViewId="0">
+    <sheetView topLeftCell="A35" workbookViewId="0">
       <selection activeCell="B265" sqref="B265"/>
     </sheetView>
   </sheetViews>
@@ -7066,7 +7065,7 @@
       <c r="A186" s="2" t="s">
         <v>519</v>
       </c>
-      <c r="B186" s="11" t="s">
+      <c r="B186" s="10" t="s">
         <v>515</v>
       </c>
     </row>
@@ -7074,7 +7073,7 @@
       <c r="A187" s="2" t="s">
         <v>521</v>
       </c>
-      <c r="B187" s="11" t="s">
+      <c r="B187" s="10" t="s">
         <v>515</v>
       </c>
     </row>
@@ -7082,7 +7081,7 @@
       <c r="A188" s="2" t="s">
         <v>520</v>
       </c>
-      <c r="B188" s="11" t="s">
+      <c r="B188" s="10" t="s">
         <v>515</v>
       </c>
     </row>
@@ -9627,7 +9626,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60AB18F8-3BFD-6745-86FB-84FE740E519C}">
   <dimension ref="A1:B122"/>
   <sheetViews>
-    <sheetView topLeftCell="A111" workbookViewId="0">
+    <sheetView topLeftCell="A6" workbookViewId="0">
       <selection activeCell="B123" sqref="B123"/>
     </sheetView>
   </sheetViews>
@@ -9646,407 +9645,407 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>177</v>
+        <v>671</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>618</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>178</v>
+        <v>662</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>637</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>181</v>
+        <v>227</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>986</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>182</v>
+        <v>613</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>612</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>184</v>
+        <v>672</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>618</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>986</v>
+        <v>669</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>637</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>264</v>
+        <v>842</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>840</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>179</v>
+        <v>673</v>
       </c>
       <c r="B9" t="s">
-        <v>178</v>
+        <v>618</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>180</v>
+        <v>625</v>
       </c>
       <c r="B10" t="s">
-        <v>178</v>
+        <v>637</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>183</v>
+        <v>622</v>
       </c>
       <c r="B11" t="s">
-        <v>178</v>
+        <v>621</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>185</v>
+        <v>637</v>
       </c>
       <c r="B12" t="s">
-        <v>178</v>
+        <v>622</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>265</v>
+        <v>626</v>
       </c>
       <c r="B13" t="s">
-        <v>264</v>
+        <v>637</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>266</v>
+        <v>627</v>
       </c>
       <c r="B14" t="s">
-        <v>264</v>
+        <v>637</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>187</v>
+        <v>621</v>
       </c>
       <c r="B15" t="s">
-        <v>186</v>
+        <v>618</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>186</v>
+        <v>674</v>
       </c>
       <c r="B16" t="s">
-        <v>179</v>
+        <v>618</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>227</v>
+        <v>628</v>
       </c>
       <c r="B17" t="s">
-        <v>986</v>
+        <v>637</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>597</v>
+        <v>182</v>
       </c>
       <c r="B18" t="s">
-        <v>596</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>598</v>
+        <v>181</v>
       </c>
       <c r="B19" t="s">
-        <v>597</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>599</v>
+        <v>178</v>
       </c>
       <c r="B20" t="s">
-        <v>597</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>600</v>
+        <v>986</v>
       </c>
       <c r="B21" t="s">
-        <v>597</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>601</v>
+        <v>264</v>
       </c>
       <c r="B22" t="s">
-        <v>597</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>602</v>
+        <v>266</v>
       </c>
       <c r="B23" t="s">
-        <v>597</v>
+        <v>264</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>605</v>
+        <v>265</v>
       </c>
       <c r="B24" t="s">
-        <v>602</v>
+        <v>264</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>604</v>
+        <v>675</v>
       </c>
       <c r="B25" t="s">
-        <v>602</v>
+        <v>618</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>603</v>
+        <v>668</v>
       </c>
       <c r="B26" t="s">
-        <v>602</v>
+        <v>637</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>606</v>
+        <v>667</v>
       </c>
       <c r="B27" t="s">
-        <v>596</v>
+        <v>637</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>607</v>
+        <v>657</v>
       </c>
       <c r="B28" t="s">
-        <v>606</v>
+        <v>638</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>610</v>
+        <v>639</v>
       </c>
       <c r="B29" t="s">
-        <v>606</v>
+        <v>638</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>608</v>
+        <v>692</v>
       </c>
       <c r="B30" t="s">
-        <v>606</v>
+        <v>689</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>609</v>
+        <v>617</v>
       </c>
       <c r="B31" t="s">
-        <v>606</v>
+        <v>615</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>611</v>
+        <v>186</v>
       </c>
       <c r="B32" t="s">
-        <v>606</v>
+        <v>179</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>612</v>
+        <v>187</v>
       </c>
       <c r="B33" t="s">
-        <v>596</v>
+        <v>186</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>613</v>
+        <v>605</v>
       </c>
       <c r="B34" t="s">
-        <v>612</v>
+        <v>602</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>614</v>
+        <v>604</v>
       </c>
       <c r="B35" t="s">
-        <v>612</v>
+        <v>602</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>615</v>
+        <v>656</v>
       </c>
       <c r="B36" t="s">
-        <v>612</v>
+        <v>647</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>616</v>
+        <v>602</v>
       </c>
       <c r="B37" t="s">
-        <v>615</v>
+        <v>597</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>617</v>
+        <v>648</v>
       </c>
       <c r="B38" t="s">
-        <v>615</v>
+        <v>647</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>495</v>
+        <v>603</v>
       </c>
       <c r="B39" t="s">
-        <v>615</v>
+        <v>602</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>619</v>
+        <v>609</v>
       </c>
       <c r="B40" t="s">
-        <v>596</v>
+        <v>606</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>620</v>
+        <v>676</v>
       </c>
       <c r="B41" t="s">
-        <v>596</v>
+        <v>618</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>618</v>
+        <v>185</v>
       </c>
       <c r="B42" t="s">
-        <v>619</v>
+        <v>178</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>621</v>
+        <v>495</v>
       </c>
       <c r="B43" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>622</v>
+        <v>629</v>
       </c>
       <c r="B44" t="s">
-        <v>621</v>
+        <v>637</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>623</v>
+        <v>630</v>
       </c>
       <c r="B45" t="s">
-        <v>621</v>
+        <v>637</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>624</v>
+        <v>610</v>
       </c>
       <c r="B46" t="s">
-        <v>621</v>
+        <v>606</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>669</v>
+        <v>623</v>
       </c>
       <c r="B47" t="s">
-        <v>637</v>
+        <v>621</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>625</v>
+        <v>638</v>
       </c>
       <c r="B48" t="s">
-        <v>637</v>
+        <v>623</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>626</v>
+        <v>608</v>
       </c>
       <c r="B49" t="s">
-        <v>637</v>
+        <v>606</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>627</v>
+        <v>649</v>
       </c>
       <c r="B50" t="s">
-        <v>637</v>
+        <v>647</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>670</v>
+        <v>640</v>
       </c>
       <c r="B51" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>628</v>
+        <v>670</v>
       </c>
       <c r="B52" t="s">
         <v>637</v>
@@ -10054,143 +10053,143 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>668</v>
+        <v>179</v>
       </c>
       <c r="B53" t="s">
-        <v>637</v>
+        <v>178</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>667</v>
+        <v>841</v>
       </c>
       <c r="B54" t="s">
-        <v>637</v>
+        <v>840</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>666</v>
+        <v>616</v>
       </c>
       <c r="B55" t="s">
-        <v>637</v>
+        <v>615</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>629</v>
+        <v>615</v>
       </c>
       <c r="B56" t="s">
-        <v>637</v>
+        <v>612</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>630</v>
+        <v>183</v>
       </c>
       <c r="B57" t="s">
-        <v>637</v>
+        <v>178</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>631</v>
+        <v>650</v>
       </c>
       <c r="B58" t="s">
-        <v>637</v>
+        <v>647</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>632</v>
+        <v>987</v>
       </c>
       <c r="B59" t="s">
-        <v>637</v>
+        <v>12</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>665</v>
+        <v>620</v>
       </c>
       <c r="B60" t="s">
-        <v>637</v>
+        <v>596</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>664</v>
+        <v>677</v>
       </c>
       <c r="B61" t="s">
-        <v>637</v>
+        <v>618</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>633</v>
+        <v>599</v>
       </c>
       <c r="B62" t="s">
-        <v>637</v>
+        <v>597</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>663</v>
+        <v>641</v>
       </c>
       <c r="B63" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>662</v>
+        <v>651</v>
       </c>
       <c r="B64" t="s">
-        <v>637</v>
+        <v>647</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>634</v>
+        <v>840</v>
       </c>
       <c r="B65" t="s">
-        <v>637</v>
+        <v>12</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>635</v>
+        <v>678</v>
       </c>
       <c r="B66" t="s">
-        <v>637</v>
+        <v>618</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>661</v>
+        <v>606</v>
       </c>
       <c r="B67" t="s">
-        <v>637</v>
+        <v>596</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>171</v>
+        <v>679</v>
       </c>
       <c r="B68" t="s">
-        <v>637</v>
+        <v>618</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>660</v>
+        <v>680</v>
       </c>
       <c r="B69" t="s">
-        <v>637</v>
+        <v>618</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>636</v>
+        <v>631</v>
       </c>
       <c r="B70" t="s">
         <v>637</v>
@@ -10198,7 +10197,7 @@
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>659</v>
+        <v>666</v>
       </c>
       <c r="B71" t="s">
         <v>637</v>
@@ -10206,159 +10205,159 @@
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>658</v>
+        <v>601</v>
       </c>
       <c r="B72" t="s">
-        <v>637</v>
+        <v>597</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>637</v>
+        <v>652</v>
       </c>
       <c r="B73" t="s">
-        <v>622</v>
+        <v>647</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
+        <v>655</v>
+      </c>
+      <c r="B74" t="s">
         <v>638</v>
-      </c>
-      <c r="B74" t="s">
-        <v>623</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>655</v>
+        <v>659</v>
       </c>
       <c r="B75" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>639</v>
+        <v>681</v>
       </c>
       <c r="B76" t="s">
-        <v>638</v>
+        <v>618</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>640</v>
+        <v>682</v>
       </c>
       <c r="B77" t="s">
-        <v>638</v>
+        <v>618</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>657</v>
+        <v>607</v>
       </c>
       <c r="B78" t="s">
-        <v>638</v>
+        <v>606</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>641</v>
+        <v>611</v>
       </c>
       <c r="B79" t="s">
-        <v>638</v>
+        <v>606</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>642</v>
+        <v>689</v>
       </c>
       <c r="B80" t="s">
-        <v>638</v>
+        <v>596</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>643</v>
+        <v>184</v>
       </c>
       <c r="B81" t="s">
-        <v>638</v>
+        <v>12</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>644</v>
+        <v>632</v>
       </c>
       <c r="B82" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>645</v>
+        <v>665</v>
       </c>
       <c r="B83" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>646</v>
+        <v>683</v>
       </c>
       <c r="B84" t="s">
-        <v>638</v>
+        <v>618</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>647</v>
+        <v>642</v>
       </c>
       <c r="B85" t="s">
-        <v>624</v>
+        <v>638</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>656</v>
+        <v>990</v>
       </c>
       <c r="B86" t="s">
-        <v>647</v>
+        <v>12</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>648</v>
+        <v>612</v>
       </c>
       <c r="B87" t="s">
-        <v>647</v>
+        <v>596</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>649</v>
+        <v>664</v>
       </c>
       <c r="B88" t="s">
-        <v>647</v>
+        <v>637</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>650</v>
+        <v>684</v>
       </c>
       <c r="B89" t="s">
-        <v>647</v>
+        <v>618</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>651</v>
+        <v>685</v>
       </c>
       <c r="B90" t="s">
-        <v>647</v>
+        <v>618</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="B91" t="s">
         <v>647</v>
@@ -10366,47 +10365,47 @@
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>653</v>
+        <v>633</v>
       </c>
       <c r="B92" t="s">
-        <v>647</v>
+        <v>637</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>654</v>
+        <v>663</v>
       </c>
       <c r="B93" t="s">
-        <v>647</v>
+        <v>637</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>671</v>
+        <v>643</v>
       </c>
       <c r="B94" t="s">
-        <v>618</v>
+        <v>638</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>672</v>
+        <v>614</v>
       </c>
       <c r="B95" t="s">
-        <v>618</v>
+        <v>612</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>673</v>
+        <v>634</v>
       </c>
       <c r="B96" t="s">
-        <v>618</v>
+        <v>637</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>674</v>
+        <v>686</v>
       </c>
       <c r="B97" t="s">
         <v>618</v>
@@ -10414,87 +10413,87 @@
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>675</v>
+        <v>177</v>
       </c>
       <c r="B98" t="s">
-        <v>618</v>
+        <v>12</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>676</v>
+        <v>635</v>
       </c>
       <c r="B99" t="s">
-        <v>618</v>
+        <v>637</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>677</v>
+        <v>661</v>
       </c>
       <c r="B100" t="s">
-        <v>618</v>
+        <v>637</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>678</v>
+        <v>690</v>
       </c>
       <c r="B101" t="s">
-        <v>618</v>
+        <v>689</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>679</v>
+        <v>654</v>
       </c>
       <c r="B102" t="s">
-        <v>618</v>
+        <v>647</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>680</v>
+        <v>644</v>
       </c>
       <c r="B103" t="s">
-        <v>618</v>
+        <v>638</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>681</v>
+        <v>645</v>
       </c>
       <c r="B104" t="s">
-        <v>618</v>
+        <v>638</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>682</v>
+        <v>171</v>
       </c>
       <c r="B105" t="s">
-        <v>618</v>
+        <v>637</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>683</v>
+        <v>660</v>
       </c>
       <c r="B106" t="s">
-        <v>618</v>
+        <v>637</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>684</v>
+        <v>636</v>
       </c>
       <c r="B107" t="s">
-        <v>618</v>
+        <v>637</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>685</v>
+        <v>687</v>
       </c>
       <c r="B108" t="s">
         <v>618</v>
@@ -10502,18 +10501,18 @@
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>686</v>
+        <v>646</v>
       </c>
       <c r="B109" t="s">
-        <v>618</v>
+        <v>638</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="B110" t="s">
-        <v>618</v>
+        <v>287</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.2">
@@ -10521,7 +10520,7 @@
         <v>688</v>
       </c>
       <c r="B111" t="s">
-        <v>287</v>
+        <v>618</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.2">
@@ -10529,20 +10528,20 @@
         <v>688</v>
       </c>
       <c r="B112" t="s">
-        <v>618</v>
+        <v>597</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>688</v>
+        <v>618</v>
       </c>
       <c r="B113" t="s">
-        <v>597</v>
+        <v>619</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>689</v>
+        <v>597</v>
       </c>
       <c r="B114" t="s">
         <v>596</v>
@@ -10550,66 +10549,66 @@
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>691</v>
+        <v>598</v>
       </c>
       <c r="B115" t="s">
-        <v>689</v>
+        <v>597</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>692</v>
+        <v>624</v>
       </c>
       <c r="B116" t="s">
-        <v>689</v>
+        <v>621</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>690</v>
+        <v>647</v>
       </c>
       <c r="B117" t="s">
-        <v>689</v>
+        <v>624</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>840</v>
+        <v>619</v>
       </c>
       <c r="B118" t="s">
-        <v>12</v>
+        <v>596</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>841</v>
+        <v>180</v>
       </c>
       <c r="B119" t="s">
-        <v>840</v>
+        <v>178</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>842</v>
+        <v>691</v>
       </c>
       <c r="B120" t="s">
-        <v>840</v>
+        <v>689</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>987</v>
+        <v>658</v>
       </c>
       <c r="B121" t="s">
-        <v>12</v>
+        <v>637</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>990</v>
+        <v>600</v>
       </c>
       <c r="B122" t="s">
-        <v>12</v>
+        <v>597</v>
       </c>
     </row>
   </sheetData>
@@ -10624,7 +10623,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82DCE302-5DE7-CD43-B663-062D99EF0251}">
   <dimension ref="A1:B287"/>
   <sheetViews>
-    <sheetView topLeftCell="A109" workbookViewId="0">
+    <sheetView topLeftCell="A47" workbookViewId="0">
       <selection activeCell="B124" sqref="B124"/>
     </sheetView>
   </sheetViews>
@@ -10643,15 +10642,15 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>789</v>
+        <v>783</v>
       </c>
       <c r="B2" t="s">
-        <v>783</v>
+        <v>694</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>785</v>
+        <v>789</v>
       </c>
       <c r="B3" t="s">
         <v>783</v>
@@ -10659,7 +10658,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>791</v>
+        <v>785</v>
       </c>
       <c r="B4" t="s">
         <v>783</v>
@@ -10667,255 +10666,255 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>790</v>
-      </c>
-      <c r="B5" s="9" t="s">
+        <v>791</v>
+      </c>
+      <c r="B5" t="s">
         <v>783</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>793</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>783</v>
+        <v>497</v>
+      </c>
+      <c r="B6" t="s">
+        <v>495</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>784</v>
+        <v>726</v>
       </c>
       <c r="B7" t="s">
-        <v>783</v>
+        <v>724</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>788</v>
+        <v>744</v>
       </c>
       <c r="B8" t="s">
-        <v>789</v>
+        <v>743</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>792</v>
+        <v>916</v>
       </c>
       <c r="B9" t="s">
-        <v>791</v>
+        <v>911</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>786</v>
+        <v>287</v>
       </c>
       <c r="B10" t="s">
-        <v>791</v>
+        <v>288</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>787</v>
+        <v>743</v>
       </c>
       <c r="B11" t="s">
-        <v>791</v>
+        <v>595</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>295</v>
+        <v>743</v>
       </c>
       <c r="B12" t="s">
-        <v>287</v>
+        <v>694</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>297</v>
+        <v>749</v>
       </c>
       <c r="B13" t="s">
-        <v>287</v>
+        <v>595</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>296</v>
+        <v>806</v>
       </c>
       <c r="B14" t="s">
-        <v>287</v>
+        <v>749</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>290</v>
+        <v>807</v>
       </c>
       <c r="B15" t="s">
-        <v>287</v>
+        <v>749</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>293</v>
+        <v>807</v>
       </c>
       <c r="B16" t="s">
-        <v>287</v>
+        <v>612</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>294</v>
+        <v>808</v>
       </c>
       <c r="B17" t="s">
-        <v>287</v>
+        <v>749</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>291</v>
+        <v>928</v>
       </c>
       <c r="B18" t="s">
-        <v>287</v>
+        <v>919</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>292</v>
+        <v>696</v>
       </c>
       <c r="B19" t="s">
-        <v>287</v>
+        <v>694</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>744</v>
+        <v>705</v>
       </c>
       <c r="B20" t="s">
-        <v>743</v>
+        <v>724</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>754</v>
+        <v>705</v>
       </c>
       <c r="B21" t="s">
-        <v>743</v>
+        <v>704</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>746</v>
+        <v>805</v>
       </c>
       <c r="B22" t="s">
-        <v>743</v>
+        <v>749</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>747</v>
+        <v>872</v>
       </c>
       <c r="B23" t="s">
-        <v>743</v>
+        <v>863</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>745</v>
+        <v>721</v>
       </c>
       <c r="B24" t="s">
-        <v>743</v>
+        <v>717</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>748</v>
+        <v>498</v>
       </c>
       <c r="B25" t="s">
-        <v>743</v>
+        <v>495</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>750</v>
+        <v>761</v>
       </c>
       <c r="B26" t="s">
-        <v>749</v>
+        <v>811</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>806</v>
+        <v>494</v>
       </c>
       <c r="B27" t="s">
-        <v>749</v>
+        <v>493</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>801</v>
+        <v>874</v>
       </c>
       <c r="B28" t="s">
-        <v>749</v>
+        <v>612</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>802</v>
+        <v>811</v>
       </c>
       <c r="B29" t="s">
-        <v>749</v>
+        <v>493</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>803</v>
+        <v>813</v>
       </c>
       <c r="B30" t="s">
-        <v>749</v>
+        <v>811</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>807</v>
-      </c>
-      <c r="B31" t="s">
-        <v>749</v>
+        <v>882</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>875</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>804</v>
+        <v>295</v>
       </c>
       <c r="B32" t="s">
-        <v>749</v>
+        <v>287</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>805</v>
+        <v>709</v>
       </c>
       <c r="B33" t="s">
-        <v>749</v>
+        <v>704</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>808</v>
+        <v>710</v>
       </c>
       <c r="B34" t="s">
-        <v>749</v>
+        <v>704</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>810</v>
+        <v>711</v>
       </c>
       <c r="B35" t="s">
-        <v>811</v>
+        <v>704</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="B36" t="s">
         <v>595</v>
@@ -10923,63 +10922,63 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>749</v>
+        <v>725</v>
       </c>
       <c r="B37" t="s">
-        <v>595</v>
+        <v>724</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>742</v>
+        <v>699</v>
       </c>
       <c r="B38" t="s">
-        <v>595</v>
+        <v>694</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>751</v>
+        <v>769</v>
       </c>
       <c r="B39" t="s">
-        <v>595</v>
+        <v>770</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>752</v>
+        <v>727</v>
       </c>
       <c r="B40" t="s">
-        <v>595</v>
+        <v>724</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>704</v>
-      </c>
-      <c r="B41" t="s">
-        <v>595</v>
+        <v>738</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>723</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A42" s="3" t="s">
-        <v>768</v>
+      <c r="A42" t="s">
+        <v>831</v>
       </c>
       <c r="B42" t="s">
-        <v>769</v>
+        <v>832</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>287</v>
+        <v>814</v>
       </c>
       <c r="B43" t="s">
-        <v>288</v>
+        <v>612</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>761</v>
+        <v>814</v>
       </c>
       <c r="B44" t="s">
         <v>811</v>
@@ -10987,23 +10986,23 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>763</v>
+        <v>814</v>
       </c>
       <c r="B45" t="s">
-        <v>493</v>
+        <v>749</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>767</v>
+        <v>867</v>
       </c>
       <c r="B46" t="s">
-        <v>493</v>
+        <v>863</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>766</v>
+        <v>763</v>
       </c>
       <c r="B47" t="s">
         <v>493</v>
@@ -11011,7 +11010,7 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>495</v>
+        <v>767</v>
       </c>
       <c r="B48" t="s">
         <v>493</v>
@@ -11019,15 +11018,15 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>764</v>
+        <v>767</v>
       </c>
       <c r="B49" t="s">
-        <v>493</v>
+        <v>768</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="B50" s="7" t="s">
         <v>493</v>
@@ -11035,130 +11034,130 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="B51" t="s">
-        <v>493</v>
+        <v>768</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>762</v>
+        <v>493</v>
       </c>
       <c r="B52" t="s">
-        <v>811</v>
+        <v>694</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>509</v>
+        <v>697</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>493</v>
+        <v>694</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>510</v>
+        <v>697</v>
       </c>
       <c r="B54" t="s">
-        <v>493</v>
+        <v>724</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>511</v>
+        <v>698</v>
       </c>
       <c r="B55" t="s">
-        <v>493</v>
+        <v>694</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>512</v>
+        <v>700</v>
       </c>
       <c r="B56" t="s">
-        <v>493</v>
+        <v>694</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>513</v>
+        <v>503</v>
       </c>
       <c r="B57" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>811</v>
+        <v>898</v>
       </c>
       <c r="B58" t="s">
-        <v>493</v>
+        <v>906</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>735</v>
+        <v>833</v>
       </c>
       <c r="B59" t="s">
-        <v>740</v>
+        <v>832</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>500</v>
+        <v>835</v>
       </c>
       <c r="B60" t="s">
-        <v>30</v>
+        <v>834</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>706</v>
+        <v>795</v>
       </c>
       <c r="B61" t="s">
-        <v>707</v>
+        <v>695</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>774</v>
+        <v>315</v>
       </c>
       <c r="B62" t="s">
-        <v>773</v>
+        <v>873</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>775</v>
+        <v>896</v>
       </c>
       <c r="B63" t="s">
-        <v>773</v>
+        <v>596</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>497</v>
+        <v>897</v>
       </c>
       <c r="B64" t="s">
-        <v>495</v>
+        <v>596</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>498</v>
+        <v>755</v>
       </c>
       <c r="B65" t="s">
-        <v>495</v>
+        <v>694</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="B66" t="s">
-        <v>495</v>
+        <v>30</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
@@ -11171,247 +11170,247 @@
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>779</v>
+        <v>707</v>
       </c>
       <c r="B68" t="s">
-        <v>495</v>
+        <v>724</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>499</v>
+        <v>707</v>
       </c>
       <c r="B69" t="s">
-        <v>495</v>
+        <v>704</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>505</v>
-      </c>
-      <c r="B70" t="s">
-        <v>495</v>
+        <v>773</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>768</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>501</v>
+        <v>759</v>
       </c>
       <c r="B71" t="s">
-        <v>495</v>
+        <v>757</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>757</v>
+        <v>708</v>
       </c>
       <c r="B72" t="s">
-        <v>495</v>
+        <v>704</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>756</v>
+        <v>903</v>
       </c>
       <c r="B73" t="s">
-        <v>495</v>
+        <v>612</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>502</v>
+        <v>907</v>
       </c>
       <c r="B74" t="s">
-        <v>495</v>
+        <v>612</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>779</v>
+        <v>706</v>
       </c>
       <c r="B75" t="s">
-        <v>372</v>
+        <v>707</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>783</v>
-      </c>
-      <c r="B76" t="s">
+        <v>782</v>
+      </c>
+      <c r="B76" s="9" t="s">
         <v>694</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>743</v>
+        <v>712</v>
       </c>
       <c r="B77" t="s">
-        <v>694</v>
+        <v>724</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>696</v>
+        <v>712</v>
       </c>
       <c r="B78" t="s">
-        <v>694</v>
+        <v>704</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>699</v>
+        <v>870</v>
       </c>
       <c r="B79" t="s">
-        <v>694</v>
+        <v>863</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>493</v>
-      </c>
-      <c r="B80" t="s">
-        <v>694</v>
+        <v>790</v>
+      </c>
+      <c r="B80" s="9" t="s">
+        <v>783</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>697</v>
+        <v>826</v>
       </c>
       <c r="B81" t="s">
-        <v>694</v>
+        <v>493</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>698</v>
+        <v>512</v>
       </c>
       <c r="B82" t="s">
-        <v>694</v>
+        <v>493</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>700</v>
+        <v>718</v>
       </c>
       <c r="B83" t="s">
-        <v>694</v>
+        <v>717</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>755</v>
+        <v>297</v>
       </c>
       <c r="B84" t="s">
-        <v>694</v>
+        <v>287</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>782</v>
-      </c>
-      <c r="B85" s="9" t="s">
-        <v>694</v>
+        <v>820</v>
+      </c>
+      <c r="B85" t="s">
+        <v>493</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="B86" t="s">
-        <v>694</v>
+        <v>495</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87" s="7" t="s">
-        <v>724</v>
+        <v>779</v>
       </c>
       <c r="B87" t="s">
-        <v>694</v>
+        <v>372</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>701</v>
+        <v>495</v>
       </c>
       <c r="B88" t="s">
-        <v>694</v>
+        <v>493</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>702</v>
+        <v>499</v>
       </c>
       <c r="B89" s="7" t="s">
-        <v>694</v>
+        <v>495</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>703</v>
+        <v>499</v>
       </c>
       <c r="B90" s="7" t="s">
-        <v>694</v>
+        <v>22</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>704</v>
-      </c>
-      <c r="B91" s="7" t="s">
-        <v>694</v>
+        <v>883</v>
+      </c>
+      <c r="B91" s="8" t="s">
+        <v>875</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>350</v>
+        <v>883</v>
       </c>
       <c r="B92" t="s">
-        <v>694</v>
+        <v>612</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>781</v>
+        <v>885</v>
       </c>
       <c r="B93" t="s">
-        <v>780</v>
+        <v>596</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>726</v>
+        <v>890</v>
       </c>
       <c r="B94" t="s">
-        <v>724</v>
+        <v>885</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>705</v>
+        <v>892</v>
       </c>
       <c r="B95" t="s">
-        <v>724</v>
+        <v>885</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>725</v>
+        <v>888</v>
       </c>
       <c r="B96" t="s">
-        <v>724</v>
+        <v>885</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>727</v>
+        <v>894</v>
       </c>
       <c r="B97" t="s">
-        <v>724</v>
+        <v>885</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>697</v>
+        <v>728</v>
       </c>
       <c r="B98" t="s">
         <v>724</v>
@@ -11419,239 +11418,239 @@
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>707</v>
+        <v>343</v>
       </c>
       <c r="B99" t="s">
-        <v>724</v>
+        <v>339</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>712</v>
+        <v>800</v>
       </c>
       <c r="B100" t="s">
-        <v>724</v>
+        <v>612</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>728</v>
+        <v>342</v>
       </c>
       <c r="B101" t="s">
-        <v>724</v>
+        <v>339</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>729</v>
+        <v>340</v>
       </c>
       <c r="B102" t="s">
-        <v>724</v>
+        <v>339</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>730</v>
+        <v>798</v>
       </c>
       <c r="B103" t="s">
-        <v>724</v>
+        <v>339</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>731</v>
+        <v>797</v>
       </c>
       <c r="B104" t="s">
-        <v>724</v>
+        <v>339</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A105" s="9" t="s">
-        <v>723</v>
+      <c r="A105" t="s">
+        <v>891</v>
       </c>
       <c r="B105" t="s">
-        <v>724</v>
+        <v>885</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>732</v>
+        <v>887</v>
       </c>
       <c r="B106" t="s">
-        <v>724</v>
+        <v>885</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>713</v>
+        <v>505</v>
       </c>
       <c r="B107" t="s">
-        <v>724</v>
+        <v>495</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>734</v>
+        <v>837</v>
       </c>
       <c r="B108" t="s">
-        <v>724</v>
+        <v>832</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>735</v>
+        <v>751</v>
       </c>
       <c r="B109" t="s">
-        <v>724</v>
+        <v>595</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>739</v>
+        <v>889</v>
       </c>
       <c r="B110" t="s">
-        <v>724</v>
+        <v>885</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>737</v>
-      </c>
-      <c r="B111" t="s">
-        <v>724</v>
+        <v>772</v>
+      </c>
+      <c r="B111" s="3" t="s">
+        <v>768</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>738</v>
-      </c>
-      <c r="B112" s="3" t="s">
-        <v>723</v>
+        <v>501</v>
+      </c>
+      <c r="B112" t="s">
+        <v>495</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>776</v>
-      </c>
-      <c r="B113" t="s">
-        <v>723</v>
+        <v>877</v>
+      </c>
+      <c r="B113" s="3" t="s">
+        <v>875</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>777</v>
-      </c>
-      <c r="B114" s="9" t="s">
-        <v>723</v>
+        <v>317</v>
+      </c>
+      <c r="B114" t="s">
+        <v>873</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>778</v>
-      </c>
-      <c r="B115" s="9" t="s">
-        <v>723</v>
+        <v>788</v>
+      </c>
+      <c r="B115" t="s">
+        <v>789</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>733</v>
+        <v>830</v>
       </c>
       <c r="B116" t="s">
-        <v>723</v>
+        <v>832</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>736</v>
-      </c>
-      <c r="B117" s="3" t="s">
-        <v>723</v>
+        <v>780</v>
+      </c>
+      <c r="B117" t="s">
+        <v>694</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>343</v>
+        <v>781</v>
       </c>
       <c r="B118" t="s">
-        <v>339</v>
+        <v>780</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A119" t="s">
-        <v>342</v>
+      <c r="A119" s="9" t="s">
+        <v>724</v>
       </c>
       <c r="B119" t="s">
-        <v>339</v>
+        <v>694</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>340</v>
+        <v>296</v>
       </c>
       <c r="B120" t="s">
-        <v>339</v>
+        <v>287</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>798</v>
+        <v>881</v>
       </c>
       <c r="B121" t="s">
-        <v>339</v>
+        <v>875</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>797</v>
+        <v>804</v>
       </c>
       <c r="B122" t="s">
-        <v>339</v>
+        <v>749</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>799</v>
+        <v>902</v>
       </c>
       <c r="B123" t="s">
-        <v>339</v>
+        <v>596</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>769</v>
+        <v>821</v>
       </c>
       <c r="B124" t="s">
-        <v>770</v>
+        <v>493</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>753</v>
+        <v>918</v>
       </c>
       <c r="B125" t="s">
-        <v>702</v>
+        <v>612</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>784</v>
+        <v>701</v>
       </c>
       <c r="B126" t="s">
-        <v>703</v>
+        <v>694</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>800</v>
+        <v>825</v>
       </c>
       <c r="B127" t="s">
-        <v>612</v>
+        <v>493</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>807</v>
+        <v>825</v>
       </c>
       <c r="B128" t="s">
         <v>612</v>
@@ -11659,223 +11658,223 @@
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>774</v>
+        <v>290</v>
       </c>
       <c r="B129" t="s">
-        <v>771</v>
+        <v>287</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>775</v>
+        <v>752</v>
       </c>
       <c r="B130" t="s">
-        <v>771</v>
+        <v>595</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>759</v>
-      </c>
-      <c r="B131" t="s">
-        <v>757</v>
+        <v>919</v>
+      </c>
+      <c r="B131" s="3" t="s">
+        <v>918</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>760</v>
+        <v>926</v>
       </c>
       <c r="B132" t="s">
-        <v>757</v>
+        <v>919</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>758</v>
+        <v>925</v>
       </c>
       <c r="B133" t="s">
-        <v>757</v>
+        <v>919</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>809</v>
+        <v>719</v>
       </c>
       <c r="B134" t="s">
-        <v>757</v>
+        <v>717</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>767</v>
+        <v>924</v>
       </c>
       <c r="B135" t="s">
-        <v>768</v>
+        <v>919</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>766</v>
+        <v>914</v>
       </c>
       <c r="B136" t="s">
-        <v>768</v>
+        <v>911</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>773</v>
+        <v>876</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>768</v>
+        <v>875</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>772</v>
-      </c>
-      <c r="B138" s="3" t="s">
-        <v>768</v>
+        <v>511</v>
+      </c>
+      <c r="B138" t="s">
+        <v>493</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>771</v>
-      </c>
-      <c r="B139" s="3" t="s">
-        <v>768</v>
+        <v>510</v>
+      </c>
+      <c r="B139" t="s">
+        <v>493</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>795</v>
+        <v>866</v>
       </c>
       <c r="B140" t="s">
-        <v>695</v>
+        <v>863</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>796</v>
+        <v>819</v>
       </c>
       <c r="B141" t="s">
-        <v>695</v>
+        <v>493</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>794</v>
+        <v>827</v>
       </c>
       <c r="B142" t="s">
-        <v>695</v>
+        <v>493</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>499</v>
+        <v>827</v>
       </c>
       <c r="B143" t="s">
-        <v>22</v>
+        <v>612</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>721</v>
+        <v>729</v>
       </c>
       <c r="B144" t="s">
-        <v>717</v>
+        <v>724</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>718</v>
+        <v>730</v>
       </c>
       <c r="B145" t="s">
-        <v>717</v>
+        <v>724</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>719</v>
+        <v>792</v>
       </c>
       <c r="B146" t="s">
-        <v>717</v>
+        <v>791</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>720</v>
+        <v>893</v>
       </c>
       <c r="B147" t="s">
-        <v>717</v>
+        <v>885</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>768</v>
+        <v>906</v>
       </c>
       <c r="B148" t="s">
-        <v>11</v>
+        <v>895</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>739</v>
+        <v>899</v>
       </c>
       <c r="B149" t="s">
-        <v>741</v>
+        <v>906</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>705</v>
+        <v>899</v>
       </c>
       <c r="B150" t="s">
-        <v>704</v>
+        <v>612</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>709</v>
+        <v>900</v>
       </c>
       <c r="B151" t="s">
-        <v>704</v>
+        <v>906</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>710</v>
+        <v>909</v>
       </c>
       <c r="B152" t="s">
-        <v>704</v>
+        <v>612</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>711</v>
+        <v>731</v>
       </c>
       <c r="B153" t="s">
-        <v>704</v>
+        <v>724</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>707</v>
+        <v>720</v>
       </c>
       <c r="B154" t="s">
-        <v>704</v>
+        <v>717</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A155" t="s">
-        <v>708</v>
+      <c r="A155" s="9" t="s">
+        <v>723</v>
       </c>
       <c r="B155" t="s">
-        <v>704</v>
+        <v>724</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>712</v>
+        <v>723</v>
       </c>
       <c r="B156" t="s">
         <v>704</v>
@@ -11883,567 +11882,567 @@
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
+        <v>776</v>
+      </c>
+      <c r="B157" t="s">
         <v>723</v>
-      </c>
-      <c r="B157" t="s">
-        <v>704</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>713</v>
-      </c>
-      <c r="B158" t="s">
-        <v>704</v>
+        <v>777</v>
+      </c>
+      <c r="B158" s="9" t="s">
+        <v>723</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>714</v>
-      </c>
-      <c r="B159" t="s">
-        <v>704</v>
+        <v>778</v>
+      </c>
+      <c r="B159" s="9" t="s">
+        <v>723</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>715</v>
-      </c>
-      <c r="B160" t="s">
-        <v>704</v>
+        <v>793</v>
+      </c>
+      <c r="B160" s="9" t="s">
+        <v>783</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>716</v>
+        <v>829</v>
       </c>
       <c r="B161" t="s">
-        <v>704</v>
+        <v>832</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>717</v>
+        <v>764</v>
       </c>
       <c r="B162" t="s">
-        <v>704</v>
+        <v>493</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>722</v>
+        <v>293</v>
       </c>
       <c r="B163" t="s">
-        <v>704</v>
+        <v>287</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>812</v>
+        <v>886</v>
       </c>
       <c r="B164" t="s">
-        <v>811</v>
+        <v>885</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>813</v>
-      </c>
-      <c r="B165" t="s">
-        <v>811</v>
+        <v>920</v>
+      </c>
+      <c r="B165" s="3" t="s">
+        <v>918</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>814</v>
-      </c>
-      <c r="B166" t="s">
-        <v>612</v>
+        <v>702</v>
+      </c>
+      <c r="B166" s="9" t="s">
+        <v>694</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>814</v>
+        <v>753</v>
       </c>
       <c r="B167" t="s">
-        <v>811</v>
+        <v>702</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>814</v>
+        <v>810</v>
       </c>
       <c r="B168" t="s">
-        <v>749</v>
+        <v>811</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>819</v>
+        <v>774</v>
       </c>
       <c r="B169" t="s">
-        <v>493</v>
+        <v>773</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>825</v>
+        <v>774</v>
       </c>
       <c r="B170" t="s">
-        <v>493</v>
+        <v>771</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>826</v>
+        <v>750</v>
       </c>
       <c r="B171" t="s">
-        <v>493</v>
+        <v>749</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>827</v>
+        <v>801</v>
       </c>
       <c r="B172" t="s">
-        <v>493</v>
+        <v>749</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>820</v>
+        <v>913</v>
       </c>
       <c r="B173" t="s">
-        <v>493</v>
+        <v>911</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>821</v>
+        <v>908</v>
       </c>
       <c r="B174" t="s">
-        <v>493</v>
+        <v>612</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>822</v>
+        <v>915</v>
       </c>
       <c r="B175" t="s">
-        <v>493</v>
+        <v>911</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>823</v>
+        <v>915</v>
       </c>
       <c r="B176" t="s">
-        <v>493</v>
+        <v>612</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>824</v>
+        <v>911</v>
       </c>
       <c r="B177" t="s">
-        <v>823</v>
+        <v>596</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>825</v>
-      </c>
-      <c r="B178" t="s">
-        <v>612</v>
+        <v>879</v>
+      </c>
+      <c r="B178" s="3" t="s">
+        <v>875</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>827</v>
+        <v>294</v>
       </c>
       <c r="B179" t="s">
-        <v>612</v>
+        <v>287</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>829</v>
+        <v>784</v>
       </c>
       <c r="B180" t="s">
-        <v>832</v>
+        <v>783</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>830</v>
+        <v>784</v>
       </c>
       <c r="B181" t="s">
-        <v>832</v>
+        <v>703</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
-        <v>831</v>
+        <v>895</v>
       </c>
       <c r="B182" t="s">
-        <v>832</v>
+        <v>596</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>833</v>
+        <v>875</v>
       </c>
       <c r="B183" t="s">
-        <v>832</v>
+        <v>596</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>834</v>
-      </c>
-      <c r="B184" t="s">
-        <v>832</v>
+        <v>703</v>
+      </c>
+      <c r="B184" s="9" t="s">
+        <v>694</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>835</v>
+        <v>871</v>
       </c>
       <c r="B185" t="s">
-        <v>834</v>
+        <v>863</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>836</v>
+        <v>901</v>
       </c>
       <c r="B186" t="s">
-        <v>834</v>
+        <v>906</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>837</v>
+        <v>905</v>
       </c>
       <c r="B187" t="s">
-        <v>832</v>
+        <v>612</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
-        <v>494</v>
+        <v>910</v>
       </c>
       <c r="B188" t="s">
-        <v>493</v>
+        <v>612</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
-        <v>862</v>
+        <v>929</v>
       </c>
       <c r="B189" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A190" s="2" t="s">
-        <v>860</v>
+      <c r="A190" t="s">
+        <v>921</v>
       </c>
       <c r="B190" t="s">
-        <v>862</v>
+        <v>929</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A191" s="2" t="s">
-        <v>854</v>
+      <c r="A191" t="s">
+        <v>921</v>
       </c>
       <c r="B191" t="s">
-        <v>862</v>
+        <v>612</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A192" s="2" t="s">
-        <v>855</v>
+      <c r="A192" t="s">
+        <v>517</v>
       </c>
       <c r="B192" t="s">
-        <v>862</v>
+        <v>929</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A193" s="2" t="s">
-        <v>861</v>
+      <c r="A193" t="s">
+        <v>522</v>
       </c>
       <c r="B193" t="s">
-        <v>862</v>
+        <v>929</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A194" s="2" t="s">
-        <v>856</v>
-      </c>
-      <c r="B194" t="s">
-        <v>862</v>
+      <c r="A194" t="s">
+        <v>515</v>
+      </c>
+      <c r="B194" s="3" t="s">
+        <v>929</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A195" s="2" t="s">
-        <v>857</v>
+      <c r="A195" t="s">
+        <v>519</v>
       </c>
       <c r="B195" t="s">
-        <v>862</v>
+        <v>929</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A196" s="2" t="s">
-        <v>858</v>
+      <c r="A196" t="s">
+        <v>521</v>
       </c>
       <c r="B196" t="s">
-        <v>862</v>
+        <v>929</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A197" s="2" t="s">
-        <v>859</v>
+      <c r="A197" t="s">
+        <v>520</v>
       </c>
       <c r="B197" t="s">
-        <v>862</v>
+        <v>929</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A198" s="2" t="s">
-        <v>855</v>
+      <c r="A198" t="s">
+        <v>922</v>
       </c>
       <c r="B198" t="s">
-        <v>703</v>
+        <v>929</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A199" s="2" t="s">
-        <v>857</v>
+      <c r="A199" t="s">
+        <v>732</v>
       </c>
       <c r="B199" t="s">
-        <v>612</v>
+        <v>724</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
-        <v>863</v>
+        <v>291</v>
       </c>
       <c r="B200" t="s">
-        <v>596</v>
+        <v>287</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
-        <v>870</v>
+        <v>713</v>
       </c>
       <c r="B201" t="s">
-        <v>863</v>
+        <v>724</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
-        <v>871</v>
+        <v>713</v>
       </c>
       <c r="B202" t="s">
-        <v>863</v>
+        <v>704</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
-        <v>864</v>
+        <v>796</v>
       </c>
       <c r="B203" t="s">
-        <v>863</v>
+        <v>695</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
-        <v>865</v>
+        <v>802</v>
       </c>
       <c r="B204" t="s">
-        <v>863</v>
+        <v>749</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
-        <v>866</v>
+        <v>760</v>
       </c>
       <c r="B205" t="s">
-        <v>863</v>
+        <v>757</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
-        <v>867</v>
+        <v>834</v>
       </c>
       <c r="B206" t="s">
-        <v>863</v>
+        <v>832</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
-        <v>872</v>
+        <v>714</v>
       </c>
       <c r="B207" t="s">
-        <v>863</v>
+        <v>704</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
-        <v>868</v>
+        <v>775</v>
       </c>
       <c r="B208" t="s">
-        <v>863</v>
+        <v>773</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
-        <v>869</v>
+        <v>775</v>
       </c>
       <c r="B209" t="s">
-        <v>863</v>
+        <v>771</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
-        <v>873</v>
+        <v>912</v>
       </c>
       <c r="B210" t="s">
-        <v>596</v>
+        <v>911</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
-        <v>211</v>
-      </c>
-      <c r="B211" t="s">
-        <v>873</v>
+        <v>771</v>
+      </c>
+      <c r="B211" s="3" t="s">
+        <v>768</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
-        <v>318</v>
+        <v>823</v>
       </c>
       <c r="B212" t="s">
-        <v>873</v>
+        <v>493</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
-        <v>316</v>
+        <v>809</v>
       </c>
       <c r="B213" t="s">
-        <v>873</v>
+        <v>757</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
-        <v>315</v>
+        <v>757</v>
       </c>
       <c r="B214" t="s">
-        <v>873</v>
+        <v>495</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
-        <v>317</v>
-      </c>
-      <c r="B215" t="s">
-        <v>873</v>
+        <v>509</v>
+      </c>
+      <c r="B215" s="9" t="s">
+        <v>493</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A216" t="s">
-        <v>319</v>
+      <c r="A216" s="3" t="s">
+        <v>768</v>
       </c>
       <c r="B216" t="s">
-        <v>873</v>
+        <v>769</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
-        <v>320</v>
-      </c>
-      <c r="B217" t="s">
-        <v>873</v>
+        <v>768</v>
+      </c>
+      <c r="B217" s="9" t="s">
+        <v>493</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
-        <v>874</v>
+        <v>768</v>
       </c>
       <c r="B218" t="s">
-        <v>612</v>
+        <v>11</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
-        <v>875</v>
+        <v>733</v>
       </c>
       <c r="B219" t="s">
-        <v>596</v>
+        <v>723</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
-        <v>880</v>
-      </c>
-      <c r="B220" s="8" t="s">
-        <v>875</v>
+        <v>869</v>
+      </c>
+      <c r="B220" s="7" t="s">
+        <v>863</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
-        <v>881</v>
+        <v>803</v>
       </c>
       <c r="B221" t="s">
-        <v>875</v>
+        <v>749</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
-        <v>882</v>
-      </c>
-      <c r="B222" s="8" t="s">
-        <v>875</v>
+        <v>715</v>
+      </c>
+      <c r="B222" s="7" t="s">
+        <v>704</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
-        <v>883</v>
-      </c>
-      <c r="B223" s="8" t="s">
-        <v>875</v>
+        <v>836</v>
+      </c>
+      <c r="B223" s="7" t="s">
+        <v>834</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
-        <v>876</v>
-      </c>
-      <c r="B224" s="8" t="s">
-        <v>875</v>
+        <v>758</v>
+      </c>
+      <c r="B224" s="7" t="s">
+        <v>757</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
-        <v>877</v>
-      </c>
-      <c r="B225" s="8" t="s">
-        <v>875</v>
+        <v>786</v>
+      </c>
+      <c r="B225" s="7" t="s">
+        <v>791</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
-        <v>878</v>
-      </c>
-      <c r="B226" s="8" t="s">
-        <v>875</v>
+        <v>734</v>
+      </c>
+      <c r="B226" s="7" t="s">
+        <v>724</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
-        <v>884</v>
+        <v>878</v>
       </c>
       <c r="B227" s="8" t="s">
         <v>875</v>
@@ -12451,7 +12450,7 @@
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="B228" s="8" t="s">
         <v>875</v>
@@ -12459,7 +12458,7 @@
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
-        <v>884</v>
+        <v>880</v>
       </c>
       <c r="B229" t="s">
         <v>612</v>
@@ -12467,119 +12466,119 @@
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
-        <v>883</v>
+        <v>754</v>
       </c>
       <c r="B230" t="s">
-        <v>612</v>
+        <v>743</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
-        <v>880</v>
+        <v>735</v>
       </c>
       <c r="B231" t="s">
-        <v>612</v>
+        <v>740</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
-        <v>885</v>
+        <v>735</v>
       </c>
       <c r="B232" t="s">
-        <v>596</v>
+        <v>724</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
-        <v>886</v>
+        <v>746</v>
       </c>
       <c r="B233" t="s">
-        <v>885</v>
+        <v>743</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
-        <v>893</v>
+        <v>747</v>
       </c>
       <c r="B234" t="s">
-        <v>885</v>
+        <v>743</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
-        <v>887</v>
+        <v>745</v>
       </c>
       <c r="B235" t="s">
-        <v>885</v>
+        <v>743</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
-        <v>888</v>
+        <v>518</v>
       </c>
       <c r="B236" t="s">
-        <v>885</v>
+        <v>929</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
-        <v>889</v>
+        <v>923</v>
       </c>
       <c r="B237" t="s">
-        <v>885</v>
+        <v>929</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
-        <v>894</v>
+        <v>923</v>
       </c>
       <c r="B238" t="s">
-        <v>885</v>
+        <v>612</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
-        <v>890</v>
+        <v>748</v>
       </c>
       <c r="B239" t="s">
-        <v>885</v>
+        <v>743</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
-        <v>891</v>
+        <v>822</v>
       </c>
       <c r="B240" t="s">
-        <v>885</v>
+        <v>493</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
-        <v>892</v>
+        <v>824</v>
       </c>
       <c r="B241" t="s">
-        <v>885</v>
+        <v>823</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
-        <v>895</v>
+        <v>716</v>
       </c>
       <c r="B242" t="s">
-        <v>596</v>
+        <v>704</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
-        <v>896</v>
+        <v>794</v>
       </c>
       <c r="B243" t="s">
-        <v>596</v>
+        <v>695</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
-        <v>897</v>
+        <v>863</v>
       </c>
       <c r="B244" t="s">
         <v>596</v>
@@ -12587,207 +12586,207 @@
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
-        <v>906</v>
+        <v>864</v>
       </c>
       <c r="B245" t="s">
-        <v>895</v>
+        <v>863</v>
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
-        <v>898</v>
+        <v>865</v>
       </c>
       <c r="B246" t="s">
-        <v>906</v>
+        <v>863</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
-        <v>899</v>
+        <v>868</v>
       </c>
       <c r="B247" t="s">
-        <v>906</v>
+        <v>863</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
-        <v>900</v>
+        <v>917</v>
       </c>
       <c r="B248" t="s">
-        <v>906</v>
+        <v>911</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
-        <v>901</v>
+        <v>316</v>
       </c>
       <c r="B249" t="s">
-        <v>906</v>
+        <v>873</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
-        <v>902</v>
+        <v>717</v>
       </c>
       <c r="B250" t="s">
-        <v>596</v>
+        <v>704</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
-        <v>908</v>
-      </c>
-      <c r="B251" t="s">
-        <v>612</v>
+        <v>736</v>
+      </c>
+      <c r="B251" s="3" t="s">
+        <v>723</v>
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
-        <v>903</v>
+        <v>739</v>
       </c>
       <c r="B252" t="s">
-        <v>612</v>
+        <v>724</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
-        <v>907</v>
+        <v>739</v>
       </c>
       <c r="B253" t="s">
-        <v>612</v>
+        <v>741</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
-        <v>909</v>
+        <v>765</v>
       </c>
       <c r="B254" t="s">
-        <v>612</v>
+        <v>493</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
-        <v>904</v>
+        <v>762</v>
       </c>
       <c r="B255" t="s">
-        <v>612</v>
+        <v>811</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
-        <v>910</v>
+        <v>318</v>
       </c>
       <c r="B256" t="s">
-        <v>612</v>
+        <v>873</v>
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
-        <v>905</v>
+        <v>319</v>
       </c>
       <c r="B257" t="s">
-        <v>612</v>
+        <v>873</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
-        <v>899</v>
+        <v>873</v>
       </c>
       <c r="B258" t="s">
-        <v>612</v>
+        <v>596</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
-        <v>911</v>
+        <v>812</v>
       </c>
       <c r="B259" t="s">
-        <v>596</v>
+        <v>811</v>
       </c>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
-        <v>912</v>
+        <v>756</v>
       </c>
       <c r="B260" t="s">
-        <v>911</v>
+        <v>495</v>
       </c>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
-        <v>913</v>
+        <v>320</v>
       </c>
       <c r="B261" t="s">
-        <v>911</v>
+        <v>873</v>
       </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
-        <v>914</v>
+        <v>722</v>
       </c>
       <c r="B262" t="s">
-        <v>911</v>
+        <v>704</v>
       </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
-        <v>915</v>
+        <v>292</v>
       </c>
       <c r="B263" t="s">
-        <v>911</v>
+        <v>287</v>
       </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
-        <v>916</v>
+        <v>787</v>
       </c>
       <c r="B264" t="s">
-        <v>911</v>
+        <v>791</v>
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
-        <v>917</v>
+        <v>211</v>
       </c>
       <c r="B265" t="s">
-        <v>911</v>
+        <v>873</v>
       </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
-        <v>915</v>
+        <v>927</v>
       </c>
       <c r="B266" t="s">
-        <v>612</v>
+        <v>919</v>
       </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
-        <v>918</v>
-      </c>
-      <c r="B267" t="s">
-        <v>612</v>
+        <v>884</v>
+      </c>
+      <c r="B267" s="3" t="s">
+        <v>875</v>
       </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
-        <v>919</v>
-      </c>
-      <c r="B268" s="8" t="s">
-        <v>918</v>
+        <v>884</v>
+      </c>
+      <c r="B268" s="7" t="s">
+        <v>612</v>
       </c>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
-        <v>920</v>
-      </c>
-      <c r="B269" s="8" t="s">
-        <v>918</v>
+        <v>513</v>
+      </c>
+      <c r="B269" s="7" t="s">
+        <v>493</v>
       </c>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
-        <v>929</v>
+        <v>704</v>
       </c>
       <c r="B270" t="s">
         <v>595</v>
@@ -12795,138 +12794,138 @@
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
-        <v>923</v>
-      </c>
-      <c r="B271" t="s">
-        <v>929</v>
+        <v>704</v>
+      </c>
+      <c r="B271" s="9" t="s">
+        <v>694</v>
       </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
-        <v>517</v>
+        <v>799</v>
       </c>
       <c r="B272" t="s">
-        <v>929</v>
+        <v>339</v>
       </c>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
-        <v>518</v>
+        <v>350</v>
       </c>
       <c r="B273" t="s">
-        <v>929</v>
+        <v>694</v>
       </c>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
-        <v>519</v>
+        <v>737</v>
       </c>
       <c r="B274" t="s">
-        <v>929</v>
+        <v>724</v>
       </c>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A275" t="s">
-        <v>520</v>
+      <c r="A275" s="2" t="s">
+        <v>857</v>
       </c>
       <c r="B275" t="s">
-        <v>929</v>
+        <v>862</v>
       </c>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A276" t="s">
-        <v>521</v>
+      <c r="A276" s="2" t="s">
+        <v>857</v>
       </c>
       <c r="B276" t="s">
-        <v>929</v>
+        <v>612</v>
       </c>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A277" t="s">
-        <v>522</v>
+      <c r="A277" s="2" t="s">
+        <v>861</v>
       </c>
       <c r="B277" t="s">
-        <v>929</v>
+        <v>862</v>
       </c>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A278" t="s">
-        <v>921</v>
+      <c r="A278" s="2" t="s">
+        <v>856</v>
       </c>
       <c r="B278" t="s">
-        <v>929</v>
+        <v>862</v>
       </c>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A279" t="s">
-        <v>922</v>
+      <c r="A279" s="2" t="s">
+        <v>854</v>
       </c>
       <c r="B279" t="s">
-        <v>929</v>
+        <v>862</v>
       </c>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A280" t="s">
-        <v>923</v>
+      <c r="A280" s="2" t="s">
+        <v>858</v>
       </c>
       <c r="B280" t="s">
-        <v>612</v>
+        <v>862</v>
       </c>
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
-        <v>921</v>
+        <v>862</v>
       </c>
       <c r="B281" t="s">
-        <v>612</v>
+        <v>596</v>
       </c>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A282" t="s">
-        <v>924</v>
+      <c r="A282" s="2" t="s">
+        <v>860</v>
       </c>
       <c r="B282" t="s">
-        <v>919</v>
+        <v>862</v>
       </c>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
-        <v>925</v>
+        <v>904</v>
       </c>
       <c r="B283" t="s">
-        <v>919</v>
+        <v>612</v>
       </c>
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A284" t="s">
-        <v>926</v>
+      <c r="A284" s="2" t="s">
+        <v>855</v>
       </c>
       <c r="B284" t="s">
-        <v>919</v>
+        <v>862</v>
       </c>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A285" t="s">
-        <v>927</v>
+      <c r="A285" s="2" t="s">
+        <v>855</v>
       </c>
       <c r="B285" t="s">
-        <v>919</v>
+        <v>703</v>
       </c>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A286" t="s">
-        <v>928</v>
+      <c r="A286" s="2" t="s">
+        <v>859</v>
       </c>
       <c r="B286" t="s">
-        <v>919</v>
+        <v>862</v>
       </c>
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
-        <v>515</v>
-      </c>
-      <c r="B287" s="10" t="s">
-        <v>929</v>
+        <v>502</v>
+      </c>
+      <c r="B287" s="4" t="s">
+        <v>495</v>
       </c>
     </row>
   </sheetData>

--- a/skills/Digital Skills.xlsx
+++ b/skills/Digital Skills.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kongbinxuan/Desktop/skills-onthology-project/skills/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B8E5B27-D430-B94B-8DFC-AF5F261CF0D8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E6A1E29-2B32-BC43-950F-A2974989A842}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14460" yWindow="460" windowWidth="14340" windowHeight="16140" activeTab="1" xr2:uid="{273D56F0-60F4-7D4D-B74A-F5CA8C152A80}"/>
+    <workbookView xWindow="14460" yWindow="460" windowWidth="14340" windowHeight="16140" activeTab="2" xr2:uid="{273D56F0-60F4-7D4D-B74A-F5CA8C152A80}"/>
   </bookViews>
   <sheets>
     <sheet name="Base" sheetId="1" r:id="rId1"/>
@@ -998,9 +998,6 @@
     <t>R</t>
   </si>
   <si>
-    <t>Rstudio</t>
-  </si>
-  <si>
     <t>Version Control Software</t>
   </si>
   <si>
@@ -3096,6 +3093,9 @@
   </si>
   <si>
     <t>Pivot Table</t>
+  </si>
+  <si>
+    <t>RStudio</t>
   </si>
 </sst>
 </file>
@@ -3690,8 +3690,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25E914D5-27CD-7E41-A3B3-3B307D4A30A6}">
   <dimension ref="A1:B71"/>
   <sheetViews>
-    <sheetView topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="A39" sqref="A39"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A43" sqref="A43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3733,7 +3733,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="B5" t="s">
         <v>2</v>
@@ -3789,7 +3789,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="B12" t="s">
         <v>2</v>
@@ -3810,15 +3810,15 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="B15" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="B16" t="s">
         <v>2</v>
@@ -3834,7 +3834,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B18" t="s">
         <v>2</v>
@@ -3887,7 +3887,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B25" t="s">
         <v>3</v>
@@ -3927,7 +3927,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B30" t="s">
         <v>2</v>
@@ -3935,7 +3935,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B31" t="s">
         <v>2</v>
@@ -3951,7 +3951,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B33" t="s">
         <v>4</v>
@@ -3975,18 +3975,18 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
+        <v>671</v>
+      </c>
+      <c r="B36" t="s">
         <v>672</v>
-      </c>
-      <c r="B36" t="s">
-        <v>673</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="B37" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
@@ -4002,7 +4002,7 @@
         <v>9</v>
       </c>
       <c r="B39" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
@@ -4023,7 +4023,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B42" t="s">
         <v>2</v>
@@ -4076,7 +4076,7 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B49" t="s">
         <v>2</v>
@@ -4084,7 +4084,7 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B50" t="s">
         <v>2</v>
@@ -4092,7 +4092,7 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B51" t="s">
         <v>2</v>
@@ -4108,10 +4108,10 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="B53" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
@@ -4119,7 +4119,7 @@
         <v>10</v>
       </c>
       <c r="B54" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
@@ -4127,7 +4127,7 @@
         <v>10</v>
       </c>
       <c r="B55" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
@@ -4156,7 +4156,7 @@
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B59" t="s">
         <v>2</v>
@@ -4172,7 +4172,7 @@
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="B61" t="s">
         <v>2</v>
@@ -4180,10 +4180,10 @@
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="B62" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
@@ -4220,7 +4220,7 @@
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="B67" t="s">
         <v>2</v>
@@ -4228,7 +4228,7 @@
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B68" t="s">
         <v>2</v>
@@ -4244,7 +4244,7 @@
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B70" t="s">
         <v>2</v>
@@ -4270,7 +4270,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC568B44-548B-D74F-B49B-DF829991C980}">
   <dimension ref="A1:B167"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
+    <sheetView topLeftCell="A23" workbookViewId="0">
       <selection activeCell="A117" sqref="A117"/>
     </sheetView>
   </sheetViews>
@@ -4289,10 +4289,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B2" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -4377,7 +4377,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B13" t="s">
         <v>66</v>
@@ -4385,7 +4385,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B14" t="s">
         <v>66</v>
@@ -4393,7 +4393,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B15" t="s">
         <v>66</v>
@@ -4401,7 +4401,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B16" t="s">
         <v>66</v>
@@ -4409,23 +4409,23 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B17" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>351</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>352</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>238</v>
@@ -4473,26 +4473,26 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B25" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B26" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B27" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
@@ -4524,15 +4524,15 @@
         <v>94</v>
       </c>
       <c r="B31" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B32" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
@@ -4569,7 +4569,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="B37" t="s">
         <v>27</v>
@@ -4617,7 +4617,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="B43" t="s">
         <v>28</v>
@@ -4625,7 +4625,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="B44" t="s">
         <v>28</v>
@@ -4649,7 +4649,7 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="B47" t="s">
         <v>28</v>
@@ -4657,26 +4657,26 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="B49" t="s">
         <v>357</v>
-      </c>
-      <c r="B49" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="B50" t="s">
         <v>357</v>
-      </c>
-      <c r="B50" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
@@ -4697,10 +4697,10 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B53" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
@@ -4713,23 +4713,23 @@
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B55" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B56" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B57" t="s">
         <v>226</v>
@@ -4737,10 +4737,10 @@
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B58" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
@@ -4769,10 +4769,10 @@
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="B62" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
@@ -4817,10 +4817,10 @@
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B68" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
@@ -4841,18 +4841,18 @@
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="B71" t="s">
         <v>356</v>
-      </c>
-      <c r="B71" t="s">
-        <v>357</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B72" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
@@ -4873,7 +4873,7 @@
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B75" t="s">
         <v>66</v>
@@ -4889,10 +4889,10 @@
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B77" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
@@ -4905,26 +4905,26 @@
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B79" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B80" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B81" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
@@ -4977,7 +4977,7 @@
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88" s="2" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B88" t="s">
         <v>66</v>
@@ -4996,7 +4996,7 @@
         <v>87</v>
       </c>
       <c r="B90" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.2">
@@ -5009,10 +5009,10 @@
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92" s="2" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B92" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.2">
@@ -5025,26 +5025,26 @@
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B94" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B95" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B96" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.2">
@@ -5073,10 +5073,10 @@
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="B100" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.2">
@@ -5089,10 +5089,10 @@
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B102" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.2">
@@ -5105,10 +5105,10 @@
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A104" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B104" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.2">
@@ -5137,10 +5137,10 @@
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B108" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.2">
@@ -5153,7 +5153,7 @@
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A110" s="2" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B110" t="s">
         <v>66</v>
@@ -5172,7 +5172,7 @@
         <v>93</v>
       </c>
       <c r="B112" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.2">
@@ -5201,7 +5201,7 @@
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="B116" t="s">
         <v>69</v>
@@ -5212,12 +5212,12 @@
         <v>88</v>
       </c>
       <c r="B117" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B118" t="s">
         <v>68</v>
@@ -5225,7 +5225,7 @@
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B119" t="s">
         <v>41</v>
@@ -5236,7 +5236,7 @@
         <v>253</v>
       </c>
       <c r="B120" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.2">
@@ -5305,7 +5305,7 @@
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A129" s="2" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B129" t="s">
         <v>28</v>
@@ -5313,7 +5313,7 @@
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B130" t="s">
         <v>26</v>
@@ -5345,10 +5345,10 @@
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A134" s="2" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B134" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.2">
@@ -5388,7 +5388,7 @@
         <v>242</v>
       </c>
       <c r="B139" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.2">
@@ -5428,7 +5428,7 @@
         <v>92</v>
       </c>
       <c r="B144" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.2">
@@ -5436,20 +5436,20 @@
         <v>90</v>
       </c>
       <c r="B145" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A146" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="B146" t="s">
         <v>393</v>
-      </c>
-      <c r="B146" t="s">
-        <v>394</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A147" s="2" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="B147" t="s">
         <v>113</v>
@@ -5473,26 +5473,26 @@
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A150" s="1" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="B150" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A151" s="1" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="B151" s="3" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A152" s="2" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B152" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.2">
@@ -5540,7 +5540,7 @@
         <v>91</v>
       </c>
       <c r="B158" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.2">
@@ -5564,7 +5564,7 @@
         <v>89</v>
       </c>
       <c r="B161" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.2">
@@ -5577,10 +5577,10 @@
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A163" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B163" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.2">
@@ -5627,8 +5627,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC367FE4-F21A-4B4E-A4D6-C29EEEBA6A4D}">
   <dimension ref="A1:B323"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="A63" sqref="A63"/>
+    <sheetView tabSelected="1" topLeftCell="A219" workbookViewId="0">
+      <selection activeCell="A244" sqref="A244"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5662,10 +5662,10 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -5694,15 +5694,15 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>7</v>
@@ -5750,10 +5750,10 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
@@ -5766,15 +5766,15 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>152</v>
@@ -5785,7 +5785,7 @@
         <v>142</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
@@ -5806,7 +5806,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>142</v>
@@ -5814,10 +5814,10 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
@@ -5870,7 +5870,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>142</v>
@@ -5918,7 +5918,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>230</v>
@@ -5934,66 +5934,66 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
@@ -6046,15 +6046,15 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B52" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>149</v>
@@ -6062,10 +6062,10 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
@@ -6078,7 +6078,7 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>22</v>
@@ -6086,7 +6086,7 @@
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>22</v>
@@ -6094,7 +6094,7 @@
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>22</v>
@@ -6102,15 +6102,15 @@
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>191</v>
@@ -6118,58 +6118,58 @@
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
@@ -6190,7 +6190,7 @@
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>54</v>
@@ -6198,15 +6198,15 @@
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>22</v>
@@ -6214,15 +6214,15 @@
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
+        <v>984</v>
+      </c>
+      <c r="B73" s="1" t="s">
         <v>985</v>
-      </c>
-      <c r="B73" s="1" t="s">
-        <v>986</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="B74" s="1" t="s">
         <v>6</v>
@@ -6230,15 +6230,15 @@
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B76" s="1" t="s">
         <v>54</v>
@@ -6246,15 +6246,15 @@
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B78" s="1" t="s">
         <v>97</v>
@@ -6262,7 +6262,7 @@
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B79" s="6" t="s">
         <v>6</v>
@@ -6270,7 +6270,7 @@
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B80" s="1" t="s">
         <v>34</v>
@@ -6278,95 +6278,95 @@
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B82" s="6" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B92" s="1" t="s">
         <v>35</v>
@@ -6382,39 +6382,39 @@
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94" s="2" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95" s="2" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B98" s="1" t="s">
         <v>38</v>
@@ -6422,7 +6422,7 @@
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B99" s="1" t="s">
         <v>22</v>
@@ -6430,15 +6430,15 @@
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100" s="2" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B101" s="1" t="s">
         <v>238</v>
@@ -6446,26 +6446,26 @@
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A104" s="2" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.2">
@@ -6478,7 +6478,7 @@
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B106" s="1" t="s">
         <v>22</v>
@@ -6502,7 +6502,7 @@
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B109" s="1" t="s">
         <v>22</v>
@@ -6510,15 +6510,15 @@
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B111" s="1" t="s">
         <v>97</v>
@@ -6526,7 +6526,7 @@
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B112" s="1" t="s">
         <v>220</v>
@@ -6558,7 +6558,7 @@
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B116" s="1" t="s">
         <v>34</v>
@@ -6566,15 +6566,15 @@
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="B118" s="1" t="s">
         <v>191</v>
@@ -6582,7 +6582,7 @@
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="B119" s="1" t="s">
         <v>53</v>
@@ -6598,7 +6598,7 @@
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="B121" s="1" t="s">
         <v>14</v>
@@ -6606,7 +6606,7 @@
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="B122" s="1" t="s">
         <v>191</v>
@@ -6614,7 +6614,7 @@
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="B123" s="1" t="s">
         <v>143</v>
@@ -6622,15 +6622,15 @@
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A124" s="2" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="B125" s="1" t="s">
         <v>151</v>
@@ -6638,15 +6638,15 @@
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A126" s="2" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="B127" s="1" t="s">
         <v>147</v>
@@ -6654,15 +6654,15 @@
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A129" s="2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B129" s="1" t="s">
         <v>238</v>
@@ -6670,7 +6670,7 @@
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B130" s="1" t="s">
         <v>31</v>
@@ -6681,7 +6681,7 @@
         <v>238</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.2">
@@ -6694,7 +6694,7 @@
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A133" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B133" s="1" t="s">
         <v>315</v>
@@ -6702,34 +6702,34 @@
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.2">
@@ -6758,18 +6758,18 @@
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A141" s="1" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.2">
@@ -6782,15 +6782,15 @@
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A144" s="2" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A145" s="2" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B145" s="1" t="s">
         <v>38</v>
@@ -6798,15 +6798,15 @@
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A146" s="2" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A147" s="2" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B147" s="1" t="s">
         <v>38</v>
@@ -6814,7 +6814,7 @@
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A148" s="1" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B148" s="1" t="s">
         <v>38</v>
@@ -6822,10 +6822,10 @@
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.2">
@@ -6846,7 +6846,7 @@
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A152" s="2" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B152" s="1" t="s">
         <v>38</v>
@@ -6854,10 +6854,10 @@
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A153" s="2" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B153" s="6" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.2">
@@ -6870,7 +6870,7 @@
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A155" s="1" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="B155" s="1" t="s">
         <v>40</v>
@@ -6878,39 +6878,39 @@
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A156" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="B156" s="1" t="s">
         <v>413</v>
-      </c>
-      <c r="B156" s="1" t="s">
-        <v>414</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A157" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B157" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A158" s="1" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A159" s="1" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A160" s="1" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="B160" s="1" t="s">
         <v>145</v>
@@ -6918,26 +6918,26 @@
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A161" s="1" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A162" s="2" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A163" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.2">
@@ -6950,18 +6950,18 @@
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A165" s="1" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="B165" s="3" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A166" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="B166" s="1" t="s">
         <v>406</v>
-      </c>
-      <c r="B166" s="1" t="s">
-        <v>407</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.2">
@@ -6974,10 +6974,10 @@
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A168" s="1" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.2">
@@ -6985,12 +6985,12 @@
         <v>49</v>
       </c>
       <c r="B169" s="6" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A170" s="1" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B170" s="1" t="s">
         <v>54</v>
@@ -6998,7 +6998,7 @@
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B171" s="1" t="s">
         <v>53</v>
@@ -7009,7 +7009,7 @@
         <v>50</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.2">
@@ -7062,15 +7062,15 @@
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A179" s="1" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A180" s="1" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B180" s="6" t="s">
         <v>7</v>
@@ -7078,7 +7078,7 @@
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A181" s="1" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="B181" s="1" t="s">
         <v>146</v>
@@ -7086,10 +7086,10 @@
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A182" s="1" t="s">
+        <v>1002</v>
+      </c>
+      <c r="B182" s="1" t="s">
         <v>1003</v>
-      </c>
-      <c r="B182" s="1" t="s">
-        <v>1004</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.2">
@@ -7102,15 +7102,15 @@
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A184" s="1" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B184" s="9" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A185" s="1" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B185" s="9" t="s">
         <v>35</v>
@@ -7118,23 +7118,23 @@
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A186" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B186" s="9" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A187" s="1" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A188" s="1" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B188" s="1" t="s">
         <v>34</v>
@@ -7142,7 +7142,7 @@
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A189" s="1" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B189" s="1" t="s">
         <v>22</v>
@@ -7150,10 +7150,10 @@
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A190" s="1" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.2">
@@ -7174,26 +7174,26 @@
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A193" s="1" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A194" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A195" s="1" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.2">
@@ -7206,15 +7206,15 @@
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A197" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A198" s="1" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="B198" s="1" t="s">
         <v>197</v>
@@ -7222,7 +7222,7 @@
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A199" s="1" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B199" s="1" t="s">
         <v>7</v>
@@ -7230,10 +7230,10 @@
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A200" s="1" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.2">
@@ -7246,18 +7246,18 @@
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A202" s="2" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A203" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.2">
@@ -7270,74 +7270,74 @@
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A205" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A206" s="2" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A207" s="2" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A208" s="2" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A209" s="2" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A210" s="2" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B210" s="3" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A211" s="2" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B211" s="3" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A212" s="2" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B212" s="3" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A213" s="2" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.2">
@@ -7350,7 +7350,7 @@
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A215" s="1" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B215" s="1" t="s">
         <v>7</v>
@@ -7358,7 +7358,7 @@
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="B216" s="1" t="s">
         <v>53</v>
@@ -7374,10 +7374,10 @@
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A218" s="1" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.2">
@@ -7390,7 +7390,7 @@
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A220" s="1" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B220" s="1" t="s">
         <v>39</v>
@@ -7398,7 +7398,7 @@
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A221" s="1" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B221" s="1" t="s">
         <v>39</v>
@@ -7422,7 +7422,7 @@
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A224" s="1" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B224" s="6" t="s">
         <v>39</v>
@@ -7430,15 +7430,15 @@
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A225" s="1" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A226" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B226" s="6" t="s">
         <v>315</v>
@@ -7446,10 +7446,10 @@
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A227" s="1" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B227" s="1" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.2">
@@ -7462,23 +7462,23 @@
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A229" s="2" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A230" s="2" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A231" s="1" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B231" s="1" t="s">
         <v>41</v>
@@ -7486,15 +7486,15 @@
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A232" s="2" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A233" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B233" s="1" t="s">
         <v>315</v>
@@ -7518,23 +7518,23 @@
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A236" s="1" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A237" s="1" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A238" s="1" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="B238" s="3" t="s">
         <v>6</v>
@@ -7542,18 +7542,18 @@
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A239" s="1" t="s">
+        <v>993</v>
+      </c>
+      <c r="B239" s="1" t="s">
         <v>994</v>
-      </c>
-      <c r="B239" s="1" t="s">
-        <v>995</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A240" s="1" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B240" s="1" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.2">
@@ -7566,15 +7566,15 @@
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A242" s="1" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B242" s="1" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A243" s="1" t="s">
-        <v>319</v>
+        <v>1018</v>
       </c>
       <c r="B243" s="1" t="s">
         <v>318</v>
@@ -7598,7 +7598,7 @@
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A246" s="1" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B246" s="1" t="s">
         <v>41</v>
@@ -7606,10 +7606,10 @@
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A247" s="1" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B247" s="1" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.2">
@@ -7630,39 +7630,39 @@
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A250" s="2" t="s">
+        <v>502</v>
+      </c>
+      <c r="B250" s="2" t="s">
         <v>503</v>
-      </c>
-      <c r="B250" s="2" t="s">
-        <v>504</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A251" s="2" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B251" s="2" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A252" s="2" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="B252" s="2" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A253" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B253" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A254" s="1" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B254" s="1" t="s">
         <v>7</v>
@@ -7670,15 +7670,15 @@
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A255" s="2" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B255" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="B256" s="1" t="s">
         <v>53</v>
@@ -7686,15 +7686,15 @@
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A257" s="1" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B257" s="1" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A258" s="1" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B258" s="1" t="s">
         <v>22</v>
@@ -7710,7 +7710,7 @@
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A260" s="1" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="B260" s="1" t="s">
         <v>6</v>
@@ -7718,7 +7718,7 @@
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A261" s="1" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="B261" s="1" t="s">
         <v>6</v>
@@ -7734,7 +7734,7 @@
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A263" s="1" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B263" s="1" t="s">
         <v>6</v>
@@ -7742,10 +7742,10 @@
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A264" s="1" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="B264" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.2">
@@ -7774,7 +7774,7 @@
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A268" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B268" s="1" t="s">
         <v>315</v>
@@ -7782,7 +7782,7 @@
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A269" s="1" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="B269" s="1" t="s">
         <v>144</v>
@@ -7806,23 +7806,23 @@
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A272" s="2" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B272" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A273" s="1" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="B273" s="6" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A274" s="1" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="B274" s="1" t="s">
         <v>7</v>
@@ -7854,18 +7854,18 @@
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A278" s="2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B278" s="1" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A279" s="1" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B279" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.2">
@@ -7878,7 +7878,7 @@
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A281" s="1" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="B281" s="1" t="s">
         <v>148</v>
@@ -7894,7 +7894,7 @@
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A283" s="1" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B283" s="1" t="s">
         <v>54</v>
@@ -7902,87 +7902,87 @@
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A284" s="1" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="B284" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A285" s="1" t="s">
+        <v>995</v>
+      </c>
+      <c r="B285" s="1" t="s">
         <v>996</v>
-      </c>
-      <c r="B285" s="1" t="s">
-        <v>997</v>
       </c>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A286" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B286" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A287" s="1" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B287" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A288" s="1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B288" s="1" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A289" s="1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B289" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A290" s="1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B290" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A291" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B291" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A292" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B292" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A293" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B293" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A294" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B294" s="1" t="s">
         <v>31</v>
@@ -7990,26 +7990,26 @@
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A295" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B295" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A296" s="1" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="B296" s="1" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A297" s="1" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B297" s="1" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.2">
@@ -8022,7 +8022,7 @@
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A299" s="1" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B299" s="1" t="s">
         <v>43</v>
@@ -8030,15 +8030,15 @@
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A300" s="2" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B300" s="1" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A301" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B301" s="11" t="s">
         <v>315</v>
@@ -8046,18 +8046,18 @@
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A302" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B302" s="1" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A303" s="2" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B303" s="6" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.2">
@@ -8070,7 +8070,7 @@
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A305" s="1" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B305" s="1" t="s">
         <v>7</v>
@@ -8078,7 +8078,7 @@
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A306" s="1" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B306" s="1" t="s">
         <v>43</v>
@@ -8086,7 +8086,7 @@
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A307" s="1" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B307" s="1" t="s">
         <v>7</v>
@@ -8094,10 +8094,10 @@
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A308" s="2" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B308" s="1" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.2">
@@ -8110,7 +8110,7 @@
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A310" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B310" s="1" t="s">
         <v>220</v>
@@ -8118,7 +8118,7 @@
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A311" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B311" s="1" t="s">
         <v>220</v>
@@ -8126,7 +8126,7 @@
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A312" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B312" s="1" t="s">
         <v>220</v>
@@ -8134,7 +8134,7 @@
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A313" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B313" s="1" t="s">
         <v>220</v>
@@ -8142,7 +8142,7 @@
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A314" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B314" s="1" t="s">
         <v>220</v>
@@ -8174,7 +8174,7 @@
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A318" s="1" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B318" s="1" t="s">
         <v>220</v>
@@ -8185,39 +8185,39 @@
         <v>51</v>
       </c>
       <c r="B319" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A320" s="2" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B320" s="1" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A321" s="2" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B321" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A322" s="1" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="B322" s="6" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A323" s="1" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B323" s="1" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
   </sheetData>
@@ -8251,10 +8251,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>391</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>392</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -8283,23 +8283,23 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>32</v>
@@ -8307,10 +8307,10 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
@@ -8323,26 +8323,26 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
@@ -8350,7 +8350,7 @@
         <v>259</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
@@ -8363,7 +8363,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>11</v>
@@ -8371,7 +8371,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>307</v>
@@ -8379,10 +8379,10 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
@@ -8395,10 +8395,10 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
@@ -8435,10 +8435,10 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
@@ -8459,10 +8459,10 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
@@ -8475,31 +8475,31 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>24</v>
@@ -8507,10 +8507,10 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
@@ -8523,26 +8523,26 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
@@ -8563,15 +8563,15 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>284</v>
@@ -8587,26 +8587,26 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
@@ -8643,7 +8643,7 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>16</v>
@@ -8651,7 +8651,7 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>9</v>
@@ -8659,18 +8659,18 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
@@ -8699,7 +8699,7 @@
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>153</v>
@@ -8707,10 +8707,10 @@
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
@@ -8723,23 +8723,23 @@
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>9</v>
@@ -8747,34 +8747,34 @@
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
@@ -8803,7 +8803,7 @@
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>24</v>
@@ -8811,7 +8811,7 @@
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>24</v>
@@ -8819,7 +8819,7 @@
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" s="5" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>24</v>
@@ -8827,39 +8827,39 @@
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" s="5" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="B78" s="1" t="s">
         <v>9</v>
@@ -8867,7 +8867,7 @@
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" s="6" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="B79" s="1" t="s">
         <v>9</v>
@@ -8875,7 +8875,7 @@
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="B80" s="1" t="s">
         <v>307</v>
@@ -8883,7 +8883,7 @@
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="B81" s="1" t="s">
         <v>284</v>
@@ -8891,10 +8891,10 @@
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.2">
@@ -8907,7 +8907,7 @@
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B84" s="1" t="s">
         <v>284</v>
@@ -8915,15 +8915,15 @@
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B86" s="1" t="s">
         <v>41</v>
@@ -8931,10 +8931,10 @@
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.2">
@@ -8947,7 +8947,7 @@
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="B89" s="1" t="s">
         <v>239</v>
@@ -8955,7 +8955,7 @@
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="B90" s="1" t="s">
         <v>9</v>
@@ -8971,7 +8971,7 @@
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B92" s="1" t="s">
         <v>189</v>
@@ -9019,10 +9019,10 @@
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98" s="6" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.2">
@@ -9035,15 +9035,15 @@
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B101" s="1" t="s">
         <v>9</v>
@@ -9051,7 +9051,7 @@
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B102" s="1" t="s">
         <v>16</v>
@@ -9059,23 +9059,23 @@
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="B105" s="1" t="s">
         <v>9</v>
@@ -9083,7 +9083,7 @@
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="B106" s="1" t="s">
         <v>9</v>
@@ -9091,7 +9091,7 @@
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="B107" s="1" t="s">
         <v>9</v>
@@ -9099,10 +9099,10 @@
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.2">
@@ -9134,12 +9134,12 @@
         <v>234</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B113" s="1" t="s">
         <v>32</v>
@@ -9147,7 +9147,7 @@
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B114" s="1" t="s">
         <v>9</v>
@@ -9158,7 +9158,7 @@
         <v>237</v>
       </c>
       <c r="B115" s="5" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.2">
@@ -9166,7 +9166,7 @@
         <v>236</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.2">
@@ -9174,7 +9174,7 @@
         <v>235</v>
       </c>
       <c r="B117" s="6" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.2">
@@ -9190,7 +9190,7 @@
         <v>233</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.2">
@@ -9198,7 +9198,7 @@
         <v>33</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.2">
@@ -9211,7 +9211,7 @@
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="B122" s="1" t="s">
         <v>9</v>
@@ -9251,7 +9251,7 @@
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B127" s="1" t="s">
         <v>189</v>
@@ -9259,7 +9259,7 @@
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B128" s="1" t="s">
         <v>24</v>
@@ -9267,7 +9267,7 @@
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B129" s="1" t="s">
         <v>24</v>
@@ -9283,7 +9283,7 @@
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B131" s="1" t="s">
         <v>262</v>
@@ -9291,7 +9291,7 @@
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="B132" s="1" t="s">
         <v>9</v>
@@ -9299,10 +9299,10 @@
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
+        <v>925</v>
+      </c>
+      <c r="B133" s="1" t="s">
         <v>926</v>
-      </c>
-      <c r="B133" s="1" t="s">
-        <v>927</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.2">
@@ -9334,7 +9334,7 @@
         <v>52</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.2">
@@ -9355,15 +9355,15 @@
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A141" s="1" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="B141" s="1" t="s">
         <v>284</v>
@@ -9371,7 +9371,7 @@
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B142" s="1" t="s">
         <v>123</v>
@@ -9387,7 +9387,7 @@
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="B144" s="1" t="s">
         <v>157</v>
@@ -9395,7 +9395,7 @@
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A145" s="1" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="B145" s="1" t="s">
         <v>9</v>
@@ -9419,7 +9419,7 @@
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A148" s="1" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="B148" s="1" t="s">
         <v>9</v>
@@ -9427,7 +9427,7 @@
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="B149" s="1" t="s">
         <v>10</v>
@@ -9459,10 +9459,10 @@
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A153" s="5" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.2">
@@ -9475,26 +9475,26 @@
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A155" s="1" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A156" s="1" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A157" s="1" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.2">
@@ -9534,12 +9534,12 @@
         <v>240</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A163" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B163" s="1" t="s">
         <v>9</v>
@@ -9547,7 +9547,7 @@
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A164" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B164" s="1" t="s">
         <v>16</v>
@@ -9579,10 +9579,10 @@
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A168" s="1" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.2">
@@ -9598,7 +9598,7 @@
         <v>179</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.2">
@@ -9627,7 +9627,7 @@
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A174" s="1" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="B174" s="1" t="s">
         <v>9</v>
@@ -9635,10 +9635,10 @@
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A175" s="1" t="s">
+        <v>910</v>
+      </c>
+      <c r="B175" s="1" t="s">
         <v>911</v>
-      </c>
-      <c r="B175" s="1" t="s">
-        <v>912</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.2">
@@ -9646,60 +9646,60 @@
         <v>300</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A177" s="1" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A178" s="1" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A179" s="1" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A180" s="1" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A181" s="1" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A182" s="1" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A183" s="1" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="B183" s="1" t="s">
         <v>9</v>
@@ -9707,10 +9707,10 @@
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A184" s="1" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.2">
@@ -9723,15 +9723,15 @@
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A186" s="1" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A187" s="1" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="B187" s="1" t="s">
         <v>284</v>
@@ -9739,10 +9739,10 @@
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A188" s="1" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.2">
@@ -9755,10 +9755,10 @@
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A190" s="1" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.2">
@@ -9771,7 +9771,7 @@
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A192" s="1" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="B192" s="1" t="s">
         <v>307</v>
@@ -9795,7 +9795,7 @@
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A195" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B195" s="1" t="s">
         <v>10</v>
@@ -9803,10 +9803,10 @@
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A196" s="1" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.2">
@@ -9819,7 +9819,7 @@
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A198" s="1" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="B198" s="1" t="s">
         <v>284</v>
@@ -9827,7 +9827,7 @@
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A199" s="1" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="B199" s="1" t="s">
         <v>9</v>
@@ -9835,7 +9835,7 @@
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A200" s="1" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="B200" s="1" t="s">
         <v>41</v>
@@ -9854,7 +9854,7 @@
         <v>239</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.2">
@@ -9875,15 +9875,15 @@
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A205" s="2" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A206" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B206" s="1" t="s">
         <v>9</v>
@@ -9891,7 +9891,7 @@
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A207" s="1" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="B207" s="1" t="s">
         <v>9</v>
@@ -9907,10 +9907,10 @@
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A209" s="1" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.2">
@@ -9948,146 +9948,146 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B2" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="B3" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="B4" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="B5" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="B6" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="B7" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="B8" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="B9" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="B10" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="B11" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="B12" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B13" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="B14" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B15" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B16" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="B17" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="B18" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B19" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
@@ -10116,7 +10116,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="B23" t="s">
         <v>12</v>
@@ -10148,58 +10148,58 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="B27" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="B28" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="B29" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="B30" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="B31" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="B32" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="B33" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
@@ -10220,66 +10220,66 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B36" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B37" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="B38" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B39" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="B40" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="B41" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="B42" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="B43" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
@@ -10292,87 +10292,87 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B45" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="B46" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="B47" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="B48" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="B49" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="B50" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="B51" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="B52" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="B53" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="B54" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="B55" t="s">
         <v>168</v>
@@ -10380,26 +10380,26 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="B56" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="B57" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B58" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
@@ -10412,15 +10412,15 @@
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B60" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="B61" t="s">
         <v>12</v>
@@ -10428,47 +10428,47 @@
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="B62" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="B63" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B64" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="B65" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="B66" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="B67" t="s">
         <v>12</v>
@@ -10476,122 +10476,122 @@
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="B68" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="B69" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="B70" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="B71" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B72" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="B73" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="B74" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="B75" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="B76" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="B77" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="B78" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="B79" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B80" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="B81" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="B82" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.2">
@@ -10604,39 +10604,39 @@
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B84" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="B85" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="B86" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="B87" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="B88" t="s">
         <v>12</v>
@@ -10644,90 +10644,90 @@
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="B89" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="B90" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="B91" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="B92" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="B93" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="B94" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="B95" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="B96" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B97" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="B98" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="B99" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.2">
@@ -10740,50 +10740,50 @@
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B101" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="B102" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="B103" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B104" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="B105" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B106" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.2">
@@ -10791,44 +10791,44 @@
         <v>162</v>
       </c>
       <c r="B107" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="B108" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
+        <v>613</v>
+      </c>
+      <c r="B109" t="s">
         <v>614</v>
-      </c>
-      <c r="B109" t="s">
-        <v>615</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="B110" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="B111" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="B112" t="s">
         <v>273</v>
@@ -10836,66 +10836,66 @@
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="B113" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="B114" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
+        <v>595</v>
+      </c>
+      <c r="B115" t="s">
         <v>596</v>
-      </c>
-      <c r="B115" t="s">
-        <v>597</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B116" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B117" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B118" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="B119" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B120" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.2">
@@ -10908,26 +10908,26 @@
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="B122" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="B123" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B124" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
   </sheetData>
@@ -10942,8 +10942,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82DCE302-5DE7-CD43-B663-062D99EF0251}">
   <dimension ref="A1:B286"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="A58" sqref="A58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10961,66 +10961,66 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="B2" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="B3" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="B4" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="B5" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B6" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="B7" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="B8" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="B9" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
@@ -11033,170 +11033,170 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="B11" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="B12" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="B13" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="B14" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B15" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B16" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="B17" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="B18" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="B19" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="B20" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="B21" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="B22" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="B23" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="B24" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B25" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="B26" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="B28" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="B29" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="B30" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
@@ -11209,234 +11209,234 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="B33" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="B36" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B37" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="B38" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="B39" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="B40" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
+        <v>804</v>
+      </c>
+      <c r="B42" t="s">
         <v>805</v>
-      </c>
-      <c r="B42" t="s">
-        <v>806</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="B43" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="B44" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="B45" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="B46" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
+        <v>743</v>
+      </c>
+      <c r="B49" t="s">
         <v>744</v>
-      </c>
-      <c r="B49" t="s">
-        <v>745</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="B51" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B52" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="B54" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="B55" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="B56" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B57" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="B58" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="B59" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="B60" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="B61" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
@@ -11444,36 +11444,36 @@
         <v>301</v>
       </c>
       <c r="B62" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="B63" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="B64" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="B65" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B66" t="s">
         <v>28</v>
@@ -11481,138 +11481,138 @@
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B67" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="B68" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="B69" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="B71" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="B72" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="B73" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="B74" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
+        <v>683</v>
+      </c>
+      <c r="B75" t="s">
         <v>684</v>
-      </c>
-      <c r="B75" t="s">
-        <v>685</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="B76" s="8" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="B77" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="B78" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="B79" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="B80" s="8" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="B81" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B82" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="B83" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.2">
@@ -11625,47 +11625,47 @@
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="B85" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="B86" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87" s="7" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="B87" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B88" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B89" s="7" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B90" s="7" t="s">
         <v>22</v>
@@ -11673,186 +11673,186 @@
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="B91" s="10" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="B92" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="B93" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="B94" s="8" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="B95" s="8" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="B96" s="8" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="B97" s="8" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="B98" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B99" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="B100" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B101" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B102" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="B103" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="B104" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="B105" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="B106" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B107" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="B108" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="B109" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="B110" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B112" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.2">
@@ -11860,47 +11860,47 @@
         <v>303</v>
       </c>
       <c r="B114" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
+        <v>763</v>
+      </c>
+      <c r="B115" t="s">
         <v>764</v>
-      </c>
-      <c r="B115" t="s">
-        <v>765</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="B116" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="B117" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="B118" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A119" s="8" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="B119" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.2">
@@ -11913,66 +11913,66 @@
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="B121" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="B122" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="B123" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="B124" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="B125" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="B126" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="B127" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="B128" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.2">
@@ -11985,266 +11985,266 @@
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="B130" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="B132" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="B133" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="B134" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="B135" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="B136" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B138" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B139" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="B140" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="B141" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="B142" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="B143" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="B144" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="B145" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="B146" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="B147" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="B148" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="B149" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="B150" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="B151" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="B152" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="B153" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="B154" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A155" s="8" t="s">
+        <v>700</v>
+      </c>
+      <c r="B155" t="s">
         <v>701</v>
-      </c>
-      <c r="B155" t="s">
-        <v>702</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="B156" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="B157" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="B158" s="8" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="B159" s="8" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="B160" s="8" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="B161" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="B162" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.2">
@@ -12257,114 +12257,114 @@
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="B164" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="B165" s="3" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="B166" s="8" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="B167" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
+        <v>784</v>
+      </c>
+      <c r="B168" t="s">
         <v>785</v>
-      </c>
-      <c r="B168" t="s">
-        <v>786</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="B169" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="B170" s="8" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="B171" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="B172" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="B173" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="B174" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="B175" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="B176" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="B177" s="3" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.2">
@@ -12377,162 +12377,162 @@
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="B179" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="B180" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="B181" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B182" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="B183" s="8" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="B184" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="B185" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="B186" s="8" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="B187" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="B188" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="B189" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="B190" s="8" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B191" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B192" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B193" s="3" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B194" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B195" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B196" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="B197" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="B198" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.2">
@@ -12545,143 +12545,143 @@
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="B200" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="B201" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="B202" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="B203" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="B204" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="B205" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="B206" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="B207" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="B208" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="B209" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="B210" s="3" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="B211" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B212" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="B213" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B214" s="8" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A215" s="3" t="s">
+        <v>744</v>
+      </c>
+      <c r="B215" t="s">
         <v>745</v>
-      </c>
-      <c r="B215" t="s">
-        <v>746</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="B216" s="8" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="B217" t="s">
         <v>11</v>
@@ -12689,242 +12689,242 @@
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="B218" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="B219" s="7" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="B220" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="B221" s="7" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="B222" s="7" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="B223" s="7" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="B224" s="7" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="B225" s="7" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="B226" s="10" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="B227" s="10" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="B228" s="8" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="B229" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="B230" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="B231" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="B232" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B233" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="B234" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B235" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="B236" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="B237" s="8" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="B238" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="B239" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="B240" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="B241" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="B242" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="B243" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="B244" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="B245" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="B246" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="B247" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.2">
@@ -12932,55 +12932,55 @@
         <v>302</v>
       </c>
       <c r="B248" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="B249" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B250" s="3" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="B251" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="B252" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="B253" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="B254" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.2">
@@ -12988,7 +12988,7 @@
         <v>304</v>
       </c>
       <c r="B255" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.2">
@@ -12996,31 +12996,31 @@
         <v>305</v>
       </c>
       <c r="B256" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="B257" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="B258" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A259" s="8" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="B259" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.2">
@@ -13028,15 +13028,15 @@
         <v>306</v>
       </c>
       <c r="B260" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="B261" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.2">
@@ -13049,10 +13049,10 @@
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="B263" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.2">
@@ -13060,183 +13060,183 @@
         <v>199</v>
       </c>
       <c r="B264" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="B265" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="B266" s="3" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="B267" s="7" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B268" s="7" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="B269" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="B270" s="8" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="B271" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B272" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="B273" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A274" s="2" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="B274" s="8" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A275" s="2" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="B275" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A276" s="2" t="s">
+        <v>834</v>
+      </c>
+      <c r="B276" t="s">
         <v>835</v>
-      </c>
-      <c r="B276" t="s">
-        <v>836</v>
       </c>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A277" s="2" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="B277" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A278" s="2" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="B278" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A279" s="2" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="B279" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="B280" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A281" s="2" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="B281" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="B282" s="8" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A283" s="2" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="B283" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A284" s="2" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="B284" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A285" s="2" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="B285" s="8" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A286" s="8" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B286" s="4" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
   </sheetData>
